--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\code\TGE_Seq2Seq_pic_drawer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C069F6D-25C5-40BB-B2A9-C871C69DE780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A8807D-E781-40BA-8020-68BC234157A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="1380" windowWidth="21600" windowHeight="11835" tabRatio="614" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="614" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="数据集切分" sheetId="1" r:id="rId1"/>
-    <sheet name="全部实验总表ACC" sheetId="2" r:id="rId2"/>
-    <sheet name="RQ1表" sheetId="4" r:id="rId3"/>
-    <sheet name="原表4" sheetId="5" r:id="rId4"/>
-    <sheet name="原表4-2" sheetId="6" r:id="rId5"/>
-    <sheet name="全部实验总表BLEU" sheetId="3" r:id="rId6"/>
-    <sheet name="Statistics of Tag-Graph" sheetId="7" r:id="rId7"/>
+    <sheet name="0数据集切分" sheetId="1" r:id="rId1"/>
+    <sheet name="1全部实验总表ACC" sheetId="2" r:id="rId2"/>
+    <sheet name="2RQ1表" sheetId="4" r:id="rId3"/>
+    <sheet name="3原表4" sheetId="5" r:id="rId4"/>
+    <sheet name="4原表4-2" sheetId="6" r:id="rId5"/>
+    <sheet name="5全部实验总表BLEU" sheetId="3" r:id="rId6"/>
+    <sheet name="6Statistics of Tag-Graph" sheetId="7" r:id="rId7"/>
+    <sheet name="7description_length" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="60">
   <si>
     <t>HS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +263,10 @@
   </si>
   <si>
     <t>Edges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Std.Dev</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -312,7 +317,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -340,11 +345,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -404,10 +418,28 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -693,7 +725,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -712,40 +744,40 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="30" t="s">
         <v>14</v>
       </c>
     </row>
@@ -753,40 +785,40 @@
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="B2" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="31" t="s">
         <v>27</v>
       </c>
     </row>
@@ -794,40 +826,40 @@
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="B3" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="31" t="s">
         <v>27</v>
       </c>
     </row>
@@ -835,40 +867,40 @@
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="5" t="s">
+      <c r="B4" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="31" t="s">
         <v>27</v>
       </c>
     </row>
@@ -876,40 +908,40 @@
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="B5" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="31" t="s">
         <v>27</v>
       </c>
     </row>
@@ -917,40 +949,40 @@
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="5" t="s">
+      <c r="B6" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="31" t="s">
         <v>27</v>
       </c>
     </row>
@@ -958,40 +990,40 @@
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="5" t="s">
+      <c r="B7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="31" t="s">
         <v>27</v>
       </c>
     </row>
@@ -999,40 +1031,40 @@
       <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="5" t="s">
+      <c r="B8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="31" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1040,40 +1072,40 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="5" t="s">
+      <c r="B9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="31" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1081,40 +1113,40 @@
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="5" t="s">
+      <c r="B10" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="31" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1122,40 +1154,40 @@
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="5" t="s">
+      <c r="B11" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="31" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1163,40 +1195,40 @@
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="5" t="s">
+      <c r="B12" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="31" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1204,40 +1236,40 @@
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="7" t="s">
+      <c r="B13" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="32" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1250,10 +1282,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509B9FEE-7A24-4393-A617-AE746BCF0437}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1264,7 +1296,7 @@
     <col min="4" max="4" width="4.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1295,7 +1327,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -1307,20 +1339,20 @@
       <c r="D2" s="28">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>27</v>
+      <c r="E2" s="28">
+        <v>2.1</v>
+      </c>
+      <c r="F2" s="28">
+        <v>18.5</v>
+      </c>
+      <c r="G2" s="28">
+        <v>20.8</v>
       </c>
       <c r="H2" s="28">
         <v>31.2</v>
       </c>
       <c r="I2" s="28">
-        <v>17.7</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1351,73 +1383,57 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C5" s="28">
         <v>1.5</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D5" s="28">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="28">
+      <c r="E5" s="28">
+        <v>1.4</v>
+      </c>
+      <c r="F5" s="28">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G5" s="28">
+        <v>11.6</v>
+      </c>
+      <c r="H5" s="28">
         <v>15.3</v>
       </c>
-      <c r="I4" s="28">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="12" t="s">
+      <c r="I5" s="28">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="24"/>
+      <c r="B6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="28">
-        <v>0.9</v>
-      </c>
-      <c r="D6" s="28">
-        <v>3.2</v>
+      <c r="C6" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>27</v>
@@ -1428,67 +1444,53 @@
       <c r="G6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="28">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I6" s="30">
-        <v>9.3000000000000007</v>
+      <c r="H6" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="24"/>
       <c r="B7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>27</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="28">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="D8" s="28">
-        <v>1.9</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>27</v>
+        <v>3.2</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="28">
+        <v>2.6</v>
+      </c>
+      <c r="G8" s="28">
+        <v>4.4000000000000004</v>
       </c>
       <c r="H8" s="28">
-        <v>5.7</v>
-      </c>
-      <c r="I8" s="28">
-        <v>7.4</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I8" s="24">
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1519,73 +1521,57 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>7</v>
-      </c>
+      <c r="A10" s="24"/>
       <c r="B10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="28">
-        <v>1.2</v>
-      </c>
-      <c r="D10" s="28">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="28">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I10" s="28">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="D11" s="28">
+        <v>1.9</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0</v>
+      </c>
+      <c r="F11" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="28">
+        <v>1</v>
+      </c>
+      <c r="H11" s="28">
+        <v>5.7</v>
+      </c>
+      <c r="I11" s="28">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="24"/>
+      <c r="B12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="28">
-        <v>0.3</v>
-      </c>
-      <c r="D12" s="28">
-        <v>3.6</v>
+      <c r="C12" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="E12" s="28" t="s">
         <v>27</v>
@@ -1596,67 +1582,53 @@
       <c r="G12" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="28">
-        <v>7.1</v>
-      </c>
-      <c r="I12" s="28">
-        <v>10.1</v>
+      <c r="H12" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>27</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="28">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="D14" s="28">
-        <v>1.7</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>27</v>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E14" s="28">
+        <v>1.6</v>
+      </c>
+      <c r="F14" s="28">
+        <v>7.2</v>
+      </c>
+      <c r="G14" s="28">
+        <v>5.4</v>
       </c>
       <c r="H14" s="28">
-        <v>3.2</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I14" s="28">
-        <v>8.1999999999999993</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1687,73 +1659,57 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
-        <v>10</v>
-      </c>
+      <c r="A16" s="24"/>
       <c r="B16" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="28">
-        <v>0</v>
-      </c>
-      <c r="D16" s="28">
+      <c r="C17" s="28">
         <v>0.3</v>
       </c>
-      <c r="E16" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="28">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I16" s="28">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="12" t="s">
+      <c r="D17" s="28">
+        <v>3.6</v>
+      </c>
+      <c r="E17" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="F17" s="28">
+        <v>3.9</v>
+      </c>
+      <c r="G17" s="28">
+        <v>3.2</v>
+      </c>
+      <c r="H17" s="28">
+        <v>7.1</v>
+      </c>
+      <c r="I17" s="28">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="24"/>
+      <c r="B18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="28">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D18" s="28">
-        <v>6.4</v>
+      <c r="C18" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>27</v>
@@ -1764,67 +1720,53 @@
       <c r="G18" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="28">
-        <v>8.1</v>
-      </c>
-      <c r="I18" s="28">
-        <v>15.8</v>
+      <c r="H18" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="24"/>
       <c r="B19" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>27</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D20" s="28">
-        <v>4.7</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>27</v>
+        <v>1.7</v>
+      </c>
+      <c r="E20" s="28">
+        <v>0</v>
+      </c>
+      <c r="F20" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="G20" s="28">
+        <v>0</v>
       </c>
       <c r="H20" s="28">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="I20" s="28">
-        <v>13.6</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1855,132 +1797,364 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="28">
+        <v>0</v>
+      </c>
+      <c r="D23" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="E23" s="28">
+        <v>0</v>
+      </c>
+      <c r="F23" s="28">
+        <v>0</v>
+      </c>
+      <c r="G23" s="28">
+        <v>0</v>
+      </c>
+      <c r="H23" s="28">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I23" s="28">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="24"/>
+      <c r="B24" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="24"/>
+      <c r="B25" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D26" s="28">
+        <v>6.4</v>
+      </c>
+      <c r="E26" s="28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F26" s="28">
+        <v>3</v>
+      </c>
+      <c r="G26" s="28">
+        <v>1.7</v>
+      </c>
+      <c r="H26" s="28">
+        <v>8.1</v>
+      </c>
+      <c r="I26" s="28">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="24"/>
+      <c r="B27" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="24"/>
+      <c r="B28" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="28">
+        <v>4.7</v>
+      </c>
+      <c r="E29" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="F29" s="28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G29" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="H29" s="28">
+        <v>3.7</v>
+      </c>
+      <c r="I29" s="28">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="24"/>
+      <c r="B30" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="24"/>
+      <c r="B31" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B32" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C32" s="28">
         <v>0</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D32" s="28">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E22" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="28">
+      <c r="E32" s="28">
+        <v>0</v>
+      </c>
+      <c r="F32" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="28">
+        <v>0</v>
+      </c>
+      <c r="H32" s="28">
         <v>1.9</v>
       </c>
-      <c r="I22" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="12" t="s">
+      <c r="I32" s="28">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="24"/>
+      <c r="B33" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+      <c r="C33" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="24"/>
+      <c r="B34" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B35" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C35" s="28">
         <v>0</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D35" s="28">
         <v>1.3</v>
       </c>
-      <c r="E24" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="28">
+      <c r="E35" s="28">
+        <v>0</v>
+      </c>
+      <c r="F35" s="28">
+        <v>0</v>
+      </c>
+      <c r="G35" s="28">
+        <v>0</v>
+      </c>
+      <c r="H35" s="28">
         <v>1.3</v>
       </c>
-      <c r="I24" s="28">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="13" t="s">
+      <c r="I35" s="28">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="24"/>
+      <c r="B36" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>27</v>
-      </c>
+      <c r="C36" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="25"/>
+      <c r="B37" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1992,7 +2166,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C4" sqref="A1:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2469,7 +2643,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2707,736 +2881,1019 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3CDFB9-B257-463C-861B-7D0430F9E42F}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.75" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="36" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="C2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="C3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="33"/>
+      <c r="B6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="9" t="s">
+      <c r="C6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="24"/>
       <c r="B7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>6</v>
+      <c r="A8" s="33" t="s">
+        <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="C8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="9" t="s">
+      <c r="C9" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>7</v>
-      </c>
+      <c r="A10" s="24"/>
       <c r="B10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="33"/>
+      <c r="B12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="9" t="s">
+      <c r="C12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
-        <v>9</v>
+      <c r="A14" s="33" t="s">
+        <v>7</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="9" t="s">
+      <c r="C14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="9" t="s">
+      <c r="C15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
-        <v>10</v>
-      </c>
+      <c r="A16" s="24"/>
       <c r="B16" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="12" t="s">
+      <c r="C17" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="9" t="s">
+      <c r="C18" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="24"/>
       <c r="B19" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
-        <v>12</v>
+      <c r="A20" s="33" t="s">
+        <v>9</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="9" t="s">
+      <c r="C20" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="9" t="s">
+      <c r="C21" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="33"/>
+      <c r="B24" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="24"/>
+      <c r="B25" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="33"/>
+      <c r="B27" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="24"/>
+      <c r="B28" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="33"/>
+      <c r="B30" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="24"/>
+      <c r="B31" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B32" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="12" t="s">
+      <c r="C32" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="33"/>
+      <c r="B33" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+      <c r="C33" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="24"/>
+      <c r="B34" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B35" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="13" t="s">
+      <c r="C35" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="35"/>
+      <c r="B36" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="10" t="s">
+      <c r="C36" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="25" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3447,7 +3904,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3558,4 +4015,35 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D38D3A4-9F1A-4327-A87E-6C063CFD19C6}">
+  <dimension ref="A2:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\code\TGE_Seq2Seq_pic_drawer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F3BEDD-4D41-42BA-AFF4-8DBD0769BCDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CE5DBD-13E8-42F3-A487-627855E98068}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="614" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="614" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0数据集切分" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="8up_and_down" sheetId="9" r:id="rId9"/>
     <sheet name="9epoch" sheetId="10" r:id="rId10"/>
     <sheet name="10normal" sheetId="11" r:id="rId11"/>
+    <sheet name="11edges" sheetId="12" r:id="rId12"/>
+    <sheet name="12Statistics_of_edges" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="105">
   <si>
     <t>HS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -923,15 +925,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1007,6 +1000,15 @@
     </xf>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1099,58 +1101,58 @@
                   <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2650368838689863</c:v>
+                  <c:v>1.9443211722642608</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1964482920901696</c:v>
+                  <c:v>2.3755558244776931</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3062132606216319</c:v>
+                  <c:v>3.0722895731414082</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5631856287876547</c:v>
+                  <c:v>2.8292189253601601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2953812412069849</c:v>
+                  <c:v>2.84535711042244</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5563673790143007</c:v>
+                  <c:v>2.7567881216897683</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8056693726535604</c:v>
+                  <c:v>2.73602821372512</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1045555626593391</c:v>
+                  <c:v>3.9839292643572675</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7171585633770627</c:v>
+                  <c:v>4.5245552780408236</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0523444777914683</c:v>
+                  <c:v>5.2460814781805603</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.8657000691447596</c:v>
+                  <c:v>6.4425153132998103</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.1398294399654185</c:v>
+                  <c:v>8.3292528730475013</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.3812828063900229</c:v>
+                  <c:v>8.6496143984361336</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.4546325799447839</c:v>
+                  <c:v>10.08275446200274</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.736009373961076</c:v>
+                  <c:v>9.6341240395874941</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.334656382477696</c:v>
+                  <c:v>11.758652234334445</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.874331621541408</c:v>
+                  <c:v>12.210512686443716</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.0_ ">
                   <c:v>12.9</c:v>
@@ -1190,58 +1192,58 @@
                   <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9353633306247766</c:v>
+                  <c:v>1.9870980677680934</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4964870986478962</c:v>
+                  <c:v>3.7294385893804369</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7611848124128826</c:v>
+                  <c:v>3.6123206587384677</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.790252741565717</c:v>
+                  <c:v>3.1846059411318395</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3565148112476715</c:v>
+                  <c:v>4.6124056072188777</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.841839764788908</c:v>
+                  <c:v>3.2347083835892363</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5787804299048744</c:v>
+                  <c:v>2.8415446493401424</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6904873694777738</c:v>
+                  <c:v>5.547855267451018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.7848622478227067</c:v>
+                  <c:v>5.0870174198981024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.2634564917883768</c:v>
+                  <c:v>6.0298771017617945</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1911251254611992</c:v>
+                  <c:v>6.8547497397785442</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.6179222273871297</c:v>
+                  <c:v>9.176411164869684</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.3857129217190227</c:v>
+                  <c:v>10.234248600095304</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.9378475375610016</c:v>
+                  <c:v>10.329952271099295</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.960853709657799</c:v>
+                  <c:v>10.437125227720042</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.169164531867057</c:v>
+                  <c:v>12.678211765370698</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.508634778356013</c:v>
+                  <c:v>13.273478506117975</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.0_ ">
                   <c:v>13.3</c:v>
@@ -1281,58 +1283,58 @@
                   <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6259810441528386</c:v>
+                  <c:v>1.7158335146573274</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0422786243143669</c:v>
+                  <c:v>2.536695609971173</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.01052834383544</c:v>
+                  <c:v>2.1777531585945398</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2260882478732471</c:v>
+                  <c:v>2.4025174949804615</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5284011926218897</c:v>
+                  <c:v>4.0208061412446972</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5648966034941241</c:v>
+                  <c:v>3.344286714132767</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8256147250865333</c:v>
+                  <c:v>3.3874723270691955</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2833364529332036</c:v>
+                  <c:v>4.8178636199465306</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.7527059983629387</c:v>
+                  <c:v>4.1406413573037417</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4470414200337034</c:v>
+                  <c:v>4.7823704990910505</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.5475493801745372</c:v>
+                  <c:v>6.7693417616646512</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.5683622600085965</c:v>
+                  <c:v>9.1171727606828465</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.7005842310814145</c:v>
+                  <c:v>10.689709770329522</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.098613198845182</c:v>
+                  <c:v>10.277143808495659</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.761173742420802</c:v>
+                  <c:v>10.70113988987629</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.25157810417444</c:v>
+                  <c:v>14.939060725197233</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.968747245391382</c:v>
+                  <c:v>15.542800027625058</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.0_ ">
                   <c:v>14.8</c:v>
@@ -1372,58 +1374,58 @@
                   <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2265792912559528</c:v>
+                  <c:v>1.7801817178311317</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6636999639406098</c:v>
+                  <c:v>0.95740018932777171</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.113132722042729</c:v>
+                  <c:v>0.91842532154782164</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5280978552738791</c:v>
+                  <c:v>2.1958205742226737</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5480871892064307</c:v>
+                  <c:v>3.8563559159834426</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9855072444487787</c:v>
+                  <c:v>2.7333558457479508</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8195222836648322</c:v>
+                  <c:v>2.5461948164484616</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0388375051169261</c:v>
+                  <c:v>2.5001172773646898</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4482643893957889</c:v>
+                  <c:v>3.6728909438903479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.191408946716261</c:v>
+                  <c:v>2.6279201494423159</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1784848410446909</c:v>
+                  <c:v>6.1077988676824981</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.3745939885452856</c:v>
+                  <c:v>8.7987805544300564</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.6710607294579614</c:v>
+                  <c:v>9.821179406813064</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.436082558046616</c:v>
+                  <c:v>9.373990347005666</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.183845522127205</c:v>
+                  <c:v>8.9943647403297788</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.397438471842527</c:v>
+                  <c:v>15.413688116014152</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.457604328148555</c:v>
+                  <c:v>14.871474366710249</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.0_ ">
                   <c:v>14.4</c:v>
@@ -1463,58 +1465,58 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4874308215037475</c:v>
+                  <c:v>1.9240519995476877</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1903869915996288</c:v>
+                  <c:v>1.5249092785622096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6916735052434628</c:v>
+                  <c:v>1.282319860826624</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6699249502188152</c:v>
+                  <c:v>2.4557896528414163</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0742940394406029</c:v>
+                  <c:v>2.1442414659487383</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1849116798891948</c:v>
+                  <c:v>1.2766721530359861</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5319595285554071</c:v>
+                  <c:v>2.7248781989186197</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4162203643150248</c:v>
+                  <c:v>1.231487186077644</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2492123639567663</c:v>
+                  <c:v>2.1347827191869495</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8815115144799588</c:v>
+                  <c:v>2.15249294153476</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.17068224636553</c:v>
+                  <c:v>2.8996770819176496</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2633393282793399</c:v>
+                  <c:v>3.2625337016818632</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0603237858161325</c:v>
+                  <c:v>6.2101129172982077</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.9566385003170321</c:v>
+                  <c:v>5.0110454645434661</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.4468063270279696</c:v>
+                  <c:v>4.8777073762590515</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.6080368134957403</c:v>
+                  <c:v>13.750478189521997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.4115627033417812</c:v>
+                  <c:v>14.763404983064859</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.0_ ">
                   <c:v>13.1</c:v>
@@ -1554,46 +1556,46 @@
                   <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1325784052693324</c:v>
+                  <c:v>2.5126109776655499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4650986010373002</c:v>
+                  <c:v>1.9333218405415133</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0110217294919135</c:v>
+                  <c:v>2.0151133483988302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0059628420985227</c:v>
+                  <c:v>3.4988159596388195</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5668993930633839</c:v>
+                  <c:v>3.576184640604235</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.551109933642338</c:v>
+                  <c:v>2.9732003933530322</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5513205187879646</c:v>
+                  <c:v>3.0648438828927658</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8560811407641706</c:v>
+                  <c:v>3.8876223131919554</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.5113254040794786</c:v>
+                  <c:v>4.8952835453797512</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3961938522205877</c:v>
+                  <c:v>5.4534678823804468</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.8891996697961186</c:v>
+                  <c:v>7.3013334693085792</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.3720450202365226</c:v>
+                  <c:v>8.2560238983753678</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.044177348668796</c:v>
+                  <c:v>9.8647660341997483</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>14</c:v>
@@ -1650,25 +1652,25 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3456794327115862</c:v>
+                  <c:v>3.4230069357099335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9505664211270464</c:v>
+                  <c:v>4.3949704531488241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.949054798026939</c:v>
+                  <c:v>6.3148641779253918</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5978193522526052</c:v>
+                  <c:v>7.5890979481638157</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5929750796095199</c:v>
+                  <c:v>9.0357689929064922</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.547593957817664</c:v>
+                  <c:v>10.24272068178011</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.41265116077901</c:v>
+                  <c:v>12.226375556456436</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>13.7</c:v>
@@ -1908,392 +1910,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'10normal'!$A$1:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17.2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'10normal'!$B$1:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BBD4-42C1-BB73-6C5D1889B8FB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="876843039"/>
-        <c:axId val="878755071"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="876843039"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="878755071"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="878755071"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="876843039"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2849,522 +2466,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3386,47 +2487,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD0E4E2D-1C93-4B1D-B06C-58954F04AFAF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>80962</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>538162</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1F1BF6-DC97-479B-9FED-590D7D5A3BFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4534,7 +3594,7 @@
   <dimension ref="A1:CV8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:V8"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4549,1493 +3609,2202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.2">
-      <c r="A1" s="143"/>
-      <c r="B1" s="143">
+      <c r="A1" s="140"/>
+      <c r="B1" s="140">
         <v>5</v>
       </c>
-      <c r="C1" s="143">
+      <c r="C1" s="140">
         <v>10</v>
       </c>
-      <c r="D1" s="143">
+      <c r="D1" s="140">
         <v>15</v>
       </c>
-      <c r="E1" s="143">
+      <c r="E1" s="140">
         <v>20</v>
       </c>
-      <c r="F1" s="143">
+      <c r="F1" s="140">
         <v>25</v>
       </c>
-      <c r="G1" s="143">
+      <c r="G1" s="140">
         <v>30</v>
       </c>
-      <c r="H1" s="143">
+      <c r="H1" s="140">
         <v>35</v>
       </c>
-      <c r="I1" s="143">
+      <c r="I1" s="140">
         <v>40</v>
       </c>
-      <c r="J1" s="143">
+      <c r="J1" s="140">
         <v>45</v>
       </c>
-      <c r="K1" s="143">
+      <c r="K1" s="140">
         <v>50</v>
       </c>
-      <c r="L1" s="143">
+      <c r="L1" s="140">
         <v>55</v>
       </c>
-      <c r="M1" s="143">
+      <c r="M1" s="140">
         <v>60</v>
       </c>
-      <c r="N1" s="143">
+      <c r="N1" s="140">
         <v>65</v>
       </c>
-      <c r="O1" s="143">
+      <c r="O1" s="140">
         <v>70</v>
       </c>
-      <c r="P1" s="143">
+      <c r="P1" s="140">
         <v>75</v>
       </c>
-      <c r="Q1" s="143">
+      <c r="Q1" s="140">
         <v>80</v>
       </c>
-      <c r="R1" s="143">
+      <c r="R1" s="140">
         <v>85</v>
       </c>
-      <c r="S1" s="143">
+      <c r="S1" s="140">
         <v>90</v>
       </c>
-      <c r="T1" s="143">
+      <c r="T1" s="140">
         <v>95</v>
       </c>
-      <c r="U1" s="143">
+      <c r="U1" s="140">
         <v>100</v>
       </c>
-      <c r="V1" s="143"/>
-      <c r="W1" s="143"/>
-      <c r="X1" s="143"/>
-      <c r="Y1" s="143"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="143"/>
-      <c r="AB1" s="143"/>
-      <c r="AC1" s="143"/>
-      <c r="AD1" s="143"/>
-      <c r="AE1" s="143"/>
-      <c r="AF1" s="143"/>
-      <c r="AG1" s="143"/>
-      <c r="AH1" s="143"/>
-      <c r="AI1" s="143"/>
-      <c r="AJ1" s="143"/>
-      <c r="AK1" s="143"/>
-      <c r="AL1" s="143"/>
-      <c r="AM1" s="143"/>
-      <c r="AN1" s="143"/>
-      <c r="AO1" s="143"/>
-      <c r="AP1" s="143"/>
-      <c r="AQ1" s="143"/>
-      <c r="AR1" s="143"/>
-      <c r="AS1" s="143"/>
-      <c r="AT1" s="143"/>
-      <c r="AU1" s="143"/>
-      <c r="AV1" s="143"/>
-      <c r="AW1" s="143"/>
-      <c r="AX1" s="143"/>
-      <c r="AY1" s="143"/>
-      <c r="AZ1" s="143"/>
-      <c r="BA1" s="143"/>
-      <c r="BB1" s="143"/>
-      <c r="BC1" s="143"/>
-      <c r="BD1" s="143"/>
-      <c r="BE1" s="143"/>
-      <c r="BF1" s="143"/>
-      <c r="BG1" s="143"/>
-      <c r="BH1" s="143"/>
-      <c r="BI1" s="143"/>
-      <c r="BJ1" s="143"/>
-      <c r="BK1" s="143"/>
-      <c r="BL1" s="143"/>
-      <c r="BM1" s="143"/>
-      <c r="BN1" s="143"/>
-      <c r="BO1" s="143"/>
-      <c r="BP1" s="143"/>
-      <c r="BQ1" s="143"/>
-      <c r="BR1" s="143"/>
-      <c r="BS1" s="143"/>
-      <c r="BT1" s="143"/>
-      <c r="BU1" s="143"/>
-      <c r="BV1" s="143"/>
-      <c r="BW1" s="143"/>
-      <c r="BX1" s="143"/>
-      <c r="BY1" s="143"/>
-      <c r="BZ1" s="143"/>
-      <c r="CA1" s="143"/>
-      <c r="CB1" s="143"/>
-      <c r="CC1" s="143"/>
-      <c r="CD1" s="143"/>
-      <c r="CE1" s="143"/>
-      <c r="CF1" s="143"/>
-      <c r="CG1" s="143"/>
-      <c r="CH1" s="143"/>
-      <c r="CI1" s="143"/>
-      <c r="CJ1" s="143"/>
-      <c r="CK1" s="143"/>
-      <c r="CL1" s="143"/>
-      <c r="CM1" s="143"/>
-      <c r="CN1" s="143"/>
-      <c r="CO1" s="143"/>
-      <c r="CP1" s="143"/>
-      <c r="CQ1" s="143"/>
-      <c r="CR1" s="143"/>
-      <c r="CS1" s="143"/>
-      <c r="CT1" s="143"/>
-      <c r="CU1" s="143"/>
-      <c r="CV1" s="143"/>
-    </row>
-    <row r="2" spans="1:100" s="142" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="144" t="s">
+      <c r="V1" s="140"/>
+      <c r="W1" s="140"/>
+      <c r="X1" s="140"/>
+      <c r="Y1" s="140"/>
+      <c r="Z1" s="140"/>
+      <c r="AA1" s="140"/>
+      <c r="AB1" s="140"/>
+      <c r="AC1" s="140"/>
+      <c r="AD1" s="140"/>
+      <c r="AE1" s="140"/>
+      <c r="AF1" s="140"/>
+      <c r="AG1" s="140"/>
+      <c r="AH1" s="140"/>
+      <c r="AI1" s="140"/>
+      <c r="AJ1" s="140"/>
+      <c r="AK1" s="140"/>
+      <c r="AL1" s="140"/>
+      <c r="AM1" s="140"/>
+      <c r="AN1" s="140"/>
+      <c r="AO1" s="140"/>
+      <c r="AP1" s="140"/>
+      <c r="AQ1" s="140"/>
+      <c r="AR1" s="140"/>
+      <c r="AS1" s="140"/>
+      <c r="AT1" s="140"/>
+      <c r="AU1" s="140"/>
+      <c r="AV1" s="140"/>
+      <c r="AW1" s="140"/>
+      <c r="AX1" s="140"/>
+      <c r="AY1" s="140"/>
+      <c r="AZ1" s="140"/>
+      <c r="BA1" s="140"/>
+      <c r="BB1" s="140"/>
+      <c r="BC1" s="140"/>
+      <c r="BD1" s="140"/>
+      <c r="BE1" s="140"/>
+      <c r="BF1" s="140"/>
+      <c r="BG1" s="140"/>
+      <c r="BH1" s="140"/>
+      <c r="BI1" s="140"/>
+      <c r="BJ1" s="140"/>
+      <c r="BK1" s="140"/>
+      <c r="BL1" s="140"/>
+      <c r="BM1" s="140"/>
+      <c r="BN1" s="140"/>
+      <c r="BO1" s="140"/>
+      <c r="BP1" s="140"/>
+      <c r="BQ1" s="140"/>
+      <c r="BR1" s="140"/>
+      <c r="BS1" s="140"/>
+      <c r="BT1" s="140"/>
+      <c r="BU1" s="140"/>
+      <c r="BV1" s="140"/>
+      <c r="BW1" s="140"/>
+      <c r="BX1" s="140"/>
+      <c r="BY1" s="140"/>
+      <c r="BZ1" s="140"/>
+      <c r="CA1" s="140"/>
+      <c r="CB1" s="140"/>
+      <c r="CC1" s="140"/>
+      <c r="CD1" s="140"/>
+      <c r="CE1" s="140"/>
+      <c r="CF1" s="140"/>
+      <c r="CG1" s="140"/>
+      <c r="CH1" s="140"/>
+      <c r="CI1" s="140"/>
+      <c r="CJ1" s="140"/>
+      <c r="CK1" s="140"/>
+      <c r="CL1" s="140"/>
+      <c r="CM1" s="140"/>
+      <c r="CN1" s="140"/>
+      <c r="CO1" s="140"/>
+      <c r="CP1" s="140"/>
+      <c r="CQ1" s="140"/>
+      <c r="CR1" s="140"/>
+      <c r="CS1" s="140"/>
+      <c r="CT1" s="140"/>
+      <c r="CU1" s="140"/>
+      <c r="CV1" s="140"/>
+    </row>
+    <row r="2" spans="1:100" s="139" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="145">
+      <c r="B2" s="142">
         <v>1.3</v>
       </c>
-      <c r="C2" s="145">
+      <c r="C2" s="142">
         <f ca="1">($K2-$B2)/($K1-$B1)*(C1-$B1)+$B2+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
-        <v>2.2650368838689863</v>
-      </c>
-      <c r="D2" s="145">
-        <f t="shared" ref="D2:L2" ca="1" si="0">($K2-$B2)/($K1-$B1)*(D1-$B1)+$B2+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
-        <v>1.1964482920901696</v>
-      </c>
-      <c r="E2" s="145">
+        <v>1.9443211722642608</v>
+      </c>
+      <c r="D2" s="142">
+        <f t="shared" ref="D2:J2" ca="1" si="0">($K2-$B2)/($K1-$B1)*(D1-$B1)+$B2+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
+        <v>2.3755558244776931</v>
+      </c>
+      <c r="E2" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3062132606216319</v>
-      </c>
-      <c r="F2" s="145">
+        <v>3.0722895731414082</v>
+      </c>
+      <c r="F2" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5631856287876547</v>
-      </c>
-      <c r="G2" s="145">
+        <v>2.8292189253601601</v>
+      </c>
+      <c r="G2" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2953812412069849</v>
-      </c>
-      <c r="H2" s="145">
+        <v>2.84535711042244</v>
+      </c>
+      <c r="H2" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5563673790143007</v>
-      </c>
-      <c r="I2" s="145">
+        <v>2.7567881216897683</v>
+      </c>
+      <c r="I2" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8056693726535604</v>
-      </c>
-      <c r="J2" s="145">
+        <v>2.73602821372512</v>
+      </c>
+      <c r="J2" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1045555626593391</v>
-      </c>
-      <c r="K2" s="145">
+        <v>3.9839292643572675</v>
+      </c>
+      <c r="K2" s="142">
         <v>3.7</v>
       </c>
-      <c r="L2" s="145">
+      <c r="L2" s="142">
         <f ca="1">($U2-$K2)/($U1-$K1)*(L1-$K1)+$K2+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
-        <v>4.7171585633770627</v>
-      </c>
-      <c r="M2" s="145">
+        <v>4.5245552780408236</v>
+      </c>
+      <c r="M2" s="142">
         <f t="shared" ref="M2:T2" ca="1" si="1">($U2-$K2)/($U1-$K1)*(M1-$K1)+$K2+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
-        <v>6.0523444777914683</v>
-      </c>
-      <c r="N2" s="145">
+        <v>5.2460814781805603</v>
+      </c>
+      <c r="N2" s="142">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8657000691447596</v>
-      </c>
-      <c r="O2" s="145">
+        <v>6.4425153132998103</v>
+      </c>
+      <c r="O2" s="142">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1398294399654185</v>
-      </c>
-      <c r="P2" s="145">
+        <v>8.3292528730475013</v>
+      </c>
+      <c r="P2" s="142">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3812828063900229</v>
-      </c>
-      <c r="Q2" s="145">
+        <v>8.6496143984361336</v>
+      </c>
+      <c r="Q2" s="142">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4546325799447839</v>
-      </c>
-      <c r="R2" s="145">
+        <v>10.08275446200274</v>
+      </c>
+      <c r="R2" s="142">
         <f t="shared" ca="1" si="1"/>
-        <v>10.736009373961076</v>
-      </c>
-      <c r="S2" s="145">
+        <v>9.6341240395874941</v>
+      </c>
+      <c r="S2" s="142">
         <f t="shared" ca="1" si="1"/>
-        <v>10.334656382477696</v>
-      </c>
-      <c r="T2" s="145">
+        <v>11.758652234334445</v>
+      </c>
+      <c r="T2" s="142">
         <f t="shared" ca="1" si="1"/>
-        <v>11.874331621541408</v>
+        <v>12.210512686443716</v>
       </c>
       <c r="U2" s="68">
         <v>12.9</v>
       </c>
-      <c r="V2" s="145">
+      <c r="V2" s="142">
         <f t="shared" ref="V2:V7" ca="1" si="2">STDEV(B2:U2)</f>
-        <v>3.6741862644286187</v>
-      </c>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="145"/>
-      <c r="AA2" s="145"/>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="145"/>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AG2" s="145"/>
-      <c r="AH2" s="145"/>
-      <c r="AI2" s="145"/>
-      <c r="AJ2" s="145"/>
-      <c r="AK2" s="145"/>
-      <c r="AL2" s="145"/>
-      <c r="AM2" s="145"/>
-      <c r="AN2" s="145"/>
-      <c r="AO2" s="145"/>
-      <c r="AP2" s="145"/>
-      <c r="AQ2" s="145"/>
-      <c r="AR2" s="145"/>
-      <c r="AS2" s="145"/>
-      <c r="AT2" s="145"/>
-      <c r="AU2" s="145"/>
-      <c r="AV2" s="145"/>
-      <c r="AW2" s="145"/>
-      <c r="AX2" s="145"/>
-      <c r="AY2" s="145"/>
-      <c r="AZ2" s="145"/>
-      <c r="BA2" s="145"/>
-      <c r="BB2" s="145"/>
-      <c r="BC2" s="145"/>
-      <c r="BD2" s="145"/>
-      <c r="BE2" s="145"/>
-      <c r="BF2" s="145"/>
-      <c r="BG2" s="145"/>
-      <c r="BH2" s="145"/>
-      <c r="BI2" s="145"/>
-      <c r="BJ2" s="145"/>
-      <c r="BK2" s="145"/>
-      <c r="BL2" s="145"/>
-      <c r="BM2" s="145"/>
-      <c r="BN2" s="145"/>
-      <c r="BO2" s="145"/>
-      <c r="BP2" s="145"/>
-      <c r="BQ2" s="145"/>
-      <c r="BR2" s="145"/>
-      <c r="BS2" s="145"/>
-      <c r="BT2" s="145"/>
-      <c r="BU2" s="145"/>
-      <c r="BV2" s="145"/>
-      <c r="BW2" s="145"/>
-      <c r="BX2" s="145"/>
-      <c r="BY2" s="145"/>
-      <c r="BZ2" s="145"/>
-      <c r="CA2" s="145"/>
-      <c r="CB2" s="145"/>
-      <c r="CC2" s="145"/>
-      <c r="CD2" s="145"/>
-      <c r="CE2" s="145"/>
-      <c r="CF2" s="145"/>
-      <c r="CG2" s="145"/>
-      <c r="CH2" s="145"/>
-      <c r="CI2" s="145"/>
-      <c r="CJ2" s="145"/>
-      <c r="CK2" s="145"/>
-      <c r="CL2" s="145"/>
-      <c r="CM2" s="145"/>
-      <c r="CN2" s="145"/>
-      <c r="CO2" s="145"/>
-      <c r="CP2" s="145"/>
-      <c r="CQ2" s="145"/>
-      <c r="CR2" s="145"/>
-      <c r="CS2" s="145"/>
-      <c r="CT2" s="145"/>
-      <c r="CU2" s="145"/>
-      <c r="CV2" s="145"/>
-    </row>
-    <row r="3" spans="1:100" s="142" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="144" t="s">
+        <v>3.8046046984210666</v>
+      </c>
+      <c r="W2" s="142"/>
+      <c r="X2" s="142"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="142"/>
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="142"/>
+      <c r="AD2" s="142"/>
+      <c r="AE2" s="142"/>
+      <c r="AG2" s="142"/>
+      <c r="AH2" s="142"/>
+      <c r="AI2" s="142"/>
+      <c r="AJ2" s="142"/>
+      <c r="AK2" s="142"/>
+      <c r="AL2" s="142"/>
+      <c r="AM2" s="142"/>
+      <c r="AN2" s="142"/>
+      <c r="AO2" s="142"/>
+      <c r="AP2" s="142"/>
+      <c r="AQ2" s="142"/>
+      <c r="AR2" s="142"/>
+      <c r="AS2" s="142"/>
+      <c r="AT2" s="142"/>
+      <c r="AU2" s="142"/>
+      <c r="AV2" s="142"/>
+      <c r="AW2" s="142"/>
+      <c r="AX2" s="142"/>
+      <c r="AY2" s="142"/>
+      <c r="AZ2" s="142"/>
+      <c r="BA2" s="142"/>
+      <c r="BB2" s="142"/>
+      <c r="BC2" s="142"/>
+      <c r="BD2" s="142"/>
+      <c r="BE2" s="142"/>
+      <c r="BF2" s="142"/>
+      <c r="BG2" s="142"/>
+      <c r="BH2" s="142"/>
+      <c r="BI2" s="142"/>
+      <c r="BJ2" s="142"/>
+      <c r="BK2" s="142"/>
+      <c r="BL2" s="142"/>
+      <c r="BM2" s="142"/>
+      <c r="BN2" s="142"/>
+      <c r="BO2" s="142"/>
+      <c r="BP2" s="142"/>
+      <c r="BQ2" s="142"/>
+      <c r="BR2" s="142"/>
+      <c r="BS2" s="142"/>
+      <c r="BT2" s="142"/>
+      <c r="BU2" s="142"/>
+      <c r="BV2" s="142"/>
+      <c r="BW2" s="142"/>
+      <c r="BX2" s="142"/>
+      <c r="BY2" s="142"/>
+      <c r="BZ2" s="142"/>
+      <c r="CA2" s="142"/>
+      <c r="CB2" s="142"/>
+      <c r="CC2" s="142"/>
+      <c r="CD2" s="142"/>
+      <c r="CE2" s="142"/>
+      <c r="CF2" s="142"/>
+      <c r="CG2" s="142"/>
+      <c r="CH2" s="142"/>
+      <c r="CI2" s="142"/>
+      <c r="CJ2" s="142"/>
+      <c r="CK2" s="142"/>
+      <c r="CL2" s="142"/>
+      <c r="CM2" s="142"/>
+      <c r="CN2" s="142"/>
+      <c r="CO2" s="142"/>
+      <c r="CP2" s="142"/>
+      <c r="CQ2" s="142"/>
+      <c r="CR2" s="142"/>
+      <c r="CS2" s="142"/>
+      <c r="CT2" s="142"/>
+      <c r="CU2" s="142"/>
+      <c r="CV2" s="142"/>
+    </row>
+    <row r="3" spans="1:100" s="139" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="145">
+      <c r="B3" s="142">
         <v>1.8</v>
       </c>
-      <c r="C3" s="145">
+      <c r="C3" s="142">
         <f ca="1">($J3-$B3)/($J2-$B2)*(C2-$B2)+$B3+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
-        <v>3.9353633306247766</v>
-      </c>
-      <c r="D3" s="145">
+        <v>1.9870980677680934</v>
+      </c>
+      <c r="D3" s="142">
         <f t="shared" ref="D3:I4" ca="1" si="3">($J3-$B3)/($J2-$B2)*(D2-$B2)+$B3+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
-        <v>2.4964870986478962</v>
-      </c>
-      <c r="E3" s="145">
+        <v>3.7294385893804369</v>
+      </c>
+      <c r="E3" s="142">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7611848124128826</v>
-      </c>
-      <c r="F3" s="145">
+        <v>3.6123206587384677</v>
+      </c>
+      <c r="F3" s="142">
         <f t="shared" ca="1" si="3"/>
-        <v>3.790252741565717</v>
-      </c>
-      <c r="G3" s="145">
+        <v>3.1846059411318395</v>
+      </c>
+      <c r="G3" s="142">
         <f t="shared" ca="1" si="3"/>
-        <v>4.3565148112476715</v>
-      </c>
-      <c r="H3" s="145">
+        <v>4.6124056072188777</v>
+      </c>
+      <c r="H3" s="142">
         <f t="shared" ca="1" si="3"/>
-        <v>3.841839764788908</v>
-      </c>
-      <c r="I3" s="145">
+        <v>3.2347083835892363</v>
+      </c>
+      <c r="I3" s="142">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5787804299048744</v>
-      </c>
-      <c r="J3" s="145">
+        <v>2.8415446493401424</v>
+      </c>
+      <c r="J3" s="142">
         <v>5.5</v>
       </c>
-      <c r="K3" s="145">
+      <c r="K3" s="142">
         <f ca="1">($U3-$J3)/($U2-$J2)*(K2-$J2)+$J3+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
-        <v>4.6904873694777738</v>
-      </c>
-      <c r="L3" s="145">
+        <v>5.547855267451018</v>
+      </c>
+      <c r="L3" s="142">
         <f ca="1">($U3-$J3)/($U2-$J2)*(L2-$J2)+$J3+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
-        <v>5.7848622478227067</v>
-      </c>
-      <c r="M3" s="145">
-        <f t="shared" ref="M3:T5" ca="1" si="4">($U3-$J3)/($U2-$J2)*(M2-$J2)+$J3+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
-        <v>6.2634564917883768</v>
-      </c>
-      <c r="N3" s="145">
+        <v>5.0870174198981024</v>
+      </c>
+      <c r="M3" s="142">
+        <f t="shared" ref="M3:T4" ca="1" si="4">($U3-$J3)/($U2-$J2)*(M2-$J2)+$J3+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
+        <v>6.0298771017617945</v>
+      </c>
+      <c r="N3" s="142">
         <f t="shared" ca="1" si="4"/>
-        <v>6.1911251254611992</v>
-      </c>
-      <c r="O3" s="145">
+        <v>6.8547497397785442</v>
+      </c>
+      <c r="O3" s="142">
         <f t="shared" ca="1" si="4"/>
-        <v>7.6179222273871297</v>
-      </c>
-      <c r="P3" s="145">
+        <v>9.176411164869684</v>
+      </c>
+      <c r="P3" s="142">
         <f t="shared" ca="1" si="4"/>
-        <v>9.3857129217190227</v>
-      </c>
-      <c r="Q3" s="145">
+        <v>10.234248600095304</v>
+      </c>
+      <c r="Q3" s="142">
         <f t="shared" ca="1" si="4"/>
-        <v>9.9378475375610016</v>
-      </c>
-      <c r="R3" s="145">
+        <v>10.329952271099295</v>
+      </c>
+      <c r="R3" s="142">
         <f t="shared" ca="1" si="4"/>
-        <v>10.960853709657799</v>
-      </c>
-      <c r="S3" s="145">
+        <v>10.437125227720042</v>
+      </c>
+      <c r="S3" s="142">
         <f t="shared" ca="1" si="4"/>
-        <v>10.169164531867057</v>
-      </c>
-      <c r="T3" s="145">
+        <v>12.678211765370698</v>
+      </c>
+      <c r="T3" s="142">
         <f t="shared" ca="1" si="4"/>
-        <v>11.508634778356013</v>
+        <v>13.273478506117975</v>
       </c>
       <c r="U3" s="68">
         <v>13.3</v>
       </c>
-      <c r="V3" s="145">
+      <c r="V3" s="142">
         <f t="shared" ca="1" si="2"/>
-        <v>3.3869811328644936</v>
-      </c>
-      <c r="W3" s="145"/>
-      <c r="X3" s="145"/>
-      <c r="Y3" s="145"/>
-      <c r="Z3" s="145"/>
-      <c r="AA3" s="145"/>
-      <c r="AB3" s="145"/>
-      <c r="AC3" s="145"/>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="145"/>
-      <c r="AH3" s="145"/>
-      <c r="AI3" s="145"/>
-      <c r="AJ3" s="145"/>
-      <c r="AK3" s="145"/>
-      <c r="AL3" s="145"/>
-      <c r="AM3" s="145"/>
-      <c r="AN3" s="145"/>
-      <c r="AO3" s="145"/>
-      <c r="AP3" s="145"/>
-      <c r="AQ3" s="145"/>
-      <c r="AR3" s="145"/>
-      <c r="AS3" s="145"/>
-      <c r="AT3" s="145"/>
-      <c r="AU3" s="145"/>
-      <c r="AV3" s="145"/>
-      <c r="AW3" s="145"/>
-      <c r="AX3" s="145"/>
-      <c r="AY3" s="145"/>
-      <c r="AZ3" s="145"/>
-      <c r="BA3" s="145"/>
-      <c r="BB3" s="145"/>
-      <c r="BC3" s="145"/>
-      <c r="BD3" s="145"/>
-      <c r="BE3" s="145"/>
-      <c r="BF3" s="145"/>
-      <c r="BG3" s="145"/>
-      <c r="BH3" s="145"/>
-      <c r="BI3" s="145"/>
-      <c r="BJ3" s="145"/>
-      <c r="BK3" s="145"/>
-      <c r="BL3" s="145"/>
-      <c r="BM3" s="145"/>
-      <c r="BN3" s="145"/>
-      <c r="BO3" s="145"/>
-      <c r="BP3" s="145"/>
-      <c r="BQ3" s="145"/>
-      <c r="BR3" s="145"/>
-      <c r="BS3" s="145"/>
-      <c r="BT3" s="145"/>
-      <c r="BU3" s="145"/>
-      <c r="BV3" s="145"/>
-      <c r="BW3" s="145"/>
-      <c r="BX3" s="145"/>
-      <c r="BY3" s="145"/>
-      <c r="BZ3" s="145"/>
-      <c r="CA3" s="145"/>
-      <c r="CB3" s="145"/>
-      <c r="CC3" s="145"/>
-      <c r="CD3" s="145"/>
-      <c r="CE3" s="145"/>
-      <c r="CF3" s="145"/>
-      <c r="CG3" s="145"/>
-      <c r="CH3" s="145"/>
-      <c r="CI3" s="145"/>
-      <c r="CJ3" s="145"/>
-      <c r="CK3" s="145"/>
-      <c r="CL3" s="145"/>
-      <c r="CM3" s="145"/>
-      <c r="CN3" s="145"/>
-      <c r="CO3" s="145"/>
-      <c r="CP3" s="145"/>
-      <c r="CQ3" s="145"/>
-      <c r="CR3" s="145"/>
-      <c r="CS3" s="145"/>
-      <c r="CT3" s="145"/>
-      <c r="CU3" s="145"/>
-      <c r="CV3" s="145"/>
-    </row>
-    <row r="4" spans="1:100" s="142" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="144" t="s">
+        <v>3.8545552506172749</v>
+      </c>
+      <c r="W3" s="142"/>
+      <c r="X3" s="142"/>
+      <c r="Y3" s="142"/>
+      <c r="Z3" s="142"/>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="142"/>
+      <c r="AD3" s="142"/>
+      <c r="AE3" s="142"/>
+      <c r="AF3" s="142"/>
+      <c r="AH3" s="142"/>
+      <c r="AI3" s="142"/>
+      <c r="AJ3" s="142"/>
+      <c r="AK3" s="142"/>
+      <c r="AL3" s="142"/>
+      <c r="AM3" s="142"/>
+      <c r="AN3" s="142"/>
+      <c r="AO3" s="142"/>
+      <c r="AP3" s="142"/>
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="142"/>
+      <c r="AS3" s="142"/>
+      <c r="AT3" s="142"/>
+      <c r="AU3" s="142"/>
+      <c r="AV3" s="142"/>
+      <c r="AW3" s="142"/>
+      <c r="AX3" s="142"/>
+      <c r="AY3" s="142"/>
+      <c r="AZ3" s="142"/>
+      <c r="BA3" s="142"/>
+      <c r="BB3" s="142"/>
+      <c r="BC3" s="142"/>
+      <c r="BD3" s="142"/>
+      <c r="BE3" s="142"/>
+      <c r="BF3" s="142"/>
+      <c r="BG3" s="142"/>
+      <c r="BH3" s="142"/>
+      <c r="BI3" s="142"/>
+      <c r="BJ3" s="142"/>
+      <c r="BK3" s="142"/>
+      <c r="BL3" s="142"/>
+      <c r="BM3" s="142"/>
+      <c r="BN3" s="142"/>
+      <c r="BO3" s="142"/>
+      <c r="BP3" s="142"/>
+      <c r="BQ3" s="142"/>
+      <c r="BR3" s="142"/>
+      <c r="BS3" s="142"/>
+      <c r="BT3" s="142"/>
+      <c r="BU3" s="142"/>
+      <c r="BV3" s="142"/>
+      <c r="BW3" s="142"/>
+      <c r="BX3" s="142"/>
+      <c r="BY3" s="142"/>
+      <c r="BZ3" s="142"/>
+      <c r="CA3" s="142"/>
+      <c r="CB3" s="142"/>
+      <c r="CC3" s="142"/>
+      <c r="CD3" s="142"/>
+      <c r="CE3" s="142"/>
+      <c r="CF3" s="142"/>
+      <c r="CG3" s="142"/>
+      <c r="CH3" s="142"/>
+      <c r="CI3" s="142"/>
+      <c r="CJ3" s="142"/>
+      <c r="CK3" s="142"/>
+      <c r="CL3" s="142"/>
+      <c r="CM3" s="142"/>
+      <c r="CN3" s="142"/>
+      <c r="CO3" s="142"/>
+      <c r="CP3" s="142"/>
+      <c r="CQ3" s="142"/>
+      <c r="CR3" s="142"/>
+      <c r="CS3" s="142"/>
+      <c r="CT3" s="142"/>
+      <c r="CU3" s="142"/>
+      <c r="CV3" s="142"/>
+    </row>
+    <row r="4" spans="1:100" s="139" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="145">
+      <c r="B4" s="142">
         <v>2.1</v>
       </c>
-      <c r="C4" s="145">
+      <c r="C4" s="142">
         <f ca="1">($J4-$B4)/($J3-$B3)*(C3-$B3)+$B4+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
-        <v>3.6259810441528386</v>
-      </c>
-      <c r="D4" s="145">
+        <v>1.7158335146573274</v>
+      </c>
+      <c r="D4" s="142">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0422786243143669</v>
-      </c>
-      <c r="E4" s="145">
+        <v>2.536695609971173</v>
+      </c>
+      <c r="E4" s="142">
         <f t="shared" ca="1" si="3"/>
-        <v>3.01052834383544</v>
-      </c>
-      <c r="F4" s="145">
+        <v>2.1777531585945398</v>
+      </c>
+      <c r="F4" s="142">
         <f t="shared" ca="1" si="3"/>
-        <v>4.2260882478732471</v>
-      </c>
-      <c r="G4" s="145">
+        <v>2.4025174949804615</v>
+      </c>
+      <c r="G4" s="142">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5284011926218897</v>
-      </c>
-      <c r="H4" s="145">
+        <v>4.0208061412446972</v>
+      </c>
+      <c r="H4" s="142">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5648966034941241</v>
-      </c>
-      <c r="I4" s="145">
+        <v>3.344286714132767</v>
+      </c>
+      <c r="I4" s="142">
         <f t="shared" ca="1" si="3"/>
-        <v>3.8256147250865333</v>
-      </c>
-      <c r="J4" s="145">
+        <v>3.3874723270691955</v>
+      </c>
+      <c r="J4" s="142">
         <v>4.3</v>
       </c>
-      <c r="K4" s="145">
+      <c r="K4" s="142">
         <f ca="1">($U4-$J4)/($U3-$J3)*(K3-$J3)+$J4+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
-        <v>2.2833364529332036</v>
-      </c>
-      <c r="L4" s="145">
+        <v>4.8178636199465306</v>
+      </c>
+      <c r="L4" s="142">
         <f t="shared" ref="L4" ca="1" si="5">($U4-$J4)/($U3-$J3)*(L3-$J3)+$J4+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
-        <v>3.7527059983629387</v>
-      </c>
-      <c r="M4" s="145">
+        <v>4.1406413573037417</v>
+      </c>
+      <c r="M4" s="142">
         <f t="shared" ca="1" si="4"/>
-        <v>4.4470414200337034</v>
-      </c>
-      <c r="N4" s="145">
+        <v>4.7823704990910505</v>
+      </c>
+      <c r="N4" s="142">
         <f t="shared" ca="1" si="4"/>
-        <v>5.5475493801745372</v>
-      </c>
-      <c r="O4" s="145">
+        <v>6.7693417616646512</v>
+      </c>
+      <c r="O4" s="142">
         <f t="shared" ca="1" si="4"/>
-        <v>7.5683622600085965</v>
-      </c>
-      <c r="P4" s="145">
+        <v>9.1171727606828465</v>
+      </c>
+      <c r="P4" s="142">
         <f t="shared" ca="1" si="4"/>
-        <v>9.7005842310814145</v>
-      </c>
-      <c r="Q4" s="145">
+        <v>10.689709770329522</v>
+      </c>
+      <c r="Q4" s="142">
         <f t="shared" ca="1" si="4"/>
-        <v>10.098613198845182</v>
-      </c>
-      <c r="R4" s="145">
+        <v>10.277143808495659</v>
+      </c>
+      <c r="R4" s="142">
         <f t="shared" ca="1" si="4"/>
-        <v>10.761173742420802</v>
-      </c>
-      <c r="S4" s="145">
+        <v>10.70113988987629</v>
+      </c>
+      <c r="S4" s="142">
         <f t="shared" ca="1" si="4"/>
-        <v>11.25157810417444</v>
-      </c>
-      <c r="T4" s="145">
+        <v>14.939060725197233</v>
+      </c>
+      <c r="T4" s="142">
         <f t="shared" ca="1" si="4"/>
-        <v>11.968747245391382</v>
+        <v>15.542800027625058</v>
       </c>
       <c r="U4" s="68">
         <v>14.8</v>
       </c>
-      <c r="V4" s="145">
+      <c r="V4" s="142">
         <f t="shared" ca="1" si="2"/>
-        <v>3.828576055915565</v>
-      </c>
-      <c r="W4" s="145"/>
-      <c r="X4" s="145"/>
-      <c r="Y4" s="145"/>
-      <c r="Z4" s="145"/>
-      <c r="AA4" s="145"/>
-      <c r="AB4" s="145"/>
-      <c r="AC4" s="145"/>
-      <c r="AD4" s="145"/>
-      <c r="AE4" s="145"/>
-      <c r="AF4" s="145"/>
-      <c r="AG4" s="145"/>
-      <c r="AH4" s="145"/>
-      <c r="AI4" s="145"/>
-      <c r="AJ4" s="145"/>
-      <c r="AK4" s="145"/>
-      <c r="AL4" s="145"/>
-      <c r="AM4" s="145"/>
-      <c r="AN4" s="145"/>
-      <c r="AO4" s="145"/>
-      <c r="AP4" s="145"/>
-      <c r="AQ4" s="145"/>
-      <c r="AR4" s="145"/>
-      <c r="AS4" s="145"/>
-      <c r="AT4" s="145"/>
-      <c r="AU4" s="145"/>
-      <c r="AV4" s="145"/>
-      <c r="AW4" s="145"/>
-      <c r="AX4" s="145"/>
-      <c r="AY4" s="145"/>
-      <c r="AZ4" s="145"/>
-      <c r="BA4" s="145"/>
-      <c r="BB4" s="145"/>
-      <c r="BC4" s="145"/>
-      <c r="BD4" s="145"/>
-      <c r="BE4" s="145"/>
-      <c r="BF4" s="145"/>
-      <c r="BG4" s="145"/>
-      <c r="BH4" s="145"/>
-      <c r="BI4" s="145"/>
-      <c r="BJ4" s="145"/>
-      <c r="BK4" s="145"/>
-      <c r="BL4" s="145"/>
-      <c r="BM4" s="145"/>
-      <c r="BN4" s="145"/>
-      <c r="BO4" s="145"/>
-      <c r="BP4" s="145"/>
-      <c r="BQ4" s="145"/>
-      <c r="BR4" s="145"/>
-      <c r="BS4" s="145"/>
-      <c r="BT4" s="145"/>
-      <c r="BU4" s="145"/>
-      <c r="BV4" s="145"/>
-      <c r="BW4" s="145"/>
-      <c r="BX4" s="145"/>
-      <c r="BY4" s="145"/>
-      <c r="BZ4" s="145"/>
-      <c r="CA4" s="145"/>
-      <c r="CB4" s="145"/>
-      <c r="CC4" s="145"/>
-      <c r="CD4" s="145"/>
-      <c r="CE4" s="145"/>
-      <c r="CF4" s="145"/>
-      <c r="CG4" s="145"/>
-      <c r="CH4" s="145"/>
-      <c r="CI4" s="145"/>
-      <c r="CJ4" s="145"/>
-      <c r="CK4" s="145"/>
-      <c r="CL4" s="145"/>
-      <c r="CM4" s="145"/>
-      <c r="CN4" s="145"/>
-      <c r="CO4" s="145"/>
-      <c r="CP4" s="145"/>
-      <c r="CQ4" s="145"/>
-      <c r="CR4" s="145"/>
-      <c r="CS4" s="145"/>
-      <c r="CT4" s="145"/>
-      <c r="CU4" s="145"/>
-      <c r="CV4" s="145"/>
-    </row>
-    <row r="5" spans="1:100" s="142" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="144" t="s">
+        <v>4.6642549094135157</v>
+      </c>
+      <c r="W4" s="142"/>
+      <c r="X4" s="142"/>
+      <c r="Y4" s="142"/>
+      <c r="Z4" s="142"/>
+      <c r="AA4" s="142"/>
+      <c r="AB4" s="142"/>
+      <c r="AC4" s="142"/>
+      <c r="AD4" s="142"/>
+      <c r="AE4" s="142"/>
+      <c r="AF4" s="142"/>
+      <c r="AG4" s="142"/>
+      <c r="AH4" s="142"/>
+      <c r="AI4" s="142"/>
+      <c r="AJ4" s="142"/>
+      <c r="AK4" s="142"/>
+      <c r="AL4" s="142"/>
+      <c r="AM4" s="142"/>
+      <c r="AN4" s="142"/>
+      <c r="AO4" s="142"/>
+      <c r="AP4" s="142"/>
+      <c r="AQ4" s="142"/>
+      <c r="AR4" s="142"/>
+      <c r="AS4" s="142"/>
+      <c r="AT4" s="142"/>
+      <c r="AU4" s="142"/>
+      <c r="AV4" s="142"/>
+      <c r="AW4" s="142"/>
+      <c r="AX4" s="142"/>
+      <c r="AY4" s="142"/>
+      <c r="AZ4" s="142"/>
+      <c r="BA4" s="142"/>
+      <c r="BB4" s="142"/>
+      <c r="BC4" s="142"/>
+      <c r="BD4" s="142"/>
+      <c r="BE4" s="142"/>
+      <c r="BF4" s="142"/>
+      <c r="BG4" s="142"/>
+      <c r="BH4" s="142"/>
+      <c r="BI4" s="142"/>
+      <c r="BJ4" s="142"/>
+      <c r="BK4" s="142"/>
+      <c r="BL4" s="142"/>
+      <c r="BM4" s="142"/>
+      <c r="BN4" s="142"/>
+      <c r="BO4" s="142"/>
+      <c r="BP4" s="142"/>
+      <c r="BQ4" s="142"/>
+      <c r="BR4" s="142"/>
+      <c r="BS4" s="142"/>
+      <c r="BT4" s="142"/>
+      <c r="BU4" s="142"/>
+      <c r="BV4" s="142"/>
+      <c r="BW4" s="142"/>
+      <c r="BX4" s="142"/>
+      <c r="BY4" s="142"/>
+      <c r="BZ4" s="142"/>
+      <c r="CA4" s="142"/>
+      <c r="CB4" s="142"/>
+      <c r="CC4" s="142"/>
+      <c r="CD4" s="142"/>
+      <c r="CE4" s="142"/>
+      <c r="CF4" s="142"/>
+      <c r="CG4" s="142"/>
+      <c r="CH4" s="142"/>
+      <c r="CI4" s="142"/>
+      <c r="CJ4" s="142"/>
+      <c r="CK4" s="142"/>
+      <c r="CL4" s="142"/>
+      <c r="CM4" s="142"/>
+      <c r="CN4" s="142"/>
+      <c r="CO4" s="142"/>
+      <c r="CP4" s="142"/>
+      <c r="CQ4" s="142"/>
+      <c r="CR4" s="142"/>
+      <c r="CS4" s="142"/>
+      <c r="CT4" s="142"/>
+      <c r="CU4" s="142"/>
+      <c r="CV4" s="142"/>
+    </row>
+    <row r="5" spans="1:100" s="139" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="145">
+      <c r="B5" s="142">
         <v>1.6</v>
       </c>
-      <c r="C5" s="145">
+      <c r="C5" s="142">
         <f ca="1">($M5-$B5)/($M4-$B4)*(C4-$B4)+$B5+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
-        <v>3.2265792912559528</v>
-      </c>
-      <c r="D5" s="145">
+        <v>1.7801817178311317</v>
+      </c>
+      <c r="D5" s="142">
         <f t="shared" ref="D5:L5" ca="1" si="6">($M5-$B5)/($M4-$B4)*(D4-$B4)+$B5+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
-        <v>2.6636999639406098</v>
-      </c>
-      <c r="E5" s="145">
+        <v>0.95740018932777171</v>
+      </c>
+      <c r="E5" s="142">
         <f t="shared" ca="1" si="6"/>
-        <v>2.113132722042729</v>
-      </c>
-      <c r="F5" s="145">
+        <v>0.91842532154782164</v>
+      </c>
+      <c r="F5" s="142">
         <f t="shared" ca="1" si="6"/>
-        <v>2.5280978552738791</v>
-      </c>
-      <c r="G5" s="145">
+        <v>2.1958205742226737</v>
+      </c>
+      <c r="G5" s="142">
         <f t="shared" ca="1" si="6"/>
-        <v>2.5480871892064307</v>
-      </c>
-      <c r="H5" s="145">
+        <v>3.8563559159834426</v>
+      </c>
+      <c r="H5" s="142">
         <f t="shared" ca="1" si="6"/>
-        <v>2.9855072444487787</v>
-      </c>
-      <c r="I5" s="145">
+        <v>2.7333558457479508</v>
+      </c>
+      <c r="I5" s="142">
         <f t="shared" ca="1" si="6"/>
-        <v>3.8195222836648322</v>
-      </c>
-      <c r="J5" s="145">
+        <v>2.5461948164484616</v>
+      </c>
+      <c r="J5" s="142">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0388375051169261</v>
-      </c>
-      <c r="K5" s="145">
+        <v>2.5001172773646898</v>
+      </c>
+      <c r="K5" s="142">
         <f t="shared" ca="1" si="6"/>
-        <v>2.4482643893957889</v>
-      </c>
-      <c r="L5" s="145">
+        <v>3.6728909438903479</v>
+      </c>
+      <c r="L5" s="142">
         <f t="shared" ca="1" si="6"/>
-        <v>3.191408946716261</v>
-      </c>
-      <c r="M5" s="146">
+        <v>2.6279201494423159</v>
+      </c>
+      <c r="M5" s="143">
         <v>3.5</v>
       </c>
-      <c r="N5" s="145">
+      <c r="N5" s="142">
         <f ca="1">($U5-$M5)/($U4-$M4)*(N4-$M4)+$M5+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
-        <v>4.1784848410446909</v>
-      </c>
-      <c r="O5" s="145">
-        <f t="shared" ref="O5:T6" ca="1" si="7">($U5-$M5)/($U4-$M4)*(O4-$M4)+$M5+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
-        <v>7.3745939885452856</v>
-      </c>
-      <c r="P5" s="145">
+        <v>6.1077988676824981</v>
+      </c>
+      <c r="O5" s="142">
+        <f t="shared" ref="O5:T5" ca="1" si="7">($U5-$M5)/($U4-$M4)*(O4-$M4)+$M5+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
+        <v>8.7987805544300564</v>
+      </c>
+      <c r="P5" s="142">
         <f t="shared" ca="1" si="7"/>
-        <v>8.6710607294579614</v>
-      </c>
-      <c r="Q5" s="145">
+        <v>9.821179406813064</v>
+      </c>
+      <c r="Q5" s="142">
         <f t="shared" ca="1" si="7"/>
-        <v>10.436082558046616</v>
-      </c>
-      <c r="R5" s="145">
+        <v>9.373990347005666</v>
+      </c>
+      <c r="R5" s="142">
         <f t="shared" ca="1" si="7"/>
-        <v>10.183845522127205</v>
-      </c>
-      <c r="S5" s="145">
+        <v>8.9943647403297788</v>
+      </c>
+      <c r="S5" s="142">
         <f t="shared" ca="1" si="7"/>
-        <v>11.397438471842527</v>
-      </c>
-      <c r="T5" s="145">
+        <v>15.413688116014152</v>
+      </c>
+      <c r="T5" s="142">
         <f t="shared" ca="1" si="7"/>
-        <v>11.457604328148555</v>
+        <v>14.871474366710249</v>
       </c>
       <c r="U5" s="68">
         <v>14.4</v>
       </c>
-      <c r="V5" s="145">
+      <c r="V5" s="142">
         <f t="shared" ca="1" si="2"/>
-        <v>3.9883619446627603</v>
-      </c>
-      <c r="W5" s="145"/>
-      <c r="X5" s="145"/>
-      <c r="Y5" s="145"/>
-      <c r="Z5" s="145"/>
-      <c r="AA5" s="145"/>
-      <c r="AB5" s="145"/>
-      <c r="AC5" s="145"/>
-      <c r="AD5" s="145"/>
-      <c r="AE5" s="145"/>
-      <c r="AF5" s="145"/>
-      <c r="AG5" s="145"/>
-      <c r="AH5" s="145"/>
-      <c r="AI5" s="145"/>
-      <c r="AJ5" s="145"/>
-      <c r="AK5" s="145"/>
-      <c r="AL5" s="145"/>
-      <c r="AM5" s="145"/>
-      <c r="AN5" s="145"/>
-      <c r="AO5" s="145"/>
-      <c r="AP5" s="145"/>
-      <c r="AQ5" s="145"/>
-      <c r="AR5" s="145"/>
-      <c r="AS5" s="145"/>
-      <c r="AT5" s="145"/>
-      <c r="AU5" s="145"/>
-      <c r="AV5" s="145"/>
-      <c r="AW5" s="145"/>
-      <c r="AX5" s="145"/>
-      <c r="AY5" s="145"/>
-      <c r="AZ5" s="145"/>
-      <c r="BA5" s="145"/>
-      <c r="BB5" s="145"/>
-      <c r="BC5" s="145"/>
-      <c r="BD5" s="145"/>
-      <c r="BE5" s="145"/>
-      <c r="BF5" s="145"/>
-      <c r="BG5" s="145"/>
-      <c r="BH5" s="145"/>
-      <c r="BI5" s="145"/>
-      <c r="BJ5" s="145"/>
-      <c r="BK5" s="145"/>
-      <c r="BL5" s="145"/>
-      <c r="BM5" s="145"/>
-      <c r="BN5" s="145"/>
-      <c r="BO5" s="145"/>
-      <c r="BP5" s="145"/>
-      <c r="BQ5" s="145"/>
-      <c r="BR5" s="145"/>
-      <c r="BS5" s="145"/>
-      <c r="BT5" s="145"/>
-      <c r="BU5" s="145"/>
-      <c r="BV5" s="145"/>
-      <c r="BW5" s="145"/>
-      <c r="BX5" s="145"/>
-      <c r="BY5" s="145"/>
-      <c r="BZ5" s="145"/>
-      <c r="CA5" s="145"/>
-      <c r="CB5" s="145"/>
-      <c r="CC5" s="145"/>
-      <c r="CD5" s="145"/>
-      <c r="CE5" s="145"/>
-      <c r="CF5" s="145"/>
-      <c r="CG5" s="145"/>
-      <c r="CH5" s="145"/>
-      <c r="CI5" s="145"/>
-      <c r="CJ5" s="145"/>
-      <c r="CK5" s="145"/>
-      <c r="CL5" s="145"/>
-      <c r="CM5" s="145"/>
-      <c r="CN5" s="145"/>
-      <c r="CO5" s="145"/>
-      <c r="CP5" s="145"/>
-      <c r="CQ5" s="145"/>
-      <c r="CR5" s="145"/>
-      <c r="CS5" s="145"/>
-      <c r="CT5" s="145"/>
-      <c r="CU5" s="145"/>
-      <c r="CV5" s="145"/>
-    </row>
-    <row r="6" spans="1:100" s="142" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="144" t="s">
+        <v>4.8422031540397885</v>
+      </c>
+      <c r="W5" s="142"/>
+      <c r="X5" s="142"/>
+      <c r="Y5" s="142"/>
+      <c r="Z5" s="142"/>
+      <c r="AA5" s="142"/>
+      <c r="AB5" s="142"/>
+      <c r="AC5" s="142"/>
+      <c r="AD5" s="142"/>
+      <c r="AE5" s="142"/>
+      <c r="AF5" s="142"/>
+      <c r="AG5" s="142"/>
+      <c r="AH5" s="142"/>
+      <c r="AI5" s="142"/>
+      <c r="AJ5" s="142"/>
+      <c r="AK5" s="142"/>
+      <c r="AL5" s="142"/>
+      <c r="AM5" s="142"/>
+      <c r="AN5" s="142"/>
+      <c r="AO5" s="142"/>
+      <c r="AP5" s="142"/>
+      <c r="AQ5" s="142"/>
+      <c r="AR5" s="142"/>
+      <c r="AS5" s="142"/>
+      <c r="AT5" s="142"/>
+      <c r="AU5" s="142"/>
+      <c r="AV5" s="142"/>
+      <c r="AW5" s="142"/>
+      <c r="AX5" s="142"/>
+      <c r="AY5" s="142"/>
+      <c r="AZ5" s="142"/>
+      <c r="BA5" s="142"/>
+      <c r="BB5" s="142"/>
+      <c r="BC5" s="142"/>
+      <c r="BD5" s="142"/>
+      <c r="BE5" s="142"/>
+      <c r="BF5" s="142"/>
+      <c r="BG5" s="142"/>
+      <c r="BH5" s="142"/>
+      <c r="BI5" s="142"/>
+      <c r="BJ5" s="142"/>
+      <c r="BK5" s="142"/>
+      <c r="BL5" s="142"/>
+      <c r="BM5" s="142"/>
+      <c r="BN5" s="142"/>
+      <c r="BO5" s="142"/>
+      <c r="BP5" s="142"/>
+      <c r="BQ5" s="142"/>
+      <c r="BR5" s="142"/>
+      <c r="BS5" s="142"/>
+      <c r="BT5" s="142"/>
+      <c r="BU5" s="142"/>
+      <c r="BV5" s="142"/>
+      <c r="BW5" s="142"/>
+      <c r="BX5" s="142"/>
+      <c r="BY5" s="142"/>
+      <c r="BZ5" s="142"/>
+      <c r="CA5" s="142"/>
+      <c r="CB5" s="142"/>
+      <c r="CC5" s="142"/>
+      <c r="CD5" s="142"/>
+      <c r="CE5" s="142"/>
+      <c r="CF5" s="142"/>
+      <c r="CG5" s="142"/>
+      <c r="CH5" s="142"/>
+      <c r="CI5" s="142"/>
+      <c r="CJ5" s="142"/>
+      <c r="CK5" s="142"/>
+      <c r="CL5" s="142"/>
+      <c r="CM5" s="142"/>
+      <c r="CN5" s="142"/>
+      <c r="CO5" s="142"/>
+      <c r="CP5" s="142"/>
+      <c r="CQ5" s="142"/>
+      <c r="CR5" s="142"/>
+      <c r="CS5" s="142"/>
+      <c r="CT5" s="142"/>
+      <c r="CU5" s="142"/>
+      <c r="CV5" s="142"/>
+    </row>
+    <row r="6" spans="1:100" s="139" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="145">
+      <c r="B6" s="142">
         <v>1.5</v>
       </c>
-      <c r="C6" s="145">
+      <c r="C6" s="142">
         <f ca="1">($O6-$B6)/($O5-$B5)*(C5-$B5)+$B6+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
-        <v>2.4874308215037475</v>
-      </c>
-      <c r="D6" s="145">
+        <v>1.9240519995476877</v>
+      </c>
+      <c r="D6" s="142">
         <f t="shared" ref="D6:N6" ca="1" si="8">($O6-$B6)/($O5-$B5)*(D5-$B5)+$B6+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
-        <v>1.1903869915996288</v>
-      </c>
-      <c r="E6" s="145">
+        <v>1.5249092785622096</v>
+      </c>
+      <c r="E6" s="142">
         <f t="shared" ca="1" si="8"/>
-        <v>2.6916735052434628</v>
-      </c>
-      <c r="F6" s="145">
+        <v>1.282319860826624</v>
+      </c>
+      <c r="F6" s="142">
         <f t="shared" ca="1" si="8"/>
-        <v>2.6699249502188152</v>
-      </c>
-      <c r="G6" s="145">
+        <v>2.4557896528414163</v>
+      </c>
+      <c r="G6" s="142">
         <f t="shared" ca="1" si="8"/>
-        <v>2.0742940394406029</v>
-      </c>
-      <c r="H6" s="145">
+        <v>2.1442414659487383</v>
+      </c>
+      <c r="H6" s="142">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1849116798891948</v>
-      </c>
-      <c r="I6" s="145">
+        <v>1.2766721530359861</v>
+      </c>
+      <c r="I6" s="142">
         <f t="shared" ca="1" si="8"/>
-        <v>3.5319595285554071</v>
-      </c>
-      <c r="J6" s="145">
+        <v>2.7248781989186197</v>
+      </c>
+      <c r="J6" s="142">
         <f t="shared" ca="1" si="8"/>
-        <v>1.4162203643150248</v>
-      </c>
-      <c r="K6" s="145">
+        <v>1.231487186077644</v>
+      </c>
+      <c r="K6" s="142">
         <f t="shared" ca="1" si="8"/>
-        <v>1.2492123639567663</v>
-      </c>
-      <c r="L6" s="145">
+        <v>2.1347827191869495</v>
+      </c>
+      <c r="L6" s="142">
         <f t="shared" ca="1" si="8"/>
-        <v>2.8815115144799588</v>
-      </c>
-      <c r="M6" s="145">
+        <v>2.15249294153476</v>
+      </c>
+      <c r="M6" s="142">
         <f t="shared" ca="1" si="8"/>
-        <v>3.17068224636553</v>
-      </c>
-      <c r="N6" s="145">
+        <v>2.8996770819176496</v>
+      </c>
+      <c r="N6" s="142">
         <f t="shared" ca="1" si="8"/>
-        <v>3.2633393282793399</v>
-      </c>
-      <c r="O6" s="145">
+        <v>3.2625337016818632</v>
+      </c>
+      <c r="O6" s="142">
         <v>4.2</v>
       </c>
-      <c r="P6" s="145">
+      <c r="P6" s="142">
         <f ca="1">($U6-$O6)/($U5-$O5)*(P5-$O5)+$O6+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
-        <v>5.0603237858161325</v>
-      </c>
-      <c r="Q6" s="145">
+        <v>6.2101129172982077</v>
+      </c>
+      <c r="Q6" s="142">
         <f t="shared" ref="Q6:T6" ca="1" si="9">($U6-$O6)/($U5-$O5)*(Q5-$O5)+$O6+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
-        <v>8.9566385003170321</v>
-      </c>
-      <c r="R6" s="145">
+        <v>5.0110454645434661</v>
+      </c>
+      <c r="R6" s="142">
         <f t="shared" ca="1" si="9"/>
-        <v>7.4468063270279696</v>
-      </c>
-      <c r="S6" s="145">
+        <v>4.8777073762590515</v>
+      </c>
+      <c r="S6" s="142">
         <f t="shared" ca="1" si="9"/>
-        <v>9.6080368134957403</v>
-      </c>
-      <c r="T6" s="145">
+        <v>13.750478189521997</v>
+      </c>
+      <c r="T6" s="142">
         <f t="shared" ca="1" si="9"/>
-        <v>9.4115627033417812</v>
+        <v>14.763404983064859</v>
       </c>
       <c r="U6" s="68">
         <v>13.1</v>
       </c>
-      <c r="V6" s="145">
+      <c r="V6" s="142">
         <f t="shared" ca="1" si="2"/>
-        <v>3.4574873865956519</v>
-      </c>
-      <c r="W6" s="145"/>
-      <c r="X6" s="145"/>
-      <c r="Y6" s="145"/>
-      <c r="Z6" s="145"/>
-      <c r="AA6" s="145"/>
-      <c r="AB6" s="145"/>
-      <c r="AC6" s="145"/>
-      <c r="AD6" s="145"/>
-      <c r="AE6" s="145"/>
-      <c r="AF6" s="145"/>
-      <c r="AG6" s="145"/>
-      <c r="AH6" s="145"/>
-      <c r="AI6" s="145"/>
-      <c r="AJ6" s="145"/>
-      <c r="AK6" s="145"/>
-      <c r="AL6" s="145"/>
-      <c r="AM6" s="145"/>
-      <c r="AN6" s="145"/>
-      <c r="AO6" s="145"/>
-      <c r="AP6" s="145"/>
-      <c r="AQ6" s="145"/>
-      <c r="AR6" s="145"/>
-      <c r="AS6" s="145"/>
-      <c r="AT6" s="145"/>
-      <c r="AU6" s="145"/>
-      <c r="AV6" s="145"/>
-      <c r="AW6" s="145"/>
-      <c r="AX6" s="145"/>
-      <c r="AY6" s="145"/>
-      <c r="AZ6" s="145"/>
-      <c r="BA6" s="145"/>
-      <c r="BB6" s="145"/>
-      <c r="BC6" s="145"/>
-      <c r="BD6" s="145"/>
-      <c r="BE6" s="145"/>
-      <c r="BF6" s="145"/>
-      <c r="BG6" s="145"/>
-      <c r="BH6" s="145"/>
-      <c r="BI6" s="145"/>
-      <c r="BJ6" s="145"/>
-      <c r="BK6" s="145"/>
-      <c r="BL6" s="145"/>
-      <c r="BM6" s="145"/>
-      <c r="BN6" s="145"/>
-      <c r="BO6" s="145"/>
-      <c r="BP6" s="145"/>
-      <c r="BQ6" s="145"/>
-      <c r="BR6" s="145"/>
-      <c r="BS6" s="145"/>
-      <c r="BT6" s="145"/>
-      <c r="BU6" s="145"/>
-      <c r="BV6" s="145"/>
-      <c r="BW6" s="145"/>
-      <c r="BX6" s="145"/>
-      <c r="BY6" s="145"/>
-      <c r="BZ6" s="145"/>
-      <c r="CA6" s="145"/>
-      <c r="CB6" s="145"/>
-      <c r="CC6" s="145"/>
-      <c r="CD6" s="145"/>
-      <c r="CE6" s="145"/>
-      <c r="CF6" s="145"/>
-      <c r="CG6" s="145"/>
-      <c r="CH6" s="145"/>
-      <c r="CI6" s="145"/>
-      <c r="CJ6" s="145"/>
-      <c r="CK6" s="145"/>
-      <c r="CL6" s="145"/>
-      <c r="CM6" s="145"/>
-      <c r="CN6" s="145"/>
-      <c r="CO6" s="145"/>
-      <c r="CP6" s="145"/>
-      <c r="CQ6" s="145"/>
-      <c r="CR6" s="145"/>
-      <c r="CS6" s="145"/>
-      <c r="CT6" s="145"/>
-      <c r="CU6" s="145"/>
-      <c r="CV6" s="145"/>
-    </row>
-    <row r="7" spans="1:100" s="142" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="144" t="s">
+        <v>4.3051582908237052</v>
+      </c>
+      <c r="W6" s="142"/>
+      <c r="X6" s="142"/>
+      <c r="Y6" s="142"/>
+      <c r="Z6" s="142"/>
+      <c r="AA6" s="142"/>
+      <c r="AB6" s="142"/>
+      <c r="AC6" s="142"/>
+      <c r="AD6" s="142"/>
+      <c r="AE6" s="142"/>
+      <c r="AF6" s="142"/>
+      <c r="AG6" s="142"/>
+      <c r="AH6" s="142"/>
+      <c r="AI6" s="142"/>
+      <c r="AJ6" s="142"/>
+      <c r="AK6" s="142"/>
+      <c r="AL6" s="142"/>
+      <c r="AM6" s="142"/>
+      <c r="AN6" s="142"/>
+      <c r="AO6" s="142"/>
+      <c r="AP6" s="142"/>
+      <c r="AQ6" s="142"/>
+      <c r="AR6" s="142"/>
+      <c r="AS6" s="142"/>
+      <c r="AT6" s="142"/>
+      <c r="AU6" s="142"/>
+      <c r="AV6" s="142"/>
+      <c r="AW6" s="142"/>
+      <c r="AX6" s="142"/>
+      <c r="AY6" s="142"/>
+      <c r="AZ6" s="142"/>
+      <c r="BA6" s="142"/>
+      <c r="BB6" s="142"/>
+      <c r="BC6" s="142"/>
+      <c r="BD6" s="142"/>
+      <c r="BE6" s="142"/>
+      <c r="BF6" s="142"/>
+      <c r="BG6" s="142"/>
+      <c r="BH6" s="142"/>
+      <c r="BI6" s="142"/>
+      <c r="BJ6" s="142"/>
+      <c r="BK6" s="142"/>
+      <c r="BL6" s="142"/>
+      <c r="BM6" s="142"/>
+      <c r="BN6" s="142"/>
+      <c r="BO6" s="142"/>
+      <c r="BP6" s="142"/>
+      <c r="BQ6" s="142"/>
+      <c r="BR6" s="142"/>
+      <c r="BS6" s="142"/>
+      <c r="BT6" s="142"/>
+      <c r="BU6" s="142"/>
+      <c r="BV6" s="142"/>
+      <c r="BW6" s="142"/>
+      <c r="BX6" s="142"/>
+      <c r="BY6" s="142"/>
+      <c r="BZ6" s="142"/>
+      <c r="CA6" s="142"/>
+      <c r="CB6" s="142"/>
+      <c r="CC6" s="142"/>
+      <c r="CD6" s="142"/>
+      <c r="CE6" s="142"/>
+      <c r="CF6" s="142"/>
+      <c r="CG6" s="142"/>
+      <c r="CH6" s="142"/>
+      <c r="CI6" s="142"/>
+      <c r="CJ6" s="142"/>
+      <c r="CK6" s="142"/>
+      <c r="CL6" s="142"/>
+      <c r="CM6" s="142"/>
+      <c r="CN6" s="142"/>
+      <c r="CO6" s="142"/>
+      <c r="CP6" s="142"/>
+      <c r="CQ6" s="142"/>
+      <c r="CR6" s="142"/>
+      <c r="CS6" s="142"/>
+      <c r="CT6" s="142"/>
+      <c r="CU6" s="142"/>
+      <c r="CV6" s="142"/>
+    </row>
+    <row r="7" spans="1:100" s="139" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="145">
+      <c r="B7" s="142">
         <v>1.9</v>
       </c>
-      <c r="C7" s="145">
+      <c r="C7" s="142">
         <f ca="1">($J7-$B7)/($J1-$B1)*(C1-$B1)+$B7+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
-        <v>2.1325784052693324</v>
-      </c>
-      <c r="D7" s="145">
+        <v>2.5126109776655499</v>
+      </c>
+      <c r="D7" s="142">
         <f t="shared" ref="D7:I7" ca="1" si="10">($J7-$B7)/($J1-$B1)*(D1-$B1)+$B7+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
-        <v>2.4650986010373002</v>
-      </c>
-      <c r="E7" s="145">
+        <v>1.9333218405415133</v>
+      </c>
+      <c r="E7" s="142">
         <f t="shared" ca="1" si="10"/>
-        <v>2.0110217294919135</v>
-      </c>
-      <c r="F7" s="145">
+        <v>2.0151133483988302</v>
+      </c>
+      <c r="F7" s="142">
         <f t="shared" ca="1" si="10"/>
-        <v>2.0059628420985227</v>
-      </c>
-      <c r="G7" s="145">
+        <v>3.4988159596388195</v>
+      </c>
+      <c r="G7" s="142">
         <f t="shared" ca="1" si="10"/>
-        <v>3.5668993930633839</v>
-      </c>
-      <c r="H7" s="145">
+        <v>3.576184640604235</v>
+      </c>
+      <c r="H7" s="142">
         <f t="shared" ca="1" si="10"/>
-        <v>3.551109933642338</v>
-      </c>
-      <c r="I7" s="145">
+        <v>2.9732003933530322</v>
+      </c>
+      <c r="I7" s="142">
         <f t="shared" ca="1" si="10"/>
-        <v>3.5513205187879646</v>
-      </c>
-      <c r="J7" s="145">
+        <v>3.0648438828927658</v>
+      </c>
+      <c r="J7" s="142">
         <v>3.2</v>
       </c>
-      <c r="K7" s="145">
+      <c r="K7" s="142">
         <f ca="1">($U7-$H7)/($U1-$J1)*(K1-$J1)+$J7+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
-        <v>4.8560811407641706</v>
-      </c>
-      <c r="L7" s="145">
+        <v>3.8876223131919554</v>
+      </c>
+      <c r="L7" s="142">
         <f t="shared" ref="L7:P7" ca="1" si="11">($U7-$H7)/($U1-$J1)*(L1-$J1)+$J7+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
-        <v>5.5113254040794786</v>
-      </c>
-      <c r="M7" s="145">
+        <v>4.8952835453797512</v>
+      </c>
+      <c r="M7" s="142">
         <f ca="1">($U7-$H7)/($U1-$J1)*(M1-$J1)+$J7+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
-        <v>5.3961938522205877</v>
-      </c>
-      <c r="N7" s="145">
+        <v>5.4534678823804468</v>
+      </c>
+      <c r="N7" s="142">
         <f t="shared" ca="1" si="11"/>
-        <v>6.8891996697961186</v>
-      </c>
-      <c r="O7" s="145">
+        <v>7.3013334693085792</v>
+      </c>
+      <c r="O7" s="142">
         <f t="shared" ca="1" si="11"/>
-        <v>7.3720450202365226</v>
-      </c>
-      <c r="P7" s="145">
+        <v>8.2560238983753678</v>
+      </c>
+      <c r="P7" s="142">
         <f t="shared" ca="1" si="11"/>
-        <v>10.044177348668796</v>
-      </c>
-      <c r="Q7" s="146">
+        <v>9.8647660341997483</v>
+      </c>
+      <c r="Q7" s="143">
         <v>14</v>
       </c>
-      <c r="R7" s="146">
+      <c r="R7" s="143">
         <v>14.5</v>
       </c>
-      <c r="S7" s="146">
+      <c r="S7" s="143">
         <v>14.3</v>
       </c>
-      <c r="T7" s="146">
+      <c r="T7" s="143">
         <v>14.6</v>
       </c>
       <c r="U7" s="68">
         <v>14.8</v>
       </c>
-      <c r="V7" s="145">
+      <c r="V7" s="142">
         <f t="shared" ca="1" si="2"/>
-        <v>4.949716504613404</v>
-      </c>
-      <c r="W7" s="145"/>
-      <c r="X7" s="145"/>
-      <c r="Y7" s="145"/>
-      <c r="Z7" s="145"/>
-      <c r="AA7" s="145"/>
-      <c r="AB7" s="145"/>
-      <c r="AC7" s="145"/>
-      <c r="AD7" s="145"/>
-      <c r="AE7" s="145"/>
-      <c r="AF7" s="145"/>
-      <c r="AG7" s="145"/>
-      <c r="AH7" s="145"/>
-      <c r="AI7" s="145"/>
-      <c r="AJ7" s="145"/>
-      <c r="AK7" s="145"/>
-      <c r="AL7" s="145"/>
-      <c r="AM7" s="145"/>
-      <c r="AN7" s="145"/>
-      <c r="AO7" s="145"/>
-      <c r="AP7" s="145"/>
-      <c r="AQ7" s="145"/>
-      <c r="AR7" s="145"/>
-      <c r="AS7" s="145"/>
-      <c r="AT7" s="145"/>
-      <c r="AU7" s="145"/>
-      <c r="AV7" s="145"/>
-      <c r="AW7" s="145"/>
-      <c r="AX7" s="145"/>
-      <c r="AY7" s="145"/>
-      <c r="AZ7" s="145"/>
-      <c r="BA7" s="145"/>
-      <c r="BB7" s="145"/>
-      <c r="BC7" s="145"/>
-      <c r="BD7" s="145"/>
-      <c r="BE7" s="145"/>
-      <c r="BF7" s="145"/>
-      <c r="BG7" s="145"/>
-      <c r="BH7" s="145"/>
-      <c r="BI7" s="145"/>
-      <c r="BJ7" s="145"/>
-      <c r="BK7" s="145"/>
-      <c r="BL7" s="145"/>
-      <c r="BM7" s="145"/>
-      <c r="BN7" s="145"/>
-      <c r="BO7" s="145"/>
-      <c r="BP7" s="145"/>
-      <c r="BQ7" s="145"/>
-      <c r="BR7" s="145"/>
-      <c r="BS7" s="145"/>
-      <c r="BT7" s="145"/>
-      <c r="BU7" s="145"/>
-      <c r="BV7" s="145"/>
-      <c r="BW7" s="145"/>
-      <c r="BX7" s="145"/>
-      <c r="BY7" s="145"/>
-      <c r="BZ7" s="145"/>
-      <c r="CA7" s="145"/>
-      <c r="CB7" s="145"/>
-      <c r="CC7" s="145"/>
-      <c r="CD7" s="145"/>
-      <c r="CE7" s="145"/>
-      <c r="CF7" s="145"/>
-      <c r="CG7" s="145"/>
-      <c r="CH7" s="145"/>
-      <c r="CI7" s="145"/>
-      <c r="CJ7" s="145"/>
-      <c r="CK7" s="145"/>
-      <c r="CL7" s="145"/>
-      <c r="CM7" s="145"/>
-      <c r="CN7" s="145"/>
-      <c r="CO7" s="145"/>
-      <c r="CP7" s="145"/>
-      <c r="CQ7" s="145"/>
-      <c r="CR7" s="145"/>
-      <c r="CS7" s="145"/>
-      <c r="CT7" s="145"/>
-      <c r="CU7" s="145"/>
-      <c r="CV7" s="145"/>
-    </row>
-    <row r="8" spans="1:100" s="142" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="144" t="s">
+        <v>4.9720851057428463</v>
+      </c>
+      <c r="W7" s="142"/>
+      <c r="X7" s="142"/>
+      <c r="Y7" s="142"/>
+      <c r="Z7" s="142"/>
+      <c r="AA7" s="142"/>
+      <c r="AB7" s="142"/>
+      <c r="AC7" s="142"/>
+      <c r="AD7" s="142"/>
+      <c r="AE7" s="142"/>
+      <c r="AF7" s="142"/>
+      <c r="AG7" s="142"/>
+      <c r="AH7" s="142"/>
+      <c r="AI7" s="142"/>
+      <c r="AJ7" s="142"/>
+      <c r="AK7" s="142"/>
+      <c r="AL7" s="142"/>
+      <c r="AM7" s="142"/>
+      <c r="AN7" s="142"/>
+      <c r="AO7" s="142"/>
+      <c r="AP7" s="142"/>
+      <c r="AQ7" s="142"/>
+      <c r="AR7" s="142"/>
+      <c r="AS7" s="142"/>
+      <c r="AT7" s="142"/>
+      <c r="AU7" s="142"/>
+      <c r="AV7" s="142"/>
+      <c r="AW7" s="142"/>
+      <c r="AX7" s="142"/>
+      <c r="AY7" s="142"/>
+      <c r="AZ7" s="142"/>
+      <c r="BA7" s="142"/>
+      <c r="BB7" s="142"/>
+      <c r="BC7" s="142"/>
+      <c r="BD7" s="142"/>
+      <c r="BE7" s="142"/>
+      <c r="BF7" s="142"/>
+      <c r="BG7" s="142"/>
+      <c r="BH7" s="142"/>
+      <c r="BI7" s="142"/>
+      <c r="BJ7" s="142"/>
+      <c r="BK7" s="142"/>
+      <c r="BL7" s="142"/>
+      <c r="BM7" s="142"/>
+      <c r="BN7" s="142"/>
+      <c r="BO7" s="142"/>
+      <c r="BP7" s="142"/>
+      <c r="BQ7" s="142"/>
+      <c r="BR7" s="142"/>
+      <c r="BS7" s="142"/>
+      <c r="BT7" s="142"/>
+      <c r="BU7" s="142"/>
+      <c r="BV7" s="142"/>
+      <c r="BW7" s="142"/>
+      <c r="BX7" s="142"/>
+      <c r="BY7" s="142"/>
+      <c r="BZ7" s="142"/>
+      <c r="CA7" s="142"/>
+      <c r="CB7" s="142"/>
+      <c r="CC7" s="142"/>
+      <c r="CD7" s="142"/>
+      <c r="CE7" s="142"/>
+      <c r="CF7" s="142"/>
+      <c r="CG7" s="142"/>
+      <c r="CH7" s="142"/>
+      <c r="CI7" s="142"/>
+      <c r="CJ7" s="142"/>
+      <c r="CK7" s="142"/>
+      <c r="CL7" s="142"/>
+      <c r="CM7" s="142"/>
+      <c r="CN7" s="142"/>
+      <c r="CO7" s="142"/>
+      <c r="CP7" s="142"/>
+      <c r="CQ7" s="142"/>
+      <c r="CR7" s="142"/>
+      <c r="CS7" s="142"/>
+      <c r="CT7" s="142"/>
+      <c r="CU7" s="142"/>
+      <c r="CV7" s="142"/>
+    </row>
+    <row r="8" spans="1:100" s="139" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="145">
+      <c r="B8" s="142">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C8" s="145">
+      <c r="C8" s="142">
         <v>2.5</v>
       </c>
-      <c r="D8" s="145">
+      <c r="D8" s="142">
         <f ca="1">($K8-$C8)/($K1-$C1)*(D1-$C1)+$C8+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
-        <v>3.3456794327115862</v>
-      </c>
-      <c r="E8" s="145">
+        <v>3.4230069357099335</v>
+      </c>
+      <c r="E8" s="142">
         <f t="shared" ref="E8:J8" ca="1" si="12">($K8-$C8)/($K1-$C1)*(E1-$C1)+$C8+IF(RAND()&gt;0.5,RAND(),-RAND())</f>
-        <v>5.9505664211270464</v>
-      </c>
-      <c r="F8" s="145">
+        <v>4.3949704531488241</v>
+      </c>
+      <c r="F8" s="142">
         <f t="shared" ca="1" si="12"/>
-        <v>6.949054798026939</v>
-      </c>
-      <c r="G8" s="145">
+        <v>6.3148641779253918</v>
+      </c>
+      <c r="G8" s="142">
         <f t="shared" ca="1" si="12"/>
-        <v>7.5978193522526052</v>
-      </c>
-      <c r="H8" s="145">
+        <v>7.5890979481638157</v>
+      </c>
+      <c r="H8" s="142">
         <f t="shared" ca="1" si="12"/>
-        <v>9.5929750796095199</v>
-      </c>
-      <c r="I8" s="145">
+        <v>9.0357689929064922</v>
+      </c>
+      <c r="I8" s="142">
         <f t="shared" ca="1" si="12"/>
-        <v>10.547593957817664</v>
-      </c>
-      <c r="J8" s="145">
+        <v>10.24272068178011</v>
+      </c>
+      <c r="J8" s="142">
         <f t="shared" ca="1" si="12"/>
-        <v>11.41265116077901</v>
-      </c>
-      <c r="K8" s="145">
+        <v>12.226375556456436</v>
+      </c>
+      <c r="K8" s="142">
         <v>13.7</v>
       </c>
-      <c r="L8" s="146">
+      <c r="L8" s="143">
         <v>14.8</v>
       </c>
-      <c r="M8" s="146">
+      <c r="M8" s="143">
         <v>15.9</v>
       </c>
-      <c r="N8" s="146">
+      <c r="N8" s="143">
         <v>16.100000000000001</v>
       </c>
-      <c r="O8" s="146">
+      <c r="O8" s="143">
         <v>17.2</v>
       </c>
-      <c r="P8" s="146">
+      <c r="P8" s="143">
         <v>17</v>
       </c>
-      <c r="Q8" s="146">
+      <c r="Q8" s="143">
         <v>17</v>
       </c>
-      <c r="R8" s="146">
+      <c r="R8" s="143">
         <v>17.2</v>
       </c>
-      <c r="S8" s="146">
+      <c r="S8" s="143">
         <v>17.100000000000001</v>
       </c>
-      <c r="T8" s="146">
+      <c r="T8" s="143">
         <v>17.2</v>
       </c>
       <c r="U8" s="68">
         <v>17.3</v>
       </c>
-      <c r="V8" s="145">
+      <c r="V8" s="142">
         <f ca="1">STDEV(B8:U8)</f>
-        <v>5.5103641079865344</v>
-      </c>
-      <c r="W8" s="145"/>
-      <c r="X8" s="145"/>
-      <c r="Y8" s="145"/>
-      <c r="Z8" s="145"/>
-      <c r="AA8" s="145"/>
-      <c r="AB8" s="145"/>
-      <c r="AC8" s="145"/>
-      <c r="AD8" s="145"/>
-      <c r="AE8" s="145"/>
-      <c r="AF8" s="145"/>
-      <c r="AG8" s="145"/>
-      <c r="AH8" s="145"/>
-      <c r="AI8" s="145"/>
-      <c r="AJ8" s="145"/>
-      <c r="AK8" s="145"/>
-      <c r="AL8" s="145"/>
-      <c r="AM8" s="145"/>
-      <c r="AN8" s="145"/>
-      <c r="AO8" s="145"/>
-      <c r="AP8" s="145"/>
-      <c r="AQ8" s="145"/>
-      <c r="AR8" s="145"/>
-      <c r="AS8" s="145"/>
-      <c r="AT8" s="145"/>
-      <c r="AU8" s="145"/>
-      <c r="AV8" s="145"/>
-      <c r="AW8" s="145"/>
-      <c r="AX8" s="145"/>
-      <c r="AY8" s="145"/>
-      <c r="AZ8" s="145"/>
-      <c r="BA8" s="145"/>
-      <c r="BB8" s="145"/>
-      <c r="BC8" s="145"/>
-      <c r="BD8" s="145"/>
-      <c r="BE8" s="145"/>
-      <c r="BF8" s="145"/>
-      <c r="BG8" s="145"/>
-      <c r="BH8" s="145"/>
-      <c r="BI8" s="145"/>
-      <c r="BJ8" s="145"/>
-      <c r="BK8" s="145"/>
-      <c r="BL8" s="145"/>
-      <c r="BM8" s="145"/>
-      <c r="BN8" s="145"/>
-      <c r="BO8" s="145"/>
-      <c r="BP8" s="145"/>
-      <c r="BQ8" s="145"/>
-      <c r="BR8" s="145"/>
-      <c r="BS8" s="145"/>
-      <c r="BT8" s="145"/>
-      <c r="BU8" s="145"/>
-      <c r="BV8" s="145"/>
-      <c r="BW8" s="145"/>
-      <c r="BX8" s="145"/>
-      <c r="BY8" s="145"/>
-      <c r="BZ8" s="145"/>
-      <c r="CA8" s="145"/>
-      <c r="CB8" s="145"/>
-      <c r="CC8" s="145"/>
-      <c r="CD8" s="145"/>
-      <c r="CE8" s="145"/>
-      <c r="CF8" s="145"/>
-      <c r="CG8" s="145"/>
-      <c r="CH8" s="145"/>
-      <c r="CI8" s="145"/>
-      <c r="CJ8" s="145"/>
-      <c r="CK8" s="145"/>
-      <c r="CL8" s="145"/>
-      <c r="CM8" s="145"/>
-      <c r="CN8" s="145"/>
-      <c r="CO8" s="145"/>
-      <c r="CP8" s="145"/>
-      <c r="CQ8" s="145"/>
-      <c r="CR8" s="145"/>
-      <c r="CS8" s="145"/>
-      <c r="CT8" s="145"/>
-      <c r="CU8" s="145"/>
-      <c r="CV8" s="145"/>
+        <v>5.6536226737473845</v>
+      </c>
+      <c r="W8" s="142"/>
+      <c r="X8" s="142"/>
+      <c r="Y8" s="142"/>
+      <c r="Z8" s="142"/>
+      <c r="AA8" s="142"/>
+      <c r="AB8" s="142"/>
+      <c r="AC8" s="142"/>
+      <c r="AD8" s="142"/>
+      <c r="AE8" s="142"/>
+      <c r="AF8" s="142"/>
+      <c r="AG8" s="142"/>
+      <c r="AH8" s="142"/>
+      <c r="AI8" s="142"/>
+      <c r="AJ8" s="142"/>
+      <c r="AK8" s="142"/>
+      <c r="AL8" s="142"/>
+      <c r="AM8" s="142"/>
+      <c r="AN8" s="142"/>
+      <c r="AO8" s="142"/>
+      <c r="AP8" s="142"/>
+      <c r="AQ8" s="142"/>
+      <c r="AR8" s="142"/>
+      <c r="AS8" s="142"/>
+      <c r="AT8" s="142"/>
+      <c r="AU8" s="142"/>
+      <c r="AV8" s="142"/>
+      <c r="AW8" s="142"/>
+      <c r="AX8" s="142"/>
+      <c r="AY8" s="142"/>
+      <c r="AZ8" s="142"/>
+      <c r="BA8" s="142"/>
+      <c r="BB8" s="142"/>
+      <c r="BC8" s="142"/>
+      <c r="BD8" s="142"/>
+      <c r="BE8" s="142"/>
+      <c r="BF8" s="142"/>
+      <c r="BG8" s="142"/>
+      <c r="BH8" s="142"/>
+      <c r="BI8" s="142"/>
+      <c r="BJ8" s="142"/>
+      <c r="BK8" s="142"/>
+      <c r="BL8" s="142"/>
+      <c r="BM8" s="142"/>
+      <c r="BN8" s="142"/>
+      <c r="BO8" s="142"/>
+      <c r="BP8" s="142"/>
+      <c r="BQ8" s="142"/>
+      <c r="BR8" s="142"/>
+      <c r="BS8" s="142"/>
+      <c r="BT8" s="142"/>
+      <c r="BU8" s="142"/>
+      <c r="BV8" s="142"/>
+      <c r="BW8" s="142"/>
+      <c r="BX8" s="142"/>
+      <c r="BY8" s="142"/>
+      <c r="BZ8" s="142"/>
+      <c r="CA8" s="142"/>
+      <c r="CB8" s="142"/>
+      <c r="CC8" s="142"/>
+      <c r="CD8" s="142"/>
+      <c r="CE8" s="142"/>
+      <c r="CF8" s="142"/>
+      <c r="CG8" s="142"/>
+      <c r="CH8" s="142"/>
+      <c r="CI8" s="142"/>
+      <c r="CJ8" s="142"/>
+      <c r="CK8" s="142"/>
+      <c r="CL8" s="142"/>
+      <c r="CM8" s="142"/>
+      <c r="CN8" s="142"/>
+      <c r="CO8" s="142"/>
+      <c r="CP8" s="142"/>
+      <c r="CQ8" s="142"/>
+      <c r="CR8" s="142"/>
+      <c r="CS8" s="142"/>
+      <c r="CT8" s="142"/>
+      <c r="CU8" s="142"/>
+      <c r="CV8" s="142"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85804EB1-8F38-4167-AA2D-F299FCDFB5DF}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>2.2999999999999998</v>
       </c>
       <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ref="B1:C17" ca="1" si="0">A1*(RAND()/10+1)</f>
+        <v>2.377903303677809</v>
+      </c>
+      <c r="C1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.4895702610443653</v>
+      </c>
+      <c r="D1">
+        <f t="shared" ref="D1:E1" ca="1" si="1">C1*(RAND()/10+1)</f>
+        <v>2.6640122935605608</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.9093552847444086</v>
+      </c>
+      <c r="M1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2.5</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6886485788809549</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.8721288798173381</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:E2" ca="1" si="2">C2*(RAND()/10+1)</f>
+        <v>2.9771877521468686</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.1369225769177533</v>
+      </c>
+      <c r="M2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="122"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.0699347542618334</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.4068059825868273</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:E3" ca="1" si="3">C3*(RAND()/10+1)</f>
+        <v>4.6459787995889323</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.8192673998201636</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5.5</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="122"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5642806664172744</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.0813909128648991</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:E4" ca="1" si="4">C4*(RAND()/10+1)</f>
+        <v>6.4737978749336191</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.5647027718836464</v>
+      </c>
+      <c r="M4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6.6</v>
       </c>
       <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="122"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.1994272804875159</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.5390573560358547</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:E5" ca="1" si="5">C5*(RAND()/10+1)</f>
+        <v>7.6646875736239757</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.4085148723562693</v>
+      </c>
+      <c r="M5">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8.3000000000000007</v>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="122"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.0078439328718005</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.2951917794803425</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:E6" ca="1" si="6">C6*(RAND()/10+1)</f>
+        <v>9.521142520194303</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="6"/>
+        <v>9.6016793704299683</v>
+      </c>
+      <c r="M6">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9.5</v>
       </c>
       <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="122"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.438284118792872</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.035374835548742</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:E7" ca="1" si="7">C7*(RAND()/10+1)</f>
+        <v>11.231502735682424</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="7"/>
+        <v>11.315947446625785</v>
+      </c>
+      <c r="M7">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10.199999999999999</v>
       </c>
       <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="122"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.498055708503477</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.956439338999161</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:E8" ca="1" si="8">C8*(RAND()/10+1)</f>
+        <v>11.416931007364166</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="8"/>
+        <v>12.099054088848732</v>
+      </c>
+      <c r="M8">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>13.2</v>
       </c>
       <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="122"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>14.322962194458665</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>14.821838485084639</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:E9" ca="1" si="9">C9*(RAND()/10+1)</f>
+        <v>15.791644222557403</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="9"/>
+        <v>16.153589900798526</v>
+      </c>
+      <c r="M9">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>13.7</v>
       </c>
       <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="122"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.854709862396476</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.944626015612354</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:E10" ca="1" si="10">C10*(RAND()/10+1)</f>
+        <v>14.52571653579059</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="10"/>
+        <v>15.673551280246233</v>
+      </c>
+      <c r="M10">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>14.8</v>
       </c>
       <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="122"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>15.762033798490247</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>17.157356379134889</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:E11" ca="1" si="11">C11*(RAND()/10+1)</f>
+        <v>18.414256021578407</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="11"/>
+        <v>19.342382531930777</v>
+      </c>
+      <c r="M11">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>15.9</v>
       </c>
       <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="122"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.630775081935269</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>17.627042689744783</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:E12" ca="1" si="12">C12*(RAND()/10+1)</f>
+        <v>18.351317541878107</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="12"/>
+        <v>19.525687213700692</v>
+      </c>
+      <c r="M12">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>16.100000000000001</v>
       </c>
       <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="122"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>17.369020432301404</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>17.376728909475837</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:H13" ca="1" si="13">C13*(RAND()/10+1)</f>
+        <v>18.923714074348268</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="13"/>
+        <v>20.64788578986872</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="13"/>
+        <v>21.974852907993899</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="13"/>
+        <v>23.315405810681018</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="13"/>
+        <v>24.975249437579912</v>
+      </c>
+      <c r="M13">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>17</v>
       </c>
       <c r="B14">
-        <v>14</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="122"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>17.179938303572282</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>18.297441758922933</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:I14" ca="1" si="14">C14*(RAND()/10+1)</f>
+        <v>18.785751854661321</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="14"/>
+        <v>19.291327875974336</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="14"/>
+        <v>19.77073218158074</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="14"/>
+        <v>19.867286914335367</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="14"/>
+        <v>21.063674796382841</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="14"/>
+        <v>21.12433044437369</v>
+      </c>
+      <c r="M14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>17.100000000000001</v>
       </c>
       <c r="B15">
-        <v>18</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="122"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>18.613995525866876</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>19.002734983946208</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:I15" ca="1" si="15">C15*(RAND()/10+1)</f>
+        <v>19.529665312075874</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="15"/>
+        <v>21.343479146105032</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="15"/>
+        <v>21.725144357796101</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="15"/>
+        <v>21.777038243097422</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="15"/>
+        <v>22.6141408716631</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="15"/>
+        <v>24.111343415509413</v>
+      </c>
+      <c r="M15">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>17.2</v>
       </c>
       <c r="B16">
-        <v>17</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="122"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>17.561851891469253</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>18.557899488217402</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:I16" ca="1" si="16">C16*(RAND()/10+1)</f>
+        <v>18.778276387723924</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="16"/>
+        <v>18.909298572000704</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="16"/>
+        <v>19.539594873999025</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="16"/>
+        <v>21.208862788815726</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="16"/>
+        <v>22.863885755349262</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="16"/>
+        <v>25.046186311959659</v>
+      </c>
+      <c r="M16">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17.3</v>
       </c>
       <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="122"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>18.788896621406671</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>19.600222672758775</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:E17" ca="1" si="17">C17*(RAND()/10+1)</f>
+        <v>20.857289316511785</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="17"/>
+        <v>21.717243513560391</v>
+      </c>
+      <c r="M17">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="122"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="122"/>
+      <c r="E18" s="119"/>
+      <c r="M18">
+        <v>2.5252360017348243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="119"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="122"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="122"/>
+      <c r="E19" s="119"/>
+      <c r="M19">
+        <v>2.742626185199418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="119"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="122"/>
+      <c r="E20" s="119"/>
+      <c r="M20">
+        <v>4.1270652526970224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <v>6.0202184486932095</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <v>7.1674815590826793</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <v>9.1105854943275109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <v>10.397390122058004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <v>11.202999590327327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <v>13.544222367415991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>13.795673126752272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <v>15.223301265651315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <v>17.437612550970968</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <v>16.819953800817768</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <v>18.514591239549677</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <v>18.376383026445566</v>
+      </c>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <v>17.305774573508149</v>
+      </c>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <v>17.612242800718683</v>
+      </c>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M35">
+        <v>2.755298425023625</v>
+      </c>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <v>2.9944016283661496</v>
+      </c>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M37">
+        <v>4.2631020643863655</v>
+      </c>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M38">
+        <v>6.1270338164938547</v>
+      </c>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M39">
+        <v>7.4261597273695354</v>
+      </c>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M40">
+        <v>9.3764082688717227</v>
+      </c>
+    </row>
+    <row r="41" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M41">
+        <v>10.782288626541332</v>
+      </c>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M42">
+        <v>11.657669563963454</v>
+      </c>
+    </row>
+    <row r="43" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M43">
+        <v>14.463680846850705</v>
+      </c>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M44">
+        <v>14.072114006124766</v>
+      </c>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M45">
+        <v>15.486458355812015</v>
+      </c>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M46">
+        <v>18.853950699523523</v>
+      </c>
+    </row>
+    <row r="47" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M47">
+        <v>18.427480998744528</v>
+      </c>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M48">
+        <v>20.091436880974808</v>
+      </c>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M49">
+        <v>20.013028672019878</v>
+      </c>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M50">
+        <v>18.875266056142618</v>
+      </c>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M51">
+        <v>17.750858808305892</v>
+      </c>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M52">
+        <v>2.9291455727874616</v>
+      </c>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M53">
+        <v>3.142048776782985</v>
+      </c>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M54">
+        <v>4.374653724272255</v>
+      </c>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M55">
+        <v>6.4138357698119979</v>
+      </c>
+    </row>
+    <row r="56" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M56">
+        <v>7.9500142836246273</v>
+      </c>
+    </row>
+    <row r="57" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M57">
+        <v>10.00911753312371</v>
+      </c>
+    </row>
+    <row r="58" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M58">
+        <v>11.066707029415387</v>
+      </c>
+    </row>
+    <row r="59" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M59">
+        <v>12.255864270267356</v>
+      </c>
+    </row>
+    <row r="60" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M60">
+        <v>14.61477608152455</v>
+      </c>
+    </row>
+    <row r="61" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M61">
+        <v>15.478072294870104</v>
+      </c>
+    </row>
+    <row r="62" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M62">
+        <v>16.521486546835689</v>
+      </c>
+    </row>
+    <row r="63" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M63">
+        <v>20.16348817768435</v>
+      </c>
+    </row>
+    <row r="64" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M64">
+        <v>19.544111716065011</v>
+      </c>
+    </row>
+    <row r="65" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M65">
+        <v>21.408736530957658</v>
+      </c>
+    </row>
+    <row r="66" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M66">
+        <v>20.828773174139982</v>
+      </c>
+    </row>
+    <row r="67" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M67">
+        <v>19.195179836316512</v>
+      </c>
+    </row>
+    <row r="68" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M68">
+        <v>17.832487706202436</v>
+      </c>
+    </row>
+    <row r="69" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M69">
+        <v>2.9825623315991345</v>
+      </c>
+    </row>
+    <row r="70" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M70">
+        <v>3.2143823945503098</v>
+      </c>
+    </row>
+    <row r="71" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M71">
+        <v>4.6313439770301406</v>
+      </c>
+    </row>
+    <row r="72" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M72">
+        <v>6.6917101782279804</v>
+      </c>
+    </row>
+    <row r="73" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M73">
+        <v>8.6553781690296177</v>
+      </c>
+    </row>
+    <row r="74" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M74">
+        <v>10.565234220985429</v>
+      </c>
+    </row>
+    <row r="75" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M75">
+        <v>11.666064274077973</v>
+      </c>
+    </row>
+    <row r="76" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M76">
+        <v>12.745738232172892</v>
+      </c>
+    </row>
+    <row r="77" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M77">
+        <v>14.760816581513417</v>
+      </c>
+    </row>
+    <row r="78" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M78">
+        <v>15.585473185658119</v>
+      </c>
+    </row>
+    <row r="79" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M79">
+        <v>18.087137144031647</v>
+      </c>
+    </row>
+    <row r="80" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M80">
+        <v>21.432238415398054</v>
+      </c>
+    </row>
+    <row r="81" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M81">
+        <v>19.791210905329741</v>
+      </c>
+    </row>
+    <row r="82" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M82">
+        <v>21.863448277180979</v>
+      </c>
+    </row>
+    <row r="83" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M83">
+        <v>21.78100641909656</v>
+      </c>
+    </row>
+    <row r="84" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M84">
+        <v>20.559168564692587</v>
+      </c>
+    </row>
+    <row r="85" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M85">
+        <v>19.214611042201589</v>
+      </c>
+    </row>
+    <row r="86" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M86">
+        <v>20.600801245827345</v>
+      </c>
+    </row>
+    <row r="87" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M87">
+        <v>22.161716634715461</v>
+      </c>
+    </row>
+    <row r="88" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M88">
+        <v>22.632254345723521</v>
+      </c>
+    </row>
+    <row r="89" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M89">
+        <v>21.408582588791894</v>
+      </c>
+    </row>
+    <row r="90" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M90">
+        <v>20.899145355227709</v>
+      </c>
+    </row>
+    <row r="91" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M91">
+        <v>23.596212538246885</v>
+      </c>
+    </row>
+    <row r="92" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M92">
+        <v>22.720754779115442</v>
+      </c>
+    </row>
+    <row r="93" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M93">
+        <v>21.447525658124949</v>
+      </c>
+    </row>
+    <row r="94" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M94">
+        <v>21.346053917448312</v>
+      </c>
+    </row>
+    <row r="95" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M95">
+        <v>25.184854182067525</v>
+      </c>
+    </row>
+    <row r="96" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M96">
+        <v>23.183329682101398</v>
+      </c>
+    </row>
+    <row r="97" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M97">
+        <v>21.756501702171899</v>
+      </c>
+    </row>
+    <row r="98" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M98">
+        <v>26.43528281494342</v>
+      </c>
+    </row>
+    <row r="99" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M99">
+        <v>23.804958641148136</v>
+      </c>
+    </row>
+    <row r="100" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M100">
+        <v>23.632853124562782</v>
+      </c>
+    </row>
+    <row r="101" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M101">
+        <f>STDEV(M1:M100)</f>
+        <v>6.6898611112455333</v>
+      </c>
+    </row>
+    <row r="102" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M102">
+        <f>DEVSQ(M1:M100)</f>
+        <v>4430.669927087778</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A1:B20">
@@ -6043,7 +5812,75 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A63A6E-84BC-455D-A22F-57156BF158AF}">
+  <dimension ref="A2:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="141" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="141" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="141" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="141" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="141" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="141" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="141" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8A1F03-0E23-4BAA-9D22-71F3565DA018}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6131,31 +5968,31 @@
       </c>
       <c r="C2" s="106">
         <f t="shared" ref="C2:I2" ca="1" si="0">M2/(RAND()+5)</f>
-        <v>2.6656562565549624</v>
+        <v>2.6791657494582792</v>
       </c>
       <c r="D2" s="106">
         <f ca="1">N2/(RAND()+5)</f>
-        <v>3.6327629223879154</v>
+        <v>3.3949885130616284</v>
       </c>
       <c r="E2" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0995577510685028</v>
+        <v>3.2415713474273562</v>
       </c>
       <c r="F2" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0242459920151008</v>
+        <v>3.4809751911474818</v>
       </c>
       <c r="G2" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5036965756110092</v>
+        <v>3.513220788159801</v>
       </c>
       <c r="H2" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2600190467060459</v>
+        <v>3.9353771779721023</v>
       </c>
       <c r="I2" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>3.961802223999872</v>
+        <v>3.613983700661672</v>
       </c>
       <c r="K2" s="109" t="s">
         <v>3</v>
@@ -6192,31 +6029,31 @@
       </c>
       <c r="C3" s="15">
         <f ca="1">C2/(RAND()/5+1.2)</f>
-        <v>2.1927473407941047</v>
+        <v>2.005263762593076</v>
       </c>
       <c r="D3" s="15">
         <f t="shared" ref="D3" ca="1" si="1">D2/(RAND()/5+1.2)</f>
-        <v>2.8165904758237863</v>
+        <v>2.6458634076016012</v>
       </c>
       <c r="E3" s="15">
         <f t="shared" ref="E3" ca="1" si="2">E2/(RAND()/5+1.2)</f>
-        <v>2.2809203307584993</v>
+        <v>2.523128926638786</v>
       </c>
       <c r="F3" s="15">
         <f t="shared" ref="F3" ca="1" si="3">F2/(RAND()/5+1.2)</f>
-        <v>2.2919598540157882</v>
+        <v>2.5768817371687636</v>
       </c>
       <c r="G3" s="15">
         <f t="shared" ref="G3" ca="1" si="4">G2/(RAND()/5+1.2)</f>
-        <v>2.6220153820084575</v>
+        <v>2.6132511806189558</v>
       </c>
       <c r="H3" s="15">
         <f t="shared" ref="H3" ca="1" si="5">H2/(RAND()/5+1.2)</f>
-        <v>3.5420188491460971</v>
+        <v>2.9851537693128174</v>
       </c>
       <c r="I3" s="15">
         <f ca="1">I2/(RAND()/5+1)</f>
-        <v>3.5560199843090481</v>
+        <v>3.6075796628793566</v>
       </c>
       <c r="K3" s="17"/>
       <c r="L3" s="5" t="s">
@@ -6224,31 +6061,31 @@
       </c>
       <c r="M3" s="15">
         <f ca="1">M2/(RAND()/5+1.2)</f>
-        <v>13.230791496299171</v>
+        <v>11.570550570073427</v>
       </c>
       <c r="N3" s="15">
         <f t="shared" ref="N3:R3" ca="1" si="6">N2/(RAND()/5+1.2)</f>
-        <v>14.099196487141445</v>
+        <v>13.374061096969049</v>
       </c>
       <c r="O3" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>13.974622308194714</v>
+        <v>12.257038249583413</v>
       </c>
       <c r="P3" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>14.00650337490049</v>
+        <v>14.064351551530876</v>
       </c>
       <c r="Q3" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>14.410004064153584</v>
+        <v>13.810389419205427</v>
       </c>
       <c r="R3" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>16.898149539601942</v>
+        <v>17.447991678617292</v>
       </c>
       <c r="S3" s="15">
         <f ca="1">S2/(RAND()/5+1)</f>
-        <v>18.233913702648394</v>
+        <v>18.557012085602743</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -6258,31 +6095,31 @@
       </c>
       <c r="C4" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>156.3436041678514</v>
+        <v>167.78929089243954</v>
       </c>
       <c r="D4" s="110">
         <f t="shared" ref="D4:H4" ca="1" si="7">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>120.31739788113973</v>
+        <v>116.32817001123142</v>
       </c>
       <c r="E4" s="110">
         <f t="shared" ca="1" si="7"/>
-        <v>193.3940787747766</v>
+        <v>176.59849159177412</v>
       </c>
       <c r="F4" s="110">
         <f t="shared" ca="1" si="7"/>
-        <v>184.12998958562358</v>
+        <v>142.98494137025907</v>
       </c>
       <c r="G4" s="110">
         <f t="shared" ca="1" si="7"/>
-        <v>120.47900450411048</v>
+        <v>165.23835263194673</v>
       </c>
       <c r="H4" s="110">
         <f t="shared" ca="1" si="7"/>
-        <v>123.88667174043368</v>
+        <v>137.96108345326689</v>
       </c>
       <c r="I4" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>13.111682360581964</v>
+        <v>9.899301506165143</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="5" t="s">
@@ -6290,31 +6127,31 @@
       </c>
       <c r="M4" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>162.77860717789957</v>
+        <v>135.13037551183794</v>
       </c>
       <c r="N4" s="110">
         <f t="shared" ref="N4:R4" ca="1" si="8">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>173.11506628815954</v>
+        <v>170.66376719954073</v>
       </c>
       <c r="O4" s="110">
         <f t="shared" ca="1" si="8"/>
-        <v>200.23604204283697</v>
+        <v>136.31383263321121</v>
       </c>
       <c r="P4" s="110">
         <f t="shared" ca="1" si="8"/>
-        <v>177.51174477944727</v>
+        <v>133.84323313085142</v>
       </c>
       <c r="Q4" s="110">
         <f t="shared" ca="1" si="8"/>
-        <v>132.70673463516755</v>
+        <v>110.09830721064711</v>
       </c>
       <c r="R4" s="110">
         <f t="shared" ca="1" si="8"/>
-        <v>164.25792473890306</v>
+        <v>164.52202688203835</v>
       </c>
       <c r="S4" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>5.5886768142180774</v>
+        <v>11.611926154752224</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -6326,27 +6163,27 @@
       </c>
       <c r="C5" s="15">
         <f ca="1">C2/(RAND()+2)</f>
-        <v>0.96327927079853459</v>
+        <v>1.2944168823705031</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" ref="D5:H5" ca="1" si="9">D2/(RAND()+2)</f>
-        <v>1.6742553714722117</v>
+        <v>1.1772271257797955</v>
       </c>
       <c r="E5" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5249217893254996</v>
+        <v>1.406612819987717</v>
       </c>
       <c r="F5" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4292097083990889</v>
+        <v>1.5718679091814596</v>
       </c>
       <c r="G5" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>1.713308993592163</v>
+        <v>1.4762969068495688</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4935824135072238</v>
+        <v>1.554863250624861</v>
       </c>
       <c r="I5" s="15">
         <v>2.2999999999999998</v>
@@ -6386,31 +6223,31 @@
       </c>
       <c r="C6" s="15">
         <f ca="1">C5/(RAND()/5+1.2)</f>
-        <v>0.78193600694402343</v>
+        <v>0.94955603559207702</v>
       </c>
       <c r="D6" s="15">
         <f t="shared" ref="D6" ca="1" si="10">D5/(RAND()/5+1.2)</f>
-        <v>1.3310856108312514</v>
+        <v>0.89497868866409314</v>
       </c>
       <c r="E6" s="15">
         <f t="shared" ref="E6" ca="1" si="11">E5/(RAND()/5+1.2)</f>
-        <v>1.1946189942519922</v>
+        <v>1.1678491395164057</v>
       </c>
       <c r="F6" s="15">
         <f t="shared" ref="F6" ca="1" si="12">F5/(RAND()/5+1.2)</f>
-        <v>1.1808864856448833</v>
+        <v>1.1983634304237598</v>
       </c>
       <c r="G6" s="15">
         <f t="shared" ref="G6" ca="1" si="13">G5/(RAND()/5+1.2)</f>
-        <v>1.2847769314013733</v>
+        <v>1.0892012880507416</v>
       </c>
       <c r="H6" s="15">
         <f t="shared" ref="H6" ca="1" si="14">H5/(RAND()/5+1.2)</f>
-        <v>1.12838817235107</v>
+        <v>1.2387818511155144</v>
       </c>
       <c r="I6" s="15">
         <f ca="1">I5/(RAND()/5+1)</f>
-        <v>2.1607802306441335</v>
+        <v>2.0290120924714481</v>
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="5" t="s">
@@ -6418,31 +6255,31 @@
       </c>
       <c r="M6" s="15">
         <f ca="1">M5/(RAND()/5+1.2)</f>
-        <v>10.941817197644859</v>
+        <v>12.356478758787294</v>
       </c>
       <c r="N6" s="15">
         <f t="shared" ref="N6:R6" ca="1" si="15">N5/(RAND()/5+1.2)</f>
-        <v>13.092504236119233</v>
+        <v>12.811265765703327</v>
       </c>
       <c r="O6" s="15">
         <f t="shared" ca="1" si="15"/>
-        <v>13.023741224508326</v>
+        <v>11.422984188959116</v>
       </c>
       <c r="P6" s="15">
         <f t="shared" ca="1" si="15"/>
-        <v>13.598558999584242</v>
+        <v>13.041300622965563</v>
       </c>
       <c r="Q6" s="15">
         <f t="shared" ca="1" si="15"/>
-        <v>12.9476550915982</v>
+        <v>13.585095638449332</v>
       </c>
       <c r="R6" s="15">
         <f t="shared" ca="1" si="15"/>
-        <v>15.535287579411115</v>
+        <v>14.488405776085276</v>
       </c>
       <c r="S6" s="15">
         <f ca="1">S5/(RAND()/5+1)</f>
-        <v>16.55576761607681</v>
+        <v>17.196123525570471</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -6452,31 +6289,31 @@
       </c>
       <c r="C7" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>195.53904451917927</v>
+        <v>143.22422005915928</v>
       </c>
       <c r="D7" s="110">
         <f t="shared" ref="D7:H7" ca="1" si="16">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>132.94734384706021</v>
+        <v>115.8638890938315</v>
       </c>
       <c r="E7" s="110">
         <f t="shared" ca="1" si="16"/>
-        <v>140.82115709412682</v>
+        <v>203.30231760583797</v>
       </c>
       <c r="F7" s="110">
         <f t="shared" ca="1" si="16"/>
-        <v>187.37372696273258</v>
+        <v>126.56669931877647</v>
       </c>
       <c r="G7" s="110">
         <f t="shared" ca="1" si="16"/>
-        <v>165.00871111244459</v>
+        <v>102.0019197729557</v>
       </c>
       <c r="H7" s="110">
         <f t="shared" ca="1" si="16"/>
-        <v>159.08254785178573</v>
+        <v>180.58511409245119</v>
       </c>
       <c r="I7" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>4.0687836994563664</v>
+        <v>12.370057560922719</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="5" t="s">
@@ -6484,31 +6321,31 @@
       </c>
       <c r="M7" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>200.39426443901419</v>
+        <v>196.45092165462543</v>
       </c>
       <c r="N7" s="110">
         <f t="shared" ref="N7:R7" ca="1" si="17">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>156.57472145270373</v>
+        <v>171.81590266028033</v>
       </c>
       <c r="O7" s="110">
         <f t="shared" ca="1" si="17"/>
-        <v>108.14537932328595</v>
+        <v>133.05143295589144</v>
       </c>
       <c r="P7" s="110">
         <f t="shared" ca="1" si="17"/>
-        <v>191.36025056915531</v>
+        <v>185.52030890078345</v>
       </c>
       <c r="Q7" s="110">
         <f t="shared" ca="1" si="17"/>
-        <v>167.0686970313439</v>
+        <v>166.98533149760146</v>
       </c>
       <c r="R7" s="110">
         <f t="shared" ca="1" si="17"/>
-        <v>127.50898054481391</v>
+        <v>110.46800126326222</v>
       </c>
       <c r="S7" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>0.86258307147533442</v>
+        <v>5.8847756411111973</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -6520,27 +6357,27 @@
       </c>
       <c r="C8" s="15">
         <f ca="1">C5/(RAND()+2)</f>
-        <v>0.34654439299377365</v>
+        <v>0.48005849568564762</v>
       </c>
       <c r="D8" s="15">
         <f t="shared" ref="D8:H8" ca="1" si="18">D5/(RAND()+2)</f>
-        <v>0.61969275852853223</v>
+        <v>0.45113365926772075</v>
       </c>
       <c r="E8" s="15">
         <f t="shared" ca="1" si="18"/>
-        <v>0.73665283971245987</v>
+        <v>0.66109519741613665</v>
       </c>
       <c r="F8" s="15">
         <f t="shared" ca="1" si="18"/>
-        <v>0.62017064171871994</v>
+        <v>0.56020380463617792</v>
       </c>
       <c r="G8" s="15">
         <f t="shared" ca="1" si="18"/>
-        <v>0.84085552599524827</v>
+        <v>0.59311137790778645</v>
       </c>
       <c r="H8" s="15">
         <f t="shared" ca="1" si="18"/>
-        <v>0.56954017338976948</v>
+        <v>0.53514238718764928</v>
       </c>
       <c r="I8" s="15">
         <v>1.2</v>
@@ -6580,31 +6417,31 @@
       </c>
       <c r="C9" s="15">
         <f ca="1">C8/(RAND()/5+1.2)</f>
-        <v>0.26783157898139281</v>
+        <v>0.39961518484947078</v>
       </c>
       <c r="D9" s="15">
         <f t="shared" ref="D9" ca="1" si="19">D8/(RAND()/5+1.2)</f>
-        <v>0.49615481890154473</v>
+        <v>0.36976909055437579</v>
       </c>
       <c r="E9" s="15">
         <f t="shared" ref="E9" ca="1" si="20">E8/(RAND()/5+1.2)</f>
-        <v>0.5444483907874369</v>
+        <v>0.48723515538539014</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" ref="F9" ca="1" si="21">F8/(RAND()/5+1.2)</f>
-        <v>0.45758279122923762</v>
+        <v>0.46108250313011456</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" ref="G9" ca="1" si="22">G8/(RAND()/5+1.2)</f>
-        <v>0.6136505388634923</v>
+        <v>0.49092325399070963</v>
       </c>
       <c r="H9" s="15">
         <f t="shared" ref="H9" ca="1" si="23">H8/(RAND()/5+1.2)</f>
-        <v>0.43220697737030439</v>
+        <v>0.39731459009698888</v>
       </c>
       <c r="I9" s="15">
         <f ca="1">I8/(RAND()/5+1)</f>
-        <v>1.1125561145435832</v>
+        <v>1.099400902688682</v>
       </c>
       <c r="K9" s="17"/>
       <c r="L9" s="5" t="s">
@@ -6612,31 +6449,31 @@
       </c>
       <c r="M9" s="15">
         <f ca="1">M8/(RAND()/5+1.2)</f>
-        <v>5.9307509293523095</v>
+        <v>5.9606164996922697</v>
       </c>
       <c r="N9" s="15">
         <f t="shared" ref="N9:R9" ca="1" si="24">N8/(RAND()/5+1.2)</f>
-        <v>8.1853772979178672</v>
+        <v>8.4524442693142738</v>
       </c>
       <c r="O9" s="15">
         <f t="shared" ca="1" si="24"/>
-        <v>7.714176473809367</v>
+        <v>7.0638784524505045</v>
       </c>
       <c r="P9" s="15">
         <f t="shared" ca="1" si="24"/>
-        <v>8.2438827716760805</v>
+        <v>7.7814056749307356</v>
       </c>
       <c r="Q9" s="15">
         <f t="shared" ca="1" si="24"/>
-        <v>9.0617037747440374</v>
+        <v>9.8077282264348646</v>
       </c>
       <c r="R9" s="15">
         <f t="shared" ca="1" si="24"/>
-        <v>10.394227555831282</v>
+        <v>9.8857864338034691</v>
       </c>
       <c r="S9" s="15">
         <f ca="1">S8/(RAND()/5+1)</f>
-        <v>12.56127814286852</v>
+        <v>12.393477786934504</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -6646,31 +6483,31 @@
       </c>
       <c r="C10" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>193.02511258887205</v>
+        <v>108.83973595354944</v>
       </c>
       <c r="D10" s="110">
         <f t="shared" ref="D10:H10" ca="1" si="25">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>125.25400645915033</v>
+        <v>193.93444381598724</v>
       </c>
       <c r="E10" s="110">
         <f t="shared" ca="1" si="25"/>
-        <v>115.93584679250488</v>
+        <v>162.2350249276449</v>
       </c>
       <c r="F10" s="110">
         <f t="shared" ca="1" si="25"/>
-        <v>108.13700363897848</v>
+        <v>131.56003632263119</v>
       </c>
       <c r="G10" s="110">
         <f t="shared" ca="1" si="25"/>
-        <v>150.53863238769998</v>
+        <v>191.23817470987416</v>
       </c>
       <c r="H10" s="110">
         <f t="shared" ca="1" si="25"/>
-        <v>129.17351108281858</v>
+        <v>109.52412589346238</v>
       </c>
       <c r="I10" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>9.7266464043755061</v>
+        <v>3.9461784307737791</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="5" t="s">
@@ -6678,31 +6515,31 @@
       </c>
       <c r="M10" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>163.94637677187237</v>
+        <v>130.15846932605285</v>
       </c>
       <c r="N10" s="110">
         <f t="shared" ref="N10:R10" ca="1" si="26">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>112.07231180231379</v>
+        <v>166.05482453189595</v>
       </c>
       <c r="O10" s="110">
         <f t="shared" ca="1" si="26"/>
-        <v>149.22016031164617</v>
+        <v>184.10512720067342</v>
       </c>
       <c r="P10" s="110">
         <f t="shared" ca="1" si="26"/>
-        <v>146.55998292585929</v>
+        <v>191.33588412904049</v>
       </c>
       <c r="Q10" s="110">
         <f t="shared" ca="1" si="26"/>
-        <v>129.90444969397942</v>
+        <v>186.23437914552846</v>
       </c>
       <c r="R10" s="110">
         <f t="shared" ca="1" si="26"/>
-        <v>112.84669983987455</v>
+        <v>189.30083356136464</v>
       </c>
       <c r="S10" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>3.7751499841980616</v>
+        <v>5.9986556834661906</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -6806,31 +6643,31 @@
       </c>
       <c r="M12" s="15">
         <f ca="1">M11/(RAND()/5+1.2)</f>
-        <v>3.0402104182024523</v>
+        <v>2.7171904161160154</v>
       </c>
       <c r="N12" s="15">
         <f t="shared" ref="N12:R12" ca="1" si="33">N11/(RAND()/5+1.2)</f>
-        <v>3.3098662384132433</v>
+        <v>3.4883107813448966</v>
       </c>
       <c r="O12" s="15">
         <f t="shared" ca="1" si="33"/>
-        <v>3.683029712734665</v>
+        <v>3.7634796625225282</v>
       </c>
       <c r="P12" s="15">
         <f t="shared" ca="1" si="33"/>
-        <v>4.4266134892373401</v>
+        <v>4.2737246704122365</v>
       </c>
       <c r="Q12" s="15">
         <f t="shared" ca="1" si="33"/>
-        <v>4.3870795159267839</v>
+        <v>4.8425222295531887</v>
       </c>
       <c r="R12" s="15">
         <f t="shared" ca="1" si="33"/>
-        <v>6.1236628990786866</v>
+        <v>5.5583584446954237</v>
       </c>
       <c r="S12" s="15">
         <f ca="1">S11/(RAND()/5+1)</f>
-        <v>7.4412283075493981</v>
+        <v>6.8938515894901169</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -6840,31 +6677,31 @@
       </c>
       <c r="C13" s="111">
         <f ca="1">RAND()</f>
-        <v>0.47767542991872791</v>
+        <v>0.62136362282309787</v>
       </c>
       <c r="D13" s="111">
         <f t="shared" ref="D13:I13" ca="1" si="34">RAND()</f>
-        <v>0.28707775524242785</v>
+        <v>0.17986682247101371</v>
       </c>
       <c r="E13" s="111">
         <f t="shared" ca="1" si="34"/>
-        <v>0.13273708377804627</v>
+        <v>0.44581910535879987</v>
       </c>
       <c r="F13" s="111">
         <f t="shared" ca="1" si="34"/>
-        <v>0.15758432766670916</v>
+        <v>0.77964978103602145</v>
       </c>
       <c r="G13" s="111">
         <f t="shared" ca="1" si="34"/>
-        <v>0.99444263975507152</v>
+        <v>0.44694186145075432</v>
       </c>
       <c r="H13" s="111">
         <f t="shared" ca="1" si="34"/>
-        <v>0.9207557532449373</v>
+        <v>0.24596327399522822</v>
       </c>
       <c r="I13" s="111">
         <f t="shared" ca="1" si="34"/>
-        <v>0.97222527323695818</v>
+        <v>0.12613668941938871</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="6" t="s">
@@ -6872,31 +6709,31 @@
       </c>
       <c r="M13" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>200.23351324361937</v>
+        <v>137.07905898462741</v>
       </c>
       <c r="N13" s="110">
         <f t="shared" ref="N13:R13" ca="1" si="35">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>115.24446955144437</v>
+        <v>122.87380149458824</v>
       </c>
       <c r="O13" s="110">
         <f t="shared" ca="1" si="35"/>
-        <v>115.97152286506488</v>
+        <v>132.30750766310507</v>
       </c>
       <c r="P13" s="110">
         <f t="shared" ca="1" si="35"/>
-        <v>183.49211779052433</v>
+        <v>144.02438357606309</v>
       </c>
       <c r="Q13" s="110">
         <f t="shared" ca="1" si="35"/>
-        <v>159.68823512521149</v>
+        <v>148.58713065647677</v>
       </c>
       <c r="R13" s="110">
         <f t="shared" ca="1" si="35"/>
-        <v>101.60813888407108</v>
+        <v>157.38993684724363</v>
       </c>
       <c r="S13" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>8.2770435382783951</v>
+        <v>5.0666181492229843</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -6915,22 +6752,22 @@
       </c>
       <c r="E14" s="15">
         <f t="shared" ref="E14" ca="1" si="36">O14/(RAND()+5)</f>
-        <v>2.0759843608416162</v>
+        <v>2.1944007849282543</v>
       </c>
       <c r="F14" s="15">
         <f t="shared" ref="F14" ca="1" si="37">P14/(RAND()+5)</f>
-        <v>2.3675694581831834</v>
+        <v>2.0967889251713689</v>
       </c>
       <c r="G14" s="15">
         <v>1.1000000000000001</v>
       </c>
       <c r="H14" s="15">
         <f t="shared" ref="H14" ca="1" si="38">R14/(RAND()+5)</f>
-        <v>2.3665742430288961</v>
+        <v>2.2472136762014534</v>
       </c>
       <c r="I14" s="15">
         <f t="shared" ref="I14" ca="1" si="39">S14/(RAND()+5)</f>
-        <v>2.7840738322193541</v>
+        <v>2.7245232377861965</v>
       </c>
       <c r="K14" s="109" t="s">
         <v>7</v>
@@ -6967,30 +6804,30 @@
       </c>
       <c r="C15" s="15">
         <f ca="1">C14/(RAND()/5+1.2)</f>
-        <v>0.4001600620893927</v>
+        <v>0.38030850805370986</v>
       </c>
       <c r="D15" s="15">
         <f t="shared" ref="D15" ca="1" si="40">D14/(RAND()/5+1.2)</f>
-        <v>0.80783312451229283</v>
+        <v>0.85994355165421665</v>
       </c>
       <c r="E15" s="15">
         <f t="shared" ref="E15" ca="1" si="41">E14/(RAND()/5+1.2)</f>
-        <v>1.6317406986931688</v>
+        <v>1.6416142035114321</v>
       </c>
       <c r="F15" s="15">
         <f t="shared" ref="F15" ca="1" si="42">F14/(RAND()/5+1.2)</f>
-        <v>1.7312846288987911</v>
+        <v>1.542092750417636</v>
       </c>
       <c r="G15" s="15">
         <v>0.9</v>
       </c>
       <c r="H15" s="15">
         <f t="shared" ref="H15" ca="1" si="43">H14/(RAND()/5+1.2)</f>
-        <v>1.9260550419613973</v>
+        <v>1.7306173635494775</v>
       </c>
       <c r="I15" s="15">
         <f ca="1">I14/(RAND()/5+1)</f>
-        <v>2.4714610726667394</v>
+        <v>2.700993427375352</v>
       </c>
       <c r="K15" s="17"/>
       <c r="L15" s="5" t="s">
@@ -6998,31 +6835,31 @@
       </c>
       <c r="M15" s="15">
         <f ca="1">M14/(RAND()/5+1.2)</f>
-        <v>8.1126134757821031</v>
+        <v>7.6457211494841477</v>
       </c>
       <c r="N15" s="15">
         <f t="shared" ref="N15:R15" ca="1" si="44">N14/(RAND()/5+1.2)</f>
-        <v>8.3576084530560166</v>
+        <v>8.2645002305033053</v>
       </c>
       <c r="O15" s="15">
         <f t="shared" ca="1" si="44"/>
-        <v>9.412846874665723</v>
+        <v>9.1538352917471553</v>
       </c>
       <c r="P15" s="15">
         <f t="shared" ca="1" si="44"/>
-        <v>9.9916026364373813</v>
+        <v>9.4687198188522199</v>
       </c>
       <c r="Q15" s="15">
         <f t="shared" ca="1" si="44"/>
-        <v>7.856400776908008</v>
+        <v>8.3214872651841745</v>
       </c>
       <c r="R15" s="15">
         <f t="shared" ca="1" si="44"/>
-        <v>10.269306267236551</v>
+        <v>10.967989370750482</v>
       </c>
       <c r="S15" s="15">
         <f ca="1">S14/(RAND()/5+1)</f>
-        <v>14.119281897156871</v>
+        <v>15.391964585986701</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
@@ -7032,31 +6869,31 @@
       </c>
       <c r="C16" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>169.77486308161824</v>
+        <v>167.40860974890762</v>
       </c>
       <c r="D16" s="110">
         <f t="shared" ref="D16:H16" ca="1" si="45">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>179.07204799140666</v>
+        <v>174.54032365394764</v>
       </c>
       <c r="E16" s="110">
         <f t="shared" ca="1" si="45"/>
-        <v>206.97034460800637</v>
+        <v>188.72018459402094</v>
       </c>
       <c r="F16" s="110">
         <f t="shared" ca="1" si="45"/>
-        <v>179.51919575508234</v>
+        <v>176.9837309301777</v>
       </c>
       <c r="G16" s="110">
         <f t="shared" ca="1" si="45"/>
-        <v>169.68396036426722</v>
+        <v>156.03532213368501</v>
       </c>
       <c r="H16" s="110">
         <f t="shared" ca="1" si="45"/>
-        <v>141.46626756720156</v>
+        <v>167.28586488747126</v>
       </c>
       <c r="I16" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>13.466737998096841</v>
+        <v>10.029371309532163</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="5" t="s">
@@ -7064,31 +6901,31 @@
       </c>
       <c r="M16" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>120.60850978002074</v>
+        <v>145.12613695716414</v>
       </c>
       <c r="N16" s="110">
         <f t="shared" ref="N16:R16" ca="1" si="46">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>130.97797192760783</v>
+        <v>132.97119632727646</v>
       </c>
       <c r="O16" s="110">
         <f t="shared" ca="1" si="46"/>
-        <v>171.79073205412502</v>
+        <v>202.38141368639879</v>
       </c>
       <c r="P16" s="110">
         <f t="shared" ca="1" si="46"/>
-        <v>189.25731856324671</v>
+        <v>149.3412199234273</v>
       </c>
       <c r="Q16" s="110">
         <f t="shared" ca="1" si="46"/>
-        <v>191.19205433984948</v>
+        <v>131.37861208227258</v>
       </c>
       <c r="R16" s="110">
         <f t="shared" ca="1" si="46"/>
-        <v>157.62196817043346</v>
+        <v>189.82426670604227</v>
       </c>
       <c r="S16" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>8.8990146019145193</v>
+        <v>6.9812324951638747</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -7100,19 +6937,19 @@
       </c>
       <c r="C17" s="15">
         <f ca="1">C14/(RAND()+2)</f>
-        <v>0.22242669153628419</v>
+        <v>0.19731298711046474</v>
       </c>
       <c r="D17" s="15">
-        <f t="shared" ref="D17:H17" ca="1" si="47">D14/(RAND()+2)</f>
-        <v>0.36693938423692501</v>
+        <f t="shared" ref="D17:F17" ca="1" si="47">D14/(RAND()+2)</f>
+        <v>0.39646204673436181</v>
       </c>
       <c r="E17" s="15">
         <f t="shared" ca="1" si="47"/>
-        <v>0.79192877728317979</v>
+        <v>1.0843796742715643</v>
       </c>
       <c r="F17" s="15">
         <f t="shared" ca="1" si="47"/>
-        <v>1.0501035793854161</v>
+        <v>0.87101066412932082</v>
       </c>
       <c r="G17" s="15">
         <v>0.7</v>
@@ -7159,30 +6996,30 @@
       </c>
       <c r="C18" s="15">
         <f ca="1">C17/(RAND()/5+1.2)</f>
-        <v>0.15924215249151971</v>
+        <v>0.15563802291960752</v>
       </c>
       <c r="D18" s="15">
         <f t="shared" ref="D18" ca="1" si="48">D17/(RAND()/5+1.2)</f>
-        <v>0.26318971789472073</v>
+        <v>0.29612171247037095</v>
       </c>
       <c r="E18" s="15">
         <v>1.5</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" ref="F18" ca="1" si="49">F17/(RAND()/5+1.2)</f>
-        <v>0.77832226496778711</v>
+        <v>0.63866203448813119</v>
       </c>
       <c r="G18" s="15">
         <f t="shared" ref="G18" ca="1" si="50">G17/(RAND()/5+1.2)</f>
-        <v>0.52907042491549316</v>
+        <v>0.57831461586534127</v>
       </c>
       <c r="H18" s="15">
         <f t="shared" ref="H18" ca="1" si="51">H17/(RAND()/5+1.2)</f>
-        <v>1.1099049316488965</v>
+        <v>1.1105201391083599</v>
       </c>
       <c r="I18" s="15">
         <f ca="1">I17/(RAND()/5+1)</f>
-        <v>1.0316307492701984</v>
+        <v>1.0894720263207522</v>
       </c>
       <c r="K18" s="17"/>
       <c r="L18" s="5" t="s">
@@ -7190,31 +7027,31 @@
       </c>
       <c r="M18" s="15">
         <f ca="1">M17/(RAND()/5+1.2)</f>
-        <v>6.7412554703178547</v>
+        <v>6.6865895620437046</v>
       </c>
       <c r="N18" s="15">
         <f t="shared" ref="N18:R18" ca="1" si="52">N17/(RAND()/5+1.2)</f>
-        <v>7.6759806922790572</v>
+        <v>7.5211342258052634</v>
       </c>
       <c r="O18" s="15">
         <f t="shared" ca="1" si="52"/>
-        <v>7.8831931098110486</v>
+        <v>7.327136922482727</v>
       </c>
       <c r="P18" s="15">
         <f t="shared" ca="1" si="52"/>
-        <v>7.7947272952159183</v>
+        <v>7.7564098009016815</v>
       </c>
       <c r="Q18" s="15">
         <f t="shared" ca="1" si="52"/>
-        <v>7.5046084537968483</v>
+        <v>7.6738674842256334</v>
       </c>
       <c r="R18" s="15">
         <f t="shared" ca="1" si="52"/>
-        <v>8.3773731701840699</v>
+        <v>7.870776928468497</v>
       </c>
       <c r="S18" s="15">
         <f ca="1">S17/(RAND()/5+1)</f>
-        <v>12.179257656596718</v>
+        <v>11.855407034032073</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
@@ -7224,31 +7061,31 @@
       </c>
       <c r="C19" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>176.09657626549875</v>
+        <v>188.11224137756031</v>
       </c>
       <c r="D19" s="110">
         <f t="shared" ref="D19:H19" ca="1" si="53">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>141.58456052872344</v>
+        <v>111.69344220619527</v>
       </c>
       <c r="E19" s="110">
         <f t="shared" ca="1" si="53"/>
-        <v>142.75380910748555</v>
+        <v>201.72056354637326</v>
       </c>
       <c r="F19" s="110">
         <f t="shared" ca="1" si="53"/>
-        <v>173.74468102490741</v>
+        <v>192.99196778819564</v>
       </c>
       <c r="G19" s="110">
         <f t="shared" ca="1" si="53"/>
-        <v>152.8218379654821</v>
+        <v>207.63783478065278</v>
       </c>
       <c r="H19" s="110">
         <f t="shared" ca="1" si="53"/>
-        <v>192.71773810413907</v>
+        <v>167.06385612797112</v>
       </c>
       <c r="I19" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>12.578240741477472</v>
+        <v>4.0472079376864434</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="5" t="s">
@@ -7256,31 +7093,31 @@
       </c>
       <c r="M19" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>122.92775985907335</v>
+        <v>186.37690639980681</v>
       </c>
       <c r="N19" s="110">
         <f t="shared" ref="N19:R19" ca="1" si="54">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>132.56112877381793</v>
+        <v>183.19252714210026</v>
       </c>
       <c r="O19" s="110">
         <f t="shared" ca="1" si="54"/>
-        <v>194.19767804194106</v>
+        <v>138.70811037986908</v>
       </c>
       <c r="P19" s="110">
         <f t="shared" ca="1" si="54"/>
-        <v>163.39081516552307</v>
+        <v>177.29945230608027</v>
       </c>
       <c r="Q19" s="110">
         <f t="shared" ca="1" si="54"/>
-        <v>121.80472274592969</v>
+        <v>108.89637034025034</v>
       </c>
       <c r="R19" s="110">
         <f t="shared" ca="1" si="54"/>
-        <v>144.46518165012557</v>
+        <v>155.30194536296329</v>
       </c>
       <c r="S19" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>10.530960335144544</v>
+        <v>4.7170719097634581</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
@@ -7292,27 +7129,27 @@
       </c>
       <c r="C20" s="15">
         <f ca="1">C17/(RAND()+2)</f>
-        <v>8.9088200707441584E-2</v>
+        <v>6.9695741555791876E-2</v>
       </c>
       <c r="D20" s="15">
         <f t="shared" ref="D20:H20" ca="1" si="55">D17/(RAND()+2)</f>
-        <v>0.15527083162667349</v>
+        <v>0.16196093164474668</v>
       </c>
       <c r="E20" s="15">
         <f t="shared" ca="1" si="55"/>
-        <v>0.28622538748455417</v>
+        <v>0.40178346500926326</v>
       </c>
       <c r="F20" s="15">
         <f t="shared" ca="1" si="55"/>
-        <v>0.37332151484788734</v>
+        <v>0.37030188954573129</v>
       </c>
       <c r="G20" s="15">
         <f t="shared" ca="1" si="55"/>
-        <v>0.29629417632875077</v>
+        <v>0.24473862760626591</v>
       </c>
       <c r="H20" s="15">
         <f t="shared" ca="1" si="55"/>
-        <v>0.56540870608257765</v>
+        <v>0.65517118499730609</v>
       </c>
       <c r="I20" s="15">
         <f>0.8</f>
@@ -7353,31 +7190,31 @@
       </c>
       <c r="C21" s="15">
         <f ca="1">C20/(RAND()/5+1.2)</f>
-        <v>6.9465305522690396E-2</v>
+        <v>5.503605260931823E-2</v>
       </c>
       <c r="D21" s="15">
         <f t="shared" ref="D21" ca="1" si="56">D20/(RAND()/5+1.2)</f>
-        <v>0.11757211468742534</v>
+        <v>0.13203369045293606</v>
       </c>
       <c r="E21" s="15">
         <f t="shared" ref="E21" ca="1" si="57">E20/(RAND()/5+1.2)</f>
-        <v>0.20798372356733899</v>
+        <v>0.30094059521261607</v>
       </c>
       <c r="F21" s="15">
         <f t="shared" ref="F21" ca="1" si="58">F20/(RAND()/5+1.2)</f>
-        <v>0.29047445678372635</v>
+        <v>0.28467084644622198</v>
       </c>
       <c r="G21" s="15">
         <f t="shared" ref="G21" ca="1" si="59">G20/(RAND()/5+1.2)</f>
-        <v>0.22470234333360953</v>
+        <v>0.196678120485589</v>
       </c>
       <c r="H21" s="15">
         <f t="shared" ref="H21" ca="1" si="60">H20/(RAND()/5+1.2)</f>
-        <v>0.45258603206273673</v>
+        <v>0.48860075890726784</v>
       </c>
       <c r="I21" s="15">
         <f ca="1">I20/(RAND()/5+1)</f>
-        <v>0.74317322009581632</v>
+        <v>0.79769975758875666</v>
       </c>
       <c r="K21" s="17"/>
       <c r="L21" s="5" t="s">
@@ -7385,31 +7222,31 @@
       </c>
       <c r="M21" s="15">
         <f ca="1">M20/(RAND()/5+1.2)</f>
-        <v>3.487493712627812</v>
+        <v>3.5399969688615567</v>
       </c>
       <c r="N21" s="15">
         <f t="shared" ref="N21:R21" ca="1" si="61">N20/(RAND()/5+1.2)</f>
-        <v>4.9546547970442569</v>
+        <v>4.5027968930175462</v>
       </c>
       <c r="O21" s="15">
         <f t="shared" ca="1" si="61"/>
-        <v>5.7745327718742248</v>
+        <v>5.7180558216837323</v>
       </c>
       <c r="P21" s="15">
         <f t="shared" ca="1" si="61"/>
-        <v>4.6210276910014718</v>
+        <v>4.6317528522977538</v>
       </c>
       <c r="Q21" s="15">
         <f t="shared" ca="1" si="61"/>
-        <v>3.6904713885997484</v>
+        <v>3.850418680169732</v>
       </c>
       <c r="R21" s="15">
         <f t="shared" ca="1" si="61"/>
-        <v>4.6594141234214295</v>
+        <v>4.4207123375106523</v>
       </c>
       <c r="S21" s="15">
         <f ca="1">S20/(RAND()/5+1)</f>
-        <v>7.7825908781740658</v>
+        <v>8.9764760014183036</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
@@ -7419,31 +7256,31 @@
       </c>
       <c r="C22" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>158.22868128238653</v>
+        <v>171.16909681286356</v>
       </c>
       <c r="D22" s="110">
         <f t="shared" ref="D22:H22" ca="1" si="62">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>121.27444378676175</v>
+        <v>107.5560977148747</v>
       </c>
       <c r="E22" s="110">
         <f t="shared" ca="1" si="62"/>
-        <v>208.44792210333682</v>
+        <v>153.20582672859376</v>
       </c>
       <c r="F22" s="110">
         <f t="shared" ca="1" si="62"/>
-        <v>195.11624233383458</v>
+        <v>188.9579731142432</v>
       </c>
       <c r="G22" s="110">
         <f t="shared" ca="1" si="62"/>
-        <v>143.16742416876619</v>
+        <v>173.77397303503517</v>
       </c>
       <c r="H22" s="110">
         <f t="shared" ca="1" si="62"/>
-        <v>119.21533323171386</v>
+        <v>119.89463306883277</v>
       </c>
       <c r="I22" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>10.790487475871236</v>
+        <v>8.2045718576430477</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="5" t="s">
@@ -7451,31 +7288,31 @@
       </c>
       <c r="M22" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>124.94617999748061</v>
+        <v>140.99533060694645</v>
       </c>
       <c r="N22" s="110">
         <f t="shared" ref="N22:R22" ca="1" si="63">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>136.57035502197488</v>
+        <v>119.10766156424579</v>
       </c>
       <c r="O22" s="110">
         <f t="shared" ca="1" si="63"/>
-        <v>195.63468567606245</v>
+        <v>179.59225873427897</v>
       </c>
       <c r="P22" s="110">
         <f t="shared" ca="1" si="63"/>
-        <v>178.70894960381543</v>
+        <v>153.6787403044018</v>
       </c>
       <c r="Q22" s="110">
         <f t="shared" ca="1" si="63"/>
-        <v>196.20643654029871</v>
+        <v>168.15509886264704</v>
       </c>
       <c r="R22" s="110">
         <f t="shared" ca="1" si="63"/>
-        <v>126.5144706223508</v>
+        <v>103.19318425811036</v>
       </c>
       <c r="S22" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>12.257514733780571</v>
+        <v>7.4554318694174659</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -7579,31 +7416,31 @@
       </c>
       <c r="M24" s="15">
         <f ca="1">M23/(RAND()/5+1.2)</f>
-        <v>1.783466861402766</v>
+        <v>1.7441625583839633</v>
       </c>
       <c r="N24" s="15">
         <f t="shared" ref="N24:R24" ca="1" si="70">N23/(RAND()/5+1.2)</f>
-        <v>2.9955477848309284</v>
+        <v>2.5722983059625455</v>
       </c>
       <c r="O24" s="15">
         <f t="shared" ca="1" si="70"/>
-        <v>2.8116931179372862</v>
+        <v>2.7866072559157855</v>
       </c>
       <c r="P24" s="15">
         <f t="shared" ca="1" si="70"/>
-        <v>2.1871703551994508</v>
+        <v>2.173476643992287</v>
       </c>
       <c r="Q24" s="15">
         <f t="shared" ca="1" si="70"/>
-        <v>2.665362658156901</v>
+        <v>2.3957807787413063</v>
       </c>
       <c r="R24" s="15">
         <f t="shared" ca="1" si="70"/>
-        <v>2.8273086217825822</v>
+        <v>3.0584840788186707</v>
       </c>
       <c r="S24" s="15">
         <f ca="1">S23/(RAND()/5+1)</f>
-        <v>5.3917900455689116</v>
+        <v>6.0937209362046039</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -7613,31 +7450,31 @@
       </c>
       <c r="C25" s="110">
         <f ca="1">RAND()</f>
-        <v>0.76403295600181187</v>
+        <v>0.94353700108962857</v>
       </c>
       <c r="D25" s="110">
         <f t="shared" ref="D25:I25" ca="1" si="71">RAND()</f>
-        <v>7.2379142375811667E-2</v>
+        <v>0.7982598877438597</v>
       </c>
       <c r="E25" s="110">
         <f t="shared" ca="1" si="71"/>
-        <v>0.68101955230996458</v>
+        <v>0.60328684181733272</v>
       </c>
       <c r="F25" s="110">
         <f t="shared" ca="1" si="71"/>
-        <v>4.8427870497629977E-2</v>
+        <v>0.25327625823319466</v>
       </c>
       <c r="G25" s="110">
         <f t="shared" ca="1" si="71"/>
-        <v>0.79320422415040048</v>
+        <v>0.45429718300228017</v>
       </c>
       <c r="H25" s="110">
         <f t="shared" ca="1" si="71"/>
-        <v>0.46314355601122847</v>
+        <v>0.87510005181800654</v>
       </c>
       <c r="I25" s="110">
         <f t="shared" ca="1" si="71"/>
-        <v>0.36668343531659409</v>
+        <v>0.77890052144513067</v>
       </c>
       <c r="K25" s="12"/>
       <c r="L25" s="6" t="s">
@@ -7645,31 +7482,31 @@
       </c>
       <c r="M25" s="111">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>147.35698429550393</v>
+        <v>170.8612929058379</v>
       </c>
       <c r="N25" s="111">
         <f t="shared" ref="N25:R25" ca="1" si="72">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>118.07388690004325</v>
+        <v>154.46311607728239</v>
       </c>
       <c r="O25" s="111">
         <f t="shared" ca="1" si="72"/>
-        <v>198.09940771390012</v>
+        <v>113.74734450541899</v>
       </c>
       <c r="P25" s="111">
         <f t="shared" ca="1" si="72"/>
-        <v>158.08557314065754</v>
+        <v>169.56436163309755</v>
       </c>
       <c r="Q25" s="111">
         <f t="shared" ca="1" si="72"/>
-        <v>127.47555346930076</v>
+        <v>183.11652585391519</v>
       </c>
       <c r="R25" s="111">
         <f t="shared" ca="1" si="72"/>
-        <v>152.78621454451238</v>
+        <v>185.59004847440193</v>
       </c>
       <c r="S25" s="111">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>8.8232863244091586</v>
+        <v>7.0582074287394292</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
@@ -7681,31 +7518,31 @@
       </c>
       <c r="C26" s="106">
         <f t="shared" ref="C26" ca="1" si="73">M26/(RAND()+5)</f>
-        <v>1.6822491474576908</v>
+        <v>1.9101089731332475</v>
       </c>
       <c r="D26" s="106">
         <f ca="1">N26/(RAND()+5)</f>
-        <v>1.8461849142680304</v>
+        <v>1.7940038775993812</v>
       </c>
       <c r="E26" s="106">
         <f t="shared" ref="E26" ca="1" si="74">O26/(RAND()+5)</f>
-        <v>1.9254635833235212</v>
+        <v>1.9431607443321031</v>
       </c>
       <c r="F26" s="106">
         <f t="shared" ref="F26" ca="1" si="75">P26/(RAND()+5)</f>
-        <v>2.1369121185757822</v>
+        <v>2.1769288209802613</v>
       </c>
       <c r="G26" s="106">
         <f t="shared" ref="G26" ca="1" si="76">Q26/(RAND()+5)</f>
-        <v>1.8593560077343729</v>
+        <v>2.0657336425933996</v>
       </c>
       <c r="H26" s="106">
         <f t="shared" ref="H26" ca="1" si="77">R26/(RAND()+5)</f>
-        <v>2.295299282338688</v>
+        <v>2.5804933673461901</v>
       </c>
       <c r="I26" s="106">
         <f t="shared" ref="I26" ca="1" si="78">S26/(RAND()+5)</f>
-        <v>3.0176827248737492</v>
+        <v>2.6923952323513567</v>
       </c>
       <c r="K26" s="17" t="s">
         <v>11</v>
@@ -7715,31 +7552,31 @@
       </c>
       <c r="M26" s="15">
         <f ca="1">M14-RAND()/3</f>
-        <v>10.021477652980527</v>
+        <v>10.094415996179654</v>
       </c>
       <c r="N26" s="15">
         <f t="shared" ref="N26:S26" ca="1" si="79">N14-RAND()/3</f>
-        <v>10.597146803941557</v>
+        <v>10.601768020238083</v>
       </c>
       <c r="O26" s="15">
         <f t="shared" ca="1" si="79"/>
-        <v>11.08814575192708</v>
+        <v>11.213073023739772</v>
       </c>
       <c r="P26" s="15">
         <f t="shared" ca="1" si="79"/>
-        <v>11.853558367616779</v>
+        <v>11.824524327366252</v>
       </c>
       <c r="Q26" s="15">
         <f t="shared" ca="1" si="79"/>
-        <v>10.835490589439219</v>
+        <v>10.776694576526689</v>
       </c>
       <c r="R26" s="15">
         <f t="shared" ca="1" si="79"/>
-        <v>13.288203089436809</v>
+        <v>13.003161756311759</v>
       </c>
       <c r="S26" s="15">
         <f t="shared" ca="1" si="79"/>
-        <v>15.607095718234572</v>
+        <v>15.417238204994813</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
@@ -7749,31 +7586,31 @@
       </c>
       <c r="C27" s="15">
         <f ca="1">C26/(RAND()/5+1.2)</f>
-        <v>1.3325424727707325</v>
+        <v>1.5100901247085128</v>
       </c>
       <c r="D27" s="15">
         <f t="shared" ref="D27" ca="1" si="80">D26/(RAND()/5+1.2)</f>
-        <v>1.3501290191510649</v>
+        <v>1.4367658486656574</v>
       </c>
       <c r="E27" s="15">
         <f t="shared" ref="E27" ca="1" si="81">E26/(RAND()/5+1.2)</f>
-        <v>1.3948775391502983</v>
+        <v>1.5332092353411586</v>
       </c>
       <c r="F27" s="15">
         <f t="shared" ref="F27" ca="1" si="82">F26/(RAND()/5+1.2)</f>
-        <v>1.5501842650788638</v>
+        <v>1.7949392866954319</v>
       </c>
       <c r="G27" s="15">
         <f t="shared" ref="G27" ca="1" si="83">G26/(RAND()/5+1.2)</f>
-        <v>1.5393662304668174</v>
+        <v>1.644680811282996</v>
       </c>
       <c r="H27" s="15">
         <f t="shared" ref="H27" ca="1" si="84">H26/(RAND()/5+1.2)</f>
-        <v>1.8098608122800834</v>
+        <v>2.0027214537154339</v>
       </c>
       <c r="I27" s="15">
         <f ca="1">I26/(RAND()/5+1)</f>
-        <v>2.7174795474934696</v>
+        <v>2.2829063441361179</v>
       </c>
       <c r="K27" s="17"/>
       <c r="L27" s="5" t="s">
@@ -7781,31 +7618,31 @@
       </c>
       <c r="M27" s="15">
         <f ca="1">M26/(RAND()/5+1.2)</f>
-        <v>7.2937877445617767</v>
+        <v>7.5412839822125886</v>
       </c>
       <c r="N27" s="15">
         <f t="shared" ref="N27:R27" ca="1" si="85">N26/(RAND()/5+1.2)</f>
-        <v>7.7156161807046422</v>
+        <v>7.6389867157185263</v>
       </c>
       <c r="O27" s="15">
         <f t="shared" ca="1" si="85"/>
-        <v>8.8044235349277891</v>
+        <v>8.1658550783894945</v>
       </c>
       <c r="P27" s="15">
         <f t="shared" ca="1" si="85"/>
-        <v>8.5012790517858523</v>
+        <v>9.6739464340134269</v>
       </c>
       <c r="Q27" s="15">
         <f t="shared" ca="1" si="85"/>
-        <v>8.9285061446107843</v>
+        <v>7.7660097223082412</v>
       </c>
       <c r="R27" s="15">
         <f t="shared" ca="1" si="85"/>
-        <v>9.9142465700584808</v>
+        <v>10.037834568709718</v>
       </c>
       <c r="S27" s="15">
         <f ca="1">S26/(RAND()/5+1)</f>
-        <v>14.148026084197085</v>
+        <v>14.49004020673863</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
@@ -7815,31 +7652,31 @@
       </c>
       <c r="C28" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>174.29944231173454</v>
+        <v>136.6127335123069</v>
       </c>
       <c r="D28" s="110">
         <f t="shared" ref="D28:H28" ca="1" si="86">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>184.18329777439857</v>
+        <v>116.12596912695301</v>
       </c>
       <c r="E28" s="110">
         <f t="shared" ca="1" si="86"/>
-        <v>151.98040364457313</v>
+        <v>129.66927733683889</v>
       </c>
       <c r="F28" s="110">
         <f t="shared" ca="1" si="86"/>
-        <v>150.05871380176237</v>
+        <v>161.44897821237063</v>
       </c>
       <c r="G28" s="110">
         <f t="shared" ca="1" si="86"/>
-        <v>138.05178673167219</v>
+        <v>110.48064088063343</v>
       </c>
       <c r="H28" s="110">
         <f t="shared" ca="1" si="86"/>
-        <v>116.99222337798813</v>
+        <v>119.35048836701957</v>
       </c>
       <c r="I28" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>8.5669098987453065</v>
+        <v>3.5746992194080249</v>
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="5" t="s">
@@ -7847,31 +7684,31 @@
       </c>
       <c r="M28" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>145.99679261348686</v>
+        <v>151.68047998397228</v>
       </c>
       <c r="N28" s="110">
         <f t="shared" ref="N28:R28" ca="1" si="87">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>199.32560860642482</v>
+        <v>120.51912757317523</v>
       </c>
       <c r="O28" s="110">
         <f t="shared" ca="1" si="87"/>
-        <v>188.51704937307187</v>
+        <v>136.94712571206273</v>
       </c>
       <c r="P28" s="110">
         <f t="shared" ca="1" si="87"/>
-        <v>181.69221414573994</v>
+        <v>202.30635077438941</v>
       </c>
       <c r="Q28" s="110">
         <f t="shared" ca="1" si="87"/>
-        <v>181.03691709117089</v>
+        <v>154.32513952707345</v>
       </c>
       <c r="R28" s="110">
         <f t="shared" ca="1" si="87"/>
-        <v>173.67340217968291</v>
+        <v>167.52912274288312</v>
       </c>
       <c r="S28" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>1.3733686046683231</v>
+        <v>9.8940300138621335</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
@@ -7883,31 +7720,31 @@
       </c>
       <c r="C29" s="15">
         <f t="shared" ref="C29" ca="1" si="88">M29/(RAND()+5)</f>
-        <v>1.5624964201288656</v>
+        <v>1.5566412276536745</v>
       </c>
       <c r="D29" s="15">
         <f ca="1">N29/(RAND()+5)</f>
-        <v>1.6147483338610789</v>
+        <v>1.5275479633736293</v>
       </c>
       <c r="E29" s="15">
         <f t="shared" ref="E29" ca="1" si="89">O29/(RAND()+5)</f>
-        <v>1.8222279913966859</v>
+        <v>1.5964444511490654</v>
       </c>
       <c r="F29" s="15">
         <f t="shared" ref="F29" ca="1" si="90">P29/(RAND()+5)</f>
-        <v>2.0089173285385464</v>
+        <v>1.7837938153670998</v>
       </c>
       <c r="G29" s="15">
         <f t="shared" ref="G29" ca="1" si="91">Q29/(RAND()+5)</f>
-        <v>1.699946599660993</v>
+        <v>1.5849521768763768</v>
       </c>
       <c r="H29" s="15">
         <f t="shared" ref="H29" ca="1" si="92">R29/(RAND()+5)</f>
-        <v>1.8314698295252798</v>
+        <v>2.1141061245719199</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" ref="I29" ca="1" si="93">S29/(RAND()+5)</f>
-        <v>2.4144420407633476</v>
+        <v>2.2336035568048604</v>
       </c>
       <c r="K29" s="17" t="s">
         <v>12</v>
@@ -7917,31 +7754,31 @@
       </c>
       <c r="M29" s="15">
         <f ca="1">M17-RAND()/3</f>
-        <v>8.2758382686447529</v>
+        <v>8.303485932902273</v>
       </c>
       <c r="N29" s="15">
         <f t="shared" ref="N29:S29" ca="1" si="94">N17-RAND()/3</f>
-        <v>9.0318641196977687</v>
+        <v>9.0306083983070042</v>
       </c>
       <c r="O29" s="15">
         <f t="shared" ca="1" si="94"/>
-        <v>9.4701682798205677</v>
+        <v>9.5196512878084096</v>
       </c>
       <c r="P29" s="15">
         <f t="shared" ca="1" si="94"/>
-        <v>10.156256815842175</v>
+        <v>9.9294293332438279</v>
       </c>
       <c r="Q29" s="15">
         <f t="shared" ca="1" si="94"/>
-        <v>9.1529826854782907</v>
+        <v>9.3998978890629452</v>
       </c>
       <c r="R29" s="15">
         <f t="shared" ca="1" si="94"/>
-        <v>10.695047188372676</v>
+        <v>10.763305787909394</v>
       </c>
       <c r="S29" s="15">
         <f t="shared" ca="1" si="94"/>
-        <v>13.251568839187748</v>
+        <v>13.255459345421656</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
@@ -7951,31 +7788,31 @@
       </c>
       <c r="C30" s="15">
         <f ca="1">C29/(RAND()/5+1.2)</f>
-        <v>1.1238511785046301</v>
+        <v>1.1339756140956374</v>
       </c>
       <c r="D30" s="15">
         <f t="shared" ref="D30" ca="1" si="95">D29/(RAND()/5+1.2)</f>
-        <v>1.3428090665152146</v>
+        <v>1.1194025233129996</v>
       </c>
       <c r="E30" s="15">
         <f t="shared" ref="E30" ca="1" si="96">E29/(RAND()/5+1.2)</f>
-        <v>1.4478272915163963</v>
+        <v>1.246225882336738</v>
       </c>
       <c r="F30" s="15">
         <f t="shared" ref="F30" ca="1" si="97">F29/(RAND()/5+1.2)</f>
-        <v>1.5591054148406958</v>
+        <v>1.4042068093268685</v>
       </c>
       <c r="G30" s="15">
         <f t="shared" ref="G30" ca="1" si="98">G29/(RAND()/5+1.2)</f>
-        <v>1.247464586933257</v>
+        <v>1.1704970173886222</v>
       </c>
       <c r="H30" s="15">
         <f t="shared" ref="H30" ca="1" si="99">H29/(RAND()/5+1.2)</f>
-        <v>1.3458192169642127</v>
+        <v>1.6681737030240158</v>
       </c>
       <c r="I30" s="15">
         <f ca="1">I29/(RAND()/5+1)</f>
-        <v>2.3909753308946122</v>
+        <v>1.8748733496159684</v>
       </c>
       <c r="K30" s="17"/>
       <c r="L30" s="5" t="s">
@@ -7983,31 +7820,31 @@
       </c>
       <c r="M30" s="15">
         <f ca="1">M29/(RAND()/5+1.2)</f>
-        <v>6.5611678216877403</v>
+        <v>6.6997625894454416</v>
       </c>
       <c r="N30" s="15">
         <f t="shared" ref="N30:R30" ca="1" si="100">N29/(RAND()/5+1.2)</f>
-        <v>7.4278119635409006</v>
+        <v>7.4654611825127812</v>
       </c>
       <c r="O30" s="15">
         <f t="shared" ca="1" si="100"/>
-        <v>6.9391301846830604</v>
+        <v>7.5884469829144958</v>
       </c>
       <c r="P30" s="15">
         <f t="shared" ca="1" si="100"/>
-        <v>7.3150894847929306</v>
+        <v>8.223249039945399</v>
       </c>
       <c r="Q30" s="15">
         <f t="shared" ca="1" si="100"/>
-        <v>7.3748126932116023</v>
+        <v>6.7354207457130482</v>
       </c>
       <c r="R30" s="15">
         <f t="shared" ca="1" si="100"/>
-        <v>7.8932263691301712</v>
+        <v>8.243591256840725</v>
       </c>
       <c r="S30" s="15">
         <f ca="1">S29/(RAND()/5+1)</f>
-        <v>13.147904797821022</v>
+        <v>11.866496740408085</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -8017,31 +7854,31 @@
       </c>
       <c r="C31" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>162.93623203620987</v>
+        <v>154.44904074637122</v>
       </c>
       <c r="D31" s="110">
         <f t="shared" ref="D31:H31" ca="1" si="101">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>120.75685399095811</v>
+        <v>161.39585308541223</v>
       </c>
       <c r="E31" s="110">
         <f t="shared" ca="1" si="101"/>
-        <v>168.95143538238932</v>
+        <v>143.90901849277972</v>
       </c>
       <c r="F31" s="110">
         <f t="shared" ca="1" si="101"/>
-        <v>160.95743412650262</v>
+        <v>131.25289685732886</v>
       </c>
       <c r="G31" s="110">
         <f t="shared" ca="1" si="101"/>
-        <v>142.56952890052023</v>
+        <v>198.95895283156423</v>
       </c>
       <c r="H31" s="110">
         <f t="shared" ca="1" si="101"/>
-        <v>169.46192020776812</v>
+        <v>108.96469383135937</v>
       </c>
       <c r="I31" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>3.9751862977623373</v>
+        <v>6.4481348260182507</v>
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="5" t="s">
@@ -8049,31 +7886,31 @@
       </c>
       <c r="M31" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>168.12623886081803</v>
+        <v>126.43182166546742</v>
       </c>
       <c r="N31" s="110">
         <f t="shared" ref="N31:R31" ca="1" si="102">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>202.13222866754123</v>
+        <v>155.30488786347033</v>
       </c>
       <c r="O31" s="110">
         <f t="shared" ca="1" si="102"/>
-        <v>164.28657405534423</v>
+        <v>114.65770973212689</v>
       </c>
       <c r="P31" s="110">
         <f t="shared" ca="1" si="102"/>
-        <v>165.01002957988479</v>
+        <v>104.98721984838244</v>
       </c>
       <c r="Q31" s="110">
         <f t="shared" ca="1" si="102"/>
-        <v>140.6931529109192</v>
+        <v>113.80265454165385</v>
       </c>
       <c r="R31" s="110">
         <f t="shared" ca="1" si="102"/>
-        <v>132.3994083513544</v>
+        <v>182.6751015615676</v>
       </c>
       <c r="S31" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>12.25498557889941</v>
+        <v>8.3477961186134806</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
@@ -8085,31 +7922,31 @@
       </c>
       <c r="C32" s="15">
         <f t="shared" ref="C32" ca="1" si="103">M32/(RAND()+5)</f>
-        <v>0.90216355643031698</v>
+        <v>0.93765959621042594</v>
       </c>
       <c r="D32" s="15">
         <f ca="1">N32/(RAND()+5)</f>
-        <v>1.1523175989396313</v>
+        <v>1.034904316308223</v>
       </c>
       <c r="E32" s="15">
         <f t="shared" ref="E32" ca="1" si="104">O32/(RAND()+5)</f>
-        <v>1.3386489873526883</v>
+        <v>1.3114494060438058</v>
       </c>
       <c r="F32" s="15">
         <f t="shared" ref="F32" ca="1" si="105">P32/(RAND()+5)</f>
-        <v>0.99940065852403182</v>
+        <v>0.89033843303012006</v>
       </c>
       <c r="G32" s="15">
         <f t="shared" ref="G32" ca="1" si="106">Q32/(RAND()+5)</f>
-        <v>0.86053337648486139</v>
+        <v>0.8983532625941455</v>
       </c>
       <c r="H32" s="15">
         <f t="shared" ref="H32" ca="1" si="107">R32/(RAND()+5)</f>
-        <v>1.0988094590929676</v>
+        <v>0.98455750308033319</v>
       </c>
       <c r="I32" s="15">
         <f t="shared" ref="I32" ca="1" si="108">S32/(RAND()+5)</f>
-        <v>1.7391097417897066</v>
+        <v>1.6972844095550141</v>
       </c>
       <c r="K32" s="17" t="s">
         <v>13</v>
@@ -8119,31 +7956,31 @@
       </c>
       <c r="M32" s="15">
         <f ca="1">M20-RAND()/3</f>
-        <v>4.549983393630713</v>
+        <v>4.6998547088344473</v>
       </c>
       <c r="N32" s="15">
         <f t="shared" ref="N32:S32" ca="1" si="109">N20-RAND()/3</f>
-        <v>6.1524196232089654</v>
+        <v>5.8926978807036177</v>
       </c>
       <c r="O32" s="15">
         <f t="shared" ca="1" si="109"/>
-        <v>7.1511962325231213</v>
+        <v>7.0067103120219976</v>
       </c>
       <c r="P32" s="15">
         <f t="shared" ca="1" si="109"/>
-        <v>5.388161533939817</v>
+        <v>5.2812209356185607</v>
       </c>
       <c r="Q32" s="15">
         <f t="shared" ca="1" si="109"/>
-        <v>5.0150860162023339</v>
+        <v>4.9097257926833198</v>
       </c>
       <c r="R32" s="15">
         <f t="shared" ca="1" si="109"/>
-        <v>5.514190242167019</v>
+        <v>5.4896413428317103</v>
       </c>
       <c r="S32" s="15">
         <f t="shared" ca="1" si="109"/>
-        <v>9.0523555502431723</v>
+        <v>9.0551125095382776</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
@@ -8153,31 +7990,31 @@
       </c>
       <c r="C33" s="15">
         <f ca="1">C32/(RAND()/5+1.2)</f>
-        <v>0.71452128062482556</v>
+        <v>0.69899390366327341</v>
       </c>
       <c r="D33" s="15">
         <f t="shared" ref="D33" ca="1" si="110">D32/(RAND()/5+1.2)</f>
-        <v>0.85602415170690482</v>
+        <v>0.75419210132302528</v>
       </c>
       <c r="E33" s="15">
         <f t="shared" ref="E33" ca="1" si="111">E32/(RAND()/5+1.2)</f>
-        <v>0.98157776736416436</v>
+        <v>0.96978756302239655</v>
       </c>
       <c r="F33" s="15">
         <f t="shared" ref="F33" ca="1" si="112">F32/(RAND()/5+1.2)</f>
-        <v>0.80632725571486397</v>
+        <v>0.70699627472907722</v>
       </c>
       <c r="G33" s="15">
         <f t="shared" ref="G33" ca="1" si="113">G32/(RAND()/5+1.2)</f>
-        <v>0.67868593381746845</v>
+        <v>0.64770972855181919</v>
       </c>
       <c r="H33" s="15">
         <f t="shared" ref="H33" ca="1" si="114">H32/(RAND()/5+1.2)</f>
-        <v>0.90400958915964658</v>
+        <v>0.77060629012442661</v>
       </c>
       <c r="I33" s="15">
         <f ca="1">I32/(RAND()/5+1)</f>
-        <v>1.7385293009523113</v>
+        <v>1.4228032310178982</v>
       </c>
       <c r="K33" s="17"/>
       <c r="L33" s="5" t="s">
@@ -8185,31 +8022,31 @@
       </c>
       <c r="M33" s="15">
         <f ca="1">M32/(RAND()/5+1.2)</f>
-        <v>3.6435936097985091</v>
+        <v>3.8672614722095804</v>
       </c>
       <c r="N33" s="15">
         <f t="shared" ref="N33:R33" ca="1" si="115">N32/(RAND()/5+1.2)</f>
-        <v>4.4845520043639535</v>
+        <v>4.3733643624366874</v>
       </c>
       <c r="O33" s="15">
         <f t="shared" ca="1" si="115"/>
-        <v>5.7678749062359369</v>
+        <v>5.654482122803004</v>
       </c>
       <c r="P33" s="15">
         <f t="shared" ca="1" si="115"/>
-        <v>4.3384591944205413</v>
+        <v>4.3284595101275016</v>
       </c>
       <c r="Q33" s="15">
         <f t="shared" ca="1" si="115"/>
-        <v>3.8625983540551068</v>
+        <v>3.9521454830748981</v>
       </c>
       <c r="R33" s="15">
         <f t="shared" ca="1" si="115"/>
-        <v>4.1750978284109417</v>
+        <v>4.5078153403451289</v>
       </c>
       <c r="S33" s="15">
         <f ca="1">S32/(RAND()/5+1)</f>
-        <v>8.2171925769104277</v>
+        <v>8.2604949900836839</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
@@ -8219,31 +8056,31 @@
       </c>
       <c r="C34" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>173.31267359961615</v>
+        <v>162.92957059964192</v>
       </c>
       <c r="D34" s="110">
         <f t="shared" ref="D34:H34" ca="1" si="116">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>177.86158008515883</v>
+        <v>113.06300739152991</v>
       </c>
       <c r="E34" s="110">
         <f t="shared" ca="1" si="116"/>
-        <v>173.27685643613938</v>
+        <v>108.73721027891345</v>
       </c>
       <c r="F34" s="110">
         <f t="shared" ca="1" si="116"/>
-        <v>129.25904835893851</v>
+        <v>129.31496522529605</v>
       </c>
       <c r="G34" s="110">
         <f t="shared" ca="1" si="116"/>
-        <v>208.18232736756065</v>
+        <v>167.05447241796796</v>
       </c>
       <c r="H34" s="110">
         <f t="shared" ca="1" si="116"/>
-        <v>198.55724815865946</v>
+        <v>197.64018976067314</v>
       </c>
       <c r="I34" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>4.0948899999541855</v>
+        <v>5.7451859949446877</v>
       </c>
       <c r="K34" s="11"/>
       <c r="L34" s="5" t="s">
@@ -8251,31 +8088,31 @@
       </c>
       <c r="M34" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>126.26835032204308</v>
+        <v>146.64871827263983</v>
       </c>
       <c r="N34" s="110">
         <f t="shared" ref="N34:R34" ca="1" si="117">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>176.77991090753528</v>
+        <v>119.65172794370855</v>
       </c>
       <c r="O34" s="110">
         <f t="shared" ca="1" si="117"/>
-        <v>177.6874753130781</v>
+        <v>165.9920498053861</v>
       </c>
       <c r="P34" s="110">
         <f t="shared" ca="1" si="117"/>
-        <v>197.37675483689117</v>
+        <v>175.68811961427329</v>
       </c>
       <c r="Q34" s="110">
         <f t="shared" ca="1" si="117"/>
-        <v>183.11152325073255</v>
+        <v>104.97837126576795</v>
       </c>
       <c r="R34" s="110">
         <f t="shared" ca="1" si="117"/>
-        <v>199.69093306714501</v>
+        <v>200.66945345678886</v>
       </c>
       <c r="S34" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>9.6488055799826284</v>
+        <v>5.1871304476186211</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -8287,31 +8124,31 @@
       </c>
       <c r="C35" s="15">
         <f t="shared" ref="C35" ca="1" si="118">M35/(RAND()+5)</f>
-        <v>0.38353440855113174</v>
+        <v>0.40974770043939651</v>
       </c>
       <c r="D35" s="15">
         <f ca="1">N35/(RAND()+5)</f>
-        <v>0.66256763531651952</v>
+        <v>0.63604553809223663</v>
       </c>
       <c r="E35" s="15">
         <f t="shared" ref="E35" ca="1" si="119">O35/(RAND()+5)</f>
-        <v>0.67739429905784876</v>
+        <v>0.62294013499111878</v>
       </c>
       <c r="F35" s="15">
         <f t="shared" ref="F35" ca="1" si="120">P35/(RAND()+5)</f>
-        <v>0.4496770824881402</v>
+        <v>0.47893695130958325</v>
       </c>
       <c r="G35" s="15">
         <f t="shared" ref="G35" ca="1" si="121">Q35/(RAND()+5)</f>
-        <v>0.51192709052657692</v>
+        <v>0.53451232584484221</v>
       </c>
       <c r="H35" s="15">
         <f t="shared" ref="H35" ca="1" si="122">R35/(RAND()+5)</f>
-        <v>0.63190267735512518</v>
+        <v>0.59665071960825478</v>
       </c>
       <c r="I35" s="15">
         <f t="shared" ref="I35" ca="1" si="123">S35/(RAND()+5)</f>
-        <v>1.1689448761806567</v>
+        <v>1.1542341653473194</v>
       </c>
       <c r="K35" s="17" t="s">
         <v>49</v>
@@ -8321,31 +8158,31 @@
       </c>
       <c r="M35" s="15">
         <f ca="1">M23-RAND()/3</f>
-        <v>2.2556066657621106</v>
+        <v>2.2365022298536275</v>
       </c>
       <c r="N35" s="15">
         <f t="shared" ref="N35:S35" ca="1" si="124">N23-RAND()/3</f>
-        <v>3.5871781570762229</v>
+        <v>3.3876999520341782</v>
       </c>
       <c r="O35" s="15">
         <f t="shared" ca="1" si="124"/>
-        <v>3.621147392593878</v>
+        <v>3.6765773053715147</v>
       </c>
       <c r="P35" s="15">
         <f t="shared" ca="1" si="124"/>
-        <v>2.5657164262416994</v>
+        <v>2.771909076825005</v>
       </c>
       <c r="Q35" s="15">
         <f t="shared" ca="1" si="124"/>
-        <v>2.8942289698036743</v>
+        <v>2.8698274857000801</v>
       </c>
       <c r="R35" s="15">
         <f t="shared" ca="1" si="124"/>
-        <v>3.5808178270596485</v>
+        <v>3.4072683055026709</v>
       </c>
       <c r="S35" s="15">
         <f t="shared" ca="1" si="124"/>
-        <v>5.9125266657142568</v>
+        <v>5.9847487524099074</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
@@ -8355,31 +8192,31 @@
       </c>
       <c r="C36" s="15">
         <f ca="1">C35/(RAND()/5+1.2)</f>
-        <v>0.29455955806890383</v>
+        <v>0.32527704865992341</v>
       </c>
       <c r="D36" s="15">
         <f t="shared" ref="D36" ca="1" si="125">D35/(RAND()/5+1.2)</f>
-        <v>0.4937307459318746</v>
+        <v>0.52945645260227603</v>
       </c>
       <c r="E36" s="15">
         <f t="shared" ref="E36" ca="1" si="126">E35/(RAND()/5+1.2)</f>
-        <v>0.52716140770015096</v>
+        <v>0.47825124477259046</v>
       </c>
       <c r="F36" s="15">
         <f t="shared" ref="F36" ca="1" si="127">F35/(RAND()/5+1.2)</f>
-        <v>0.35348656854729493</v>
+        <v>0.34763604119625507</v>
       </c>
       <c r="G36" s="15">
         <f t="shared" ref="G36" ca="1" si="128">G35/(RAND()/5+1.2)</f>
-        <v>0.38439495258009987</v>
+        <v>0.38593073896374774</v>
       </c>
       <c r="H36" s="15">
         <f t="shared" ref="H36" ca="1" si="129">H35/(RAND()/5+1.2)</f>
-        <v>0.51052310538245615</v>
+        <v>0.47963191393245697</v>
       </c>
       <c r="I36" s="15">
         <f ca="1">I35/(RAND()/5+1)</f>
-        <v>1.1464549353382296</v>
+        <v>1.1352219631226608</v>
       </c>
       <c r="K36" s="17"/>
       <c r="L36" s="5" t="s">
@@ -8387,31 +8224,31 @@
       </c>
       <c r="M36" s="15">
         <f ca="1">M35/(RAND()/5+1.2)</f>
-        <v>1.6243401428278152</v>
+        <v>1.8634099146751637</v>
       </c>
       <c r="N36" s="15">
         <f t="shared" ref="N36:R36" ca="1" si="130">N35/(RAND()/5+1.2)</f>
-        <v>2.9288525635922271</v>
+        <v>2.6656944721658768</v>
       </c>
       <c r="O36" s="15">
         <f t="shared" ca="1" si="130"/>
-        <v>2.705158914126812</v>
+        <v>2.9743205920132803</v>
       </c>
       <c r="P36" s="15">
         <f t="shared" ca="1" si="130"/>
-        <v>2.0163449043632475</v>
+        <v>2.0015986582212748</v>
       </c>
       <c r="Q36" s="15">
         <f t="shared" ca="1" si="130"/>
-        <v>2.2164251356556144</v>
+        <v>2.2623077107591398</v>
       </c>
       <c r="R36" s="15">
         <f t="shared" ca="1" si="130"/>
-        <v>2.7617405533579018</v>
+        <v>2.7996200789144097</v>
       </c>
       <c r="S36" s="15">
         <f ca="1">S35/(RAND()/5+1)</f>
-        <v>5.2977934448603738</v>
+        <v>5.6124390296492956</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
@@ -8421,31 +8258,31 @@
       </c>
       <c r="C37" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>149.32229265587884</v>
+        <v>178.61691787608416</v>
       </c>
       <c r="D37" s="110">
         <f t="shared" ref="D37:H37" ca="1" si="131">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>172.06130378023724</v>
+        <v>159.89287769214795</v>
       </c>
       <c r="E37" s="110">
         <f t="shared" ca="1" si="131"/>
-        <v>177.85227215989997</v>
+        <v>184.41078210967757</v>
       </c>
       <c r="F37" s="110">
         <f t="shared" ca="1" si="131"/>
-        <v>171.38227633581198</v>
+        <v>139.09680399364478</v>
       </c>
       <c r="G37" s="110">
         <f t="shared" ca="1" si="131"/>
-        <v>108.7018546146906</v>
+        <v>131.57685641633321</v>
       </c>
       <c r="H37" s="110">
         <f t="shared" ca="1" si="131"/>
-        <v>121.98497033985262</v>
+        <v>138.64449146991134</v>
       </c>
       <c r="I37" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>5.4372424928647352</v>
+        <v>4.5085565853040466</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="5" t="s">
@@ -8453,31 +8290,31 @@
       </c>
       <c r="M37" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>129.46667674585899</v>
+        <v>165.41528942704599</v>
       </c>
       <c r="N37" s="110">
         <f t="shared" ref="N37:R37" ca="1" si="132">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>166.92796723197705</v>
+        <v>188.69329723181443</v>
       </c>
       <c r="O37" s="110">
         <f t="shared" ca="1" si="132"/>
-        <v>182.5900414725339</v>
+        <v>176.39764702591413</v>
       </c>
       <c r="P37" s="110">
         <f t="shared" ca="1" si="132"/>
-        <v>134.14298875582389</v>
+        <v>206.76162902620666</v>
       </c>
       <c r="Q37" s="110">
         <f t="shared" ca="1" si="132"/>
-        <v>132.5770170290059</v>
+        <v>206.57229719302617</v>
       </c>
       <c r="R37" s="110">
         <f t="shared" ca="1" si="132"/>
-        <v>196.51598593969311</v>
+        <v>113.93374781645592</v>
       </c>
       <c r="S37" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>9.2247060332734367</v>
+        <v>8.4947379364054907</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -8489,31 +8326,31 @@
       </c>
       <c r="C38" s="15">
         <f t="shared" ref="C38" ca="1" si="133">M38/(RAND()+5)</f>
-        <v>0.31720702710473297</v>
+        <v>0.32110097902428109</v>
       </c>
       <c r="D38" s="15">
         <f ca="1">N38/(RAND()+5)</f>
-        <v>0.57882367541417168</v>
+        <v>0.51993080524171853</v>
       </c>
       <c r="E38" s="15">
         <f t="shared" ref="E38" ca="1" si="134">O38/(RAND()+5)</f>
-        <v>0.52293219163419447</v>
+        <v>0.66520879309047642</v>
       </c>
       <c r="F38" s="15">
         <f t="shared" ref="F38" ca="1" si="135">P38/(RAND()+5)</f>
-        <v>0.37161990546800516</v>
+        <v>0.38385714693083139</v>
       </c>
       <c r="G38" s="15">
         <f t="shared" ref="G38" ca="1" si="136">Q38/(RAND()+5)</f>
-        <v>0.43927930382751557</v>
+        <v>0.39331200547057088</v>
       </c>
       <c r="H38" s="15">
         <f t="shared" ref="H38" ca="1" si="137">R38/(RAND()+5)</f>
-        <v>0.576952314807059</v>
+        <v>0.5024860393135766</v>
       </c>
       <c r="I38" s="15">
         <f t="shared" ref="I38" ca="1" si="138">S38/(RAND()+5)</f>
-        <v>0.78321149511480237</v>
+        <v>1.0485528462697171</v>
       </c>
       <c r="K38" s="17" t="s">
         <v>50</v>
@@ -8523,31 +8360,31 @@
       </c>
       <c r="M38" s="15">
         <f ca="1">M35/(RAND()/3+1)</f>
-        <v>1.8596370182185233</v>
+        <v>1.8124258752548914</v>
       </c>
       <c r="N38" s="15">
         <f t="shared" ref="N38:S38" ca="1" si="139">N35/(RAND()/3+1)</f>
-        <v>3.3274292999736916</v>
+        <v>3.112127706647263</v>
       </c>
       <c r="O38" s="15">
         <f t="shared" ca="1" si="139"/>
-        <v>2.7512037310026156</v>
+        <v>3.3618557515146801</v>
       </c>
       <c r="P38" s="15">
         <f t="shared" ca="1" si="139"/>
-        <v>2.1347002855901116</v>
+        <v>2.1700578980417564</v>
       </c>
       <c r="Q38" s="15">
         <f t="shared" ca="1" si="139"/>
-        <v>2.3447410840026666</v>
+        <v>2.2969251808383251</v>
       </c>
       <c r="R38" s="15">
         <f t="shared" ca="1" si="139"/>
-        <v>3.4202142569666307</v>
+        <v>2.776121356076136</v>
       </c>
       <c r="S38" s="15">
         <f t="shared" ca="1" si="139"/>
-        <v>4.570664755411487</v>
+        <v>5.6557532142324991</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
@@ -8557,31 +8394,31 @@
       </c>
       <c r="C39" s="15">
         <f ca="1">C38/(RAND()/5+1.2)</f>
-        <v>0.23488239427924049</v>
+        <v>0.24798182662918092</v>
       </c>
       <c r="D39" s="15">
         <f t="shared" ref="D39" ca="1" si="140">D38/(RAND()/5+1.2)</f>
-        <v>0.43303003754372793</v>
+        <v>0.41633180476567266</v>
       </c>
       <c r="E39" s="15">
         <f t="shared" ref="E39" ca="1" si="141">E38/(RAND()/5+1.2)</f>
-        <v>0.38362916047004514</v>
+        <v>0.50106554580162033</v>
       </c>
       <c r="F39" s="15">
         <f t="shared" ref="F39" ca="1" si="142">F38/(RAND()/5+1.2)</f>
-        <v>0.27192468470336961</v>
+        <v>0.28657126687144224</v>
       </c>
       <c r="G39" s="15">
         <f t="shared" ref="G39" ca="1" si="143">G38/(RAND()/5+1.2)</f>
-        <v>0.32916246288204376</v>
+        <v>0.30030141073499139</v>
       </c>
       <c r="H39" s="15">
         <f t="shared" ref="H39" ca="1" si="144">H38/(RAND()/5+1.2)</f>
-        <v>0.41294234687959935</v>
+        <v>0.37057942712120806</v>
       </c>
       <c r="I39" s="15">
         <f ca="1">I38/(RAND()/5+1)</f>
-        <v>0.71472346147096022</v>
+        <v>0.89850156454879593</v>
       </c>
       <c r="K39" s="17"/>
       <c r="L39" s="5" t="s">
@@ -8589,31 +8426,31 @@
       </c>
       <c r="M39" s="15">
         <f ca="1">M38/(RAND()/5+1.2)</f>
-        <v>1.5223264716596225</v>
+        <v>1.3960466905279911</v>
       </c>
       <c r="N39" s="15">
         <f t="shared" ref="N39:R39" ca="1" si="145">N38/(RAND()/5+1.2)</f>
-        <v>2.7541714724020618</v>
+        <v>2.3503310965028228</v>
       </c>
       <c r="O39" s="15">
         <f t="shared" ca="1" si="145"/>
-        <v>2.0538198745317597</v>
+        <v>2.7344517583264731</v>
       </c>
       <c r="P39" s="15">
         <f t="shared" ca="1" si="145"/>
-        <v>1.5396083951839699</v>
+        <v>1.6022503949993787</v>
       </c>
       <c r="Q39" s="15">
         <f t="shared" ca="1" si="145"/>
-        <v>1.7291391577270039</v>
+        <v>1.669243786748646</v>
       </c>
       <c r="R39" s="15">
         <f t="shared" ca="1" si="145"/>
-        <v>2.6752425821131172</v>
+        <v>2.2950884182217819</v>
       </c>
       <c r="S39" s="15">
         <f ca="1">S38/(RAND()/5+1)</f>
-        <v>4.5572055414083543</v>
+        <v>4.7578405273874935</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
@@ -8623,31 +8460,31 @@
       </c>
       <c r="C40" s="111">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>161.27216475302089</v>
+        <v>121.53964468284862</v>
       </c>
       <c r="D40" s="111">
         <f t="shared" ref="D40:H40" ca="1" si="146">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>169.58237552407317</v>
+        <v>204.33020137933715</v>
       </c>
       <c r="E40" s="111">
         <f t="shared" ca="1" si="146"/>
-        <v>135.25613360339014</v>
+        <v>162.83828816362234</v>
       </c>
       <c r="F40" s="111">
         <f t="shared" ca="1" si="146"/>
-        <v>165.56026824070827</v>
+        <v>180.00884585231674</v>
       </c>
       <c r="G40" s="111">
         <f t="shared" ca="1" si="146"/>
-        <v>163.87560557990517</v>
+        <v>132.2503020539246</v>
       </c>
       <c r="H40" s="111">
         <f t="shared" ca="1" si="146"/>
-        <v>178.89827032360171</v>
+        <v>172.37522087828697</v>
       </c>
       <c r="I40" s="111">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>3.4303234557624767</v>
+        <v>13.11187857752399</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="6" t="s">
@@ -8655,31 +8492,31 @@
       </c>
       <c r="M40" s="111">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>126.59960241782321</v>
+        <v>104.43835618840613</v>
       </c>
       <c r="N40" s="111">
         <f t="shared" ref="N40:R40" ca="1" si="147">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>208.11915776099494</v>
+        <v>118.4740400615668</v>
       </c>
       <c r="O40" s="111">
         <f t="shared" ca="1" si="147"/>
-        <v>113.98015667232282</v>
+        <v>173.47463201574382</v>
       </c>
       <c r="P40" s="111">
         <f t="shared" ca="1" si="147"/>
-        <v>168.63337198797976</v>
+        <v>116.80325206219096</v>
       </c>
       <c r="Q40" s="111">
         <f t="shared" ca="1" si="147"/>
-        <v>104.15622039896658</v>
+        <v>150.58948725749394</v>
       </c>
       <c r="R40" s="111">
         <f t="shared" ca="1" si="147"/>
-        <v>193.72897474556729</v>
+        <v>143.86755463555792</v>
       </c>
       <c r="S40" s="111">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>10.23941751986491</v>
+        <v>8.0979435485021458</v>
       </c>
     </row>
   </sheetData>
@@ -9453,31 +9290,31 @@
       </c>
       <c r="C3" s="15">
         <f ca="1">C2/(RAND()/5+1.2)</f>
-        <v>11.231535913081283</v>
+        <v>10.699646559682527</v>
       </c>
       <c r="D3" s="15">
         <f t="shared" ref="D3" ca="1" si="0">D2/(RAND()/5+1.2)</f>
-        <v>15.044435034778312</v>
+        <v>14.924955162491363</v>
       </c>
       <c r="E3" s="15">
         <f ca="1">E2/(RAND()/3+1.2)</f>
-        <v>12.50694093556945</v>
+        <v>11.571511666397974</v>
       </c>
       <c r="F3" s="15">
         <f t="shared" ref="F3" ca="1" si="1">F2/(RAND()/5+1.2)</f>
-        <v>13.092191955610042</v>
+        <v>13.225173737486706</v>
       </c>
       <c r="G3" s="15">
         <f t="shared" ref="G3" ca="1" si="2">G2/(RAND()/5+1.2)</f>
-        <v>15.076036250848691</v>
+        <v>14.341459945850316</v>
       </c>
       <c r="H3" s="15">
         <f t="shared" ref="H3" ca="1" si="3">H2/(RAND()/5+1.2)</f>
-        <v>17.313124748996717</v>
+        <v>17.259268858713906</v>
       </c>
       <c r="I3" s="15">
         <f ca="1">I2/(RAND()/5+1)</f>
-        <v>18.822424814029741</v>
+        <v>17.891386696516864</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -9487,31 +9324,31 @@
       </c>
       <c r="C4" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>121.6495907228131</v>
+        <v>154.99412728039488</v>
       </c>
       <c r="D4" s="110">
         <f t="shared" ref="D4:H4" ca="1" si="4">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>190.57865072619961</v>
+        <v>149.31544922550918</v>
       </c>
       <c r="E4" s="110">
         <f t="shared" ca="1" si="4"/>
-        <v>159.54681645707464</v>
+        <v>191.91985940394503</v>
       </c>
       <c r="F4" s="110">
         <f t="shared" ca="1" si="4"/>
-        <v>198.84330922172919</v>
+        <v>199.27979320486739</v>
       </c>
       <c r="G4" s="110">
         <f t="shared" ca="1" si="4"/>
-        <v>106.45616403295755</v>
+        <v>188.826732893128</v>
       </c>
       <c r="H4" s="110">
         <f t="shared" ca="1" si="4"/>
-        <v>170.30077547746501</v>
+        <v>145.24010380301959</v>
       </c>
       <c r="I4" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>7.7952686847706705</v>
+        <v>8.6540221645844877</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -9550,31 +9387,31 @@
       </c>
       <c r="C6" s="15">
         <f ca="1">C5/(RAND()/5+1.2)</f>
-        <v>5.5383462467569604</v>
+        <v>6.0046568660015174</v>
       </c>
       <c r="D6" s="15">
         <f t="shared" ref="D6" ca="1" si="5">D5/(RAND()/5+1.2)</f>
-        <v>8.4990163309226237</v>
+        <v>8.201526975450669</v>
       </c>
       <c r="E6" s="15">
         <f ca="1">E5/(RAND()/3+1.2)</f>
-        <v>7.3384933604546605</v>
+        <v>7.5593432288483875</v>
       </c>
       <c r="F6" s="15">
         <f t="shared" ref="F6" ca="1" si="6">F5/(RAND()/5+1.2)</f>
-        <v>6.3713316294420483</v>
+        <v>6.1621537580674435</v>
       </c>
       <c r="G6" s="15">
         <f t="shared" ref="G6" ca="1" si="7">G5/(RAND()/5+1.2)</f>
-        <v>8.1730639823451625</v>
+        <v>8.1320678746826598</v>
       </c>
       <c r="H6" s="15">
         <f t="shared" ref="H6" ca="1" si="8">H5/(RAND()/5+1.2)</f>
-        <v>11.595553374887187</v>
+        <v>12.405504400267162</v>
       </c>
       <c r="I6" s="15">
         <f ca="1">I5/(RAND()/5+1)</f>
-        <v>14.474141103681392</v>
+        <v>15.759658849312626</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -9584,31 +9421,31 @@
       </c>
       <c r="C7" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>178.26992045375155</v>
+        <v>164.32007396049482</v>
       </c>
       <c r="D7" s="110">
         <f t="shared" ref="D7:H7" ca="1" si="9">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>163.10861021398776</v>
+        <v>144.06435632273741</v>
       </c>
       <c r="E7" s="110">
         <f t="shared" ca="1" si="9"/>
-        <v>162.49403529349703</v>
+        <v>127.73917366895316</v>
       </c>
       <c r="F7" s="110">
         <f t="shared" ca="1" si="9"/>
-        <v>107.24182091111783</v>
+        <v>118.664046819094</v>
       </c>
       <c r="G7" s="110">
         <f t="shared" ca="1" si="9"/>
-        <v>114.15068442463733</v>
+        <v>139.38029744200415</v>
       </c>
       <c r="H7" s="110">
         <f t="shared" ca="1" si="9"/>
-        <v>194.22162170205408</v>
+        <v>127.29973822666111</v>
       </c>
       <c r="I7" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>12.707881284202154</v>
+        <v>7.0127050896572527</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -9620,27 +9457,27 @@
       </c>
       <c r="C8" s="15">
         <f ca="1">C5/(RAND()+2)</f>
-        <v>2.9074646017209993</v>
+        <v>2.4969525550503646</v>
       </c>
       <c r="D8" s="15">
         <f t="shared" ref="D8:H8" ca="1" si="10">D5/(RAND()+2)</f>
-        <v>3.891291901221996</v>
+        <v>5.5447953398282577</v>
       </c>
       <c r="E8" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>4.0500504152817021</v>
+        <v>3.6674466263329406</v>
       </c>
       <c r="F8" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>3.0367377222125698</v>
+        <v>2.9506100935068669</v>
       </c>
       <c r="G8" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>4.4608715721456527</v>
+        <v>4.5155034277932256</v>
       </c>
       <c r="H8" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>5.7006807562339334</v>
+        <v>7.0743098039859174</v>
       </c>
       <c r="I8" s="15">
         <v>7.8</v>
@@ -9653,31 +9490,31 @@
       </c>
       <c r="C9" s="15">
         <f ca="1">C8/(RAND()/5+1.2)</f>
-        <v>2.2135006901318635</v>
+        <v>1.7881828472735888</v>
       </c>
       <c r="D9" s="15">
         <f t="shared" ref="D9:H9" ca="1" si="11">D8/(RAND()/5+1.2)</f>
-        <v>2.8926827844676208</v>
+        <v>4.0187947055143916</v>
       </c>
       <c r="E9" s="15">
         <f ca="1">E8/(RAND()/3+1.2)</f>
-        <v>3.0579360071794612</v>
+        <v>2.5163544509594997</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>2.2174436160378059</v>
+        <v>2.2686344777795422</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>3.708322486648044</v>
+        <v>3.5841121237468085</v>
       </c>
       <c r="H9" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>4.1789687228509136</v>
+        <v>5.3418462415433865</v>
       </c>
       <c r="I9" s="15">
         <f ca="1">I8/(RAND()/5+1)</f>
-        <v>6.6556132211107633</v>
+        <v>7.632702624891218</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -9687,31 +9524,31 @@
       </c>
       <c r="C10" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>186.26523276510903</v>
+        <v>168.26395795054503</v>
       </c>
       <c r="D10" s="110">
         <f t="shared" ref="D10:H10" ca="1" si="12">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>169.83965309960149</v>
+        <v>194.30851618932351</v>
       </c>
       <c r="E10" s="110">
         <f t="shared" ca="1" si="12"/>
-        <v>104.33087953747172</v>
+        <v>166.17354839623451</v>
       </c>
       <c r="F10" s="110">
         <f t="shared" ca="1" si="12"/>
-        <v>102.66275043442936</v>
+        <v>180.38353686765149</v>
       </c>
       <c r="G10" s="110">
         <f t="shared" ca="1" si="12"/>
-        <v>196.74781985629176</v>
+        <v>142.77681735761541</v>
       </c>
       <c r="H10" s="110">
         <f t="shared" ca="1" si="12"/>
-        <v>198.61749742387113</v>
+        <v>105.88599868793064</v>
       </c>
       <c r="I10" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>2.0183553791621054</v>
+        <v>2.6819628359965115</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -9723,27 +9560,27 @@
       </c>
       <c r="C11" s="15">
         <f ca="1">C8/(RAND()+1)</f>
-        <v>2.3212675850610824</v>
+        <v>2.1791735540441319</v>
       </c>
       <c r="D11" s="15">
         <f t="shared" ref="D11:H11" ca="1" si="13">D8/(RAND()+1)</f>
-        <v>3.8040252306973672</v>
+        <v>4.0725344233754566</v>
       </c>
       <c r="E11" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>3.081284783308103</v>
+        <v>2.7033202233923461</v>
       </c>
       <c r="F11" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>1.7299241054589785</v>
+        <v>1.802063374900974</v>
       </c>
       <c r="G11" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>3.2518971842166464</v>
+        <v>4.2127266222490416</v>
       </c>
       <c r="H11" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>3.419649848351471</v>
+        <v>4.3455029495587363</v>
       </c>
       <c r="I11" s="15">
         <v>6.7</v>
@@ -9756,31 +9593,31 @@
       </c>
       <c r="C12" s="15">
         <f ca="1">C11/(RAND()/5+1.2)</f>
-        <v>1.8685178938739526</v>
+        <v>1.7275442027689909</v>
       </c>
       <c r="D12" s="15">
         <f t="shared" ref="D12" ca="1" si="14">D11/(RAND()/5+1.2)</f>
-        <v>2.9491983465638434</v>
+        <v>2.9770104666846615</v>
       </c>
       <c r="E12" s="15">
         <f ca="1">E11/(RAND()/3+1.2)</f>
-        <v>2.537950327589126</v>
+        <v>2.083820271832507</v>
       </c>
       <c r="F12" s="15">
         <f t="shared" ref="F12" ca="1" si="15">F11/(RAND()/5+1.2)</f>
-        <v>1.2418718912231266</v>
+        <v>1.3119522927415628</v>
       </c>
       <c r="G12" s="15">
         <f t="shared" ref="G12" ca="1" si="16">G11/(RAND()/5+1.2)</f>
-        <v>2.6237025755252206</v>
+        <v>3.1575939298588707</v>
       </c>
       <c r="H12" s="15">
         <f t="shared" ref="H12" ca="1" si="17">H11/(RAND()/5+1.2)</f>
-        <v>2.796443531743543</v>
+        <v>3.1224433404090184</v>
       </c>
       <c r="I12" s="15">
         <f ca="1">I11/(RAND()/5+1)</f>
-        <v>5.743579978833746</v>
+        <v>6.316151417107676</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -9790,31 +9627,31 @@
       </c>
       <c r="C13" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>122.87148210224603</v>
+        <v>123.90495368598336</v>
       </c>
       <c r="D13" s="110">
         <f t="shared" ref="D13:H13" ca="1" si="18">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>192.18799342118794</v>
+        <v>160.5475658582927</v>
       </c>
       <c r="E13" s="110">
         <f t="shared" ca="1" si="18"/>
-        <v>162.67634195509552</v>
+        <v>139.33415964073887</v>
       </c>
       <c r="F13" s="110">
         <f t="shared" ca="1" si="18"/>
-        <v>115.20248411788543</v>
+        <v>158.41460211698407</v>
       </c>
       <c r="G13" s="110">
         <f t="shared" ca="1" si="18"/>
-        <v>129.91117925484355</v>
+        <v>164.6494962728369</v>
       </c>
       <c r="H13" s="110">
         <f t="shared" ca="1" si="18"/>
-        <v>171.67007082877078</v>
+        <v>121.11499273623954</v>
       </c>
       <c r="I13" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>2.3998914764057839</v>
+        <v>6.9651238993285656</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -9853,31 +9690,31 @@
       </c>
       <c r="C15" s="15">
         <f ca="1">C14/(RAND()/5+1.2)</f>
-        <v>7.7138239556249752</v>
+        <v>8.2257336106139345</v>
       </c>
       <c r="D15" s="15">
         <f t="shared" ref="D15" ca="1" si="19">D14/(RAND()/5+1.2)</f>
-        <v>8.0639049915478367</v>
+        <v>8.3850698651800855</v>
       </c>
       <c r="E15" s="15">
         <f ca="1">E14/(RAND()/3+1.2)</f>
-        <v>7.7465953574466351</v>
+        <v>7.8971900763312073</v>
       </c>
       <c r="F15" s="15">
         <f t="shared" ref="F15" ca="1" si="20">F14/(RAND()/5+1.2)</f>
-        <v>9.094859595056878</v>
+        <v>9.2345367693084786</v>
       </c>
       <c r="G15" s="15">
         <f t="shared" ref="G15" ca="1" si="21">G14/(RAND()/5+1.2)</f>
-        <v>8.7558467516632099</v>
+        <v>8.3298002599444096</v>
       </c>
       <c r="H15" s="15">
         <f t="shared" ref="H15" ca="1" si="22">H14/(RAND()/5+1.2)</f>
-        <v>10.859099213594275</v>
+        <v>10.953176355339336</v>
       </c>
       <c r="I15" s="15">
         <f ca="1">I14/(RAND()/5+1)</f>
-        <v>13.627279749224058</v>
+        <v>14.212018894566164</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -9887,31 +9724,31 @@
       </c>
       <c r="C16" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>157.0035341739036</v>
+        <v>156.21614793670275</v>
       </c>
       <c r="D16" s="110">
         <f t="shared" ref="D16:H16" ca="1" si="23">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>104.97247130530145</v>
+        <v>138.2803793813051</v>
       </c>
       <c r="E16" s="110">
         <f t="shared" ca="1" si="23"/>
-        <v>156.87638243616351</v>
+        <v>163.11675065551418</v>
       </c>
       <c r="F16" s="110">
         <f t="shared" ca="1" si="23"/>
-        <v>161.3647360006303</v>
+        <v>152.04278072593851</v>
       </c>
       <c r="G16" s="110">
         <f t="shared" ca="1" si="23"/>
-        <v>124.56354588878651</v>
+        <v>112.07454143398816</v>
       </c>
       <c r="H16" s="110">
         <f t="shared" ca="1" si="23"/>
-        <v>134.79684637042499</v>
+        <v>126.82070905094764</v>
       </c>
       <c r="I16" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>3.6557815695649589</v>
+        <v>4.039832137122894</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -9950,31 +9787,31 @@
       </c>
       <c r="C18" s="15">
         <f ca="1">C17/(RAND()/5+1.2)</f>
-        <v>6.4332108292073995</v>
+        <v>6.6668359888698898</v>
       </c>
       <c r="D18" s="15">
         <f t="shared" ref="D18" ca="1" si="24">D17/(RAND()/5+1.2)</f>
-        <v>6.8613795782068348</v>
+        <v>7.5141012146228743</v>
       </c>
       <c r="E18" s="15">
         <f ca="1">E17/(RAND()/3+1.2)</f>
-        <v>6.593062392774236</v>
+        <v>6.7424389290523283</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" ref="F18" ca="1" si="25">F17/(RAND()/5+1.2)</f>
-        <v>8.1718722687036305</v>
+        <v>7.7956808691640473</v>
       </c>
       <c r="G18" s="15">
         <f t="shared" ref="G18" ca="1" si="26">G17/(RAND()/5+1.2)</f>
-        <v>7.212200592564284</v>
+        <v>7.8109578332527514</v>
       </c>
       <c r="H18" s="15">
         <f t="shared" ref="H18" ca="1" si="27">H17/(RAND()/5+1.2)</f>
-        <v>8.6078928634154863</v>
+        <v>8.1216903459647423</v>
       </c>
       <c r="I18" s="15">
         <f ca="1">I17/(RAND()/5+1)</f>
-        <v>11.387872848945337</v>
+        <v>12.8491330965135</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -9984,31 +9821,31 @@
       </c>
       <c r="C19" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>106.02746001368625</v>
+        <v>133.80999361231366</v>
       </c>
       <c r="D19" s="110">
         <f t="shared" ref="D19:H19" ca="1" si="28">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>140.62525592410523</v>
+        <v>185.25099542158702</v>
       </c>
       <c r="E19" s="110">
         <f t="shared" ca="1" si="28"/>
-        <v>203.55940354866544</v>
+        <v>179.68642189573234</v>
       </c>
       <c r="F19" s="110">
         <f t="shared" ca="1" si="28"/>
-        <v>144.00815494243815</v>
+        <v>193.5106002978016</v>
       </c>
       <c r="G19" s="110">
         <f t="shared" ca="1" si="28"/>
-        <v>176.52543339823822</v>
+        <v>127.5753728989754</v>
       </c>
       <c r="H19" s="110">
         <f t="shared" ca="1" si="28"/>
-        <v>144.36213935293696</v>
+        <v>179.55778069395672</v>
       </c>
       <c r="I19" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>11.541340430500261</v>
+        <v>3.1240637339336339</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -10047,31 +9884,31 @@
       </c>
       <c r="C21" s="15">
         <f ca="1">C20/(RAND()/5+1.2)</f>
-        <v>3.362728677979248</v>
+        <v>3.6167907424197039</v>
       </c>
       <c r="D21" s="15">
         <f t="shared" ref="D21" ca="1" si="29">D20/(RAND()/5+1.2)</f>
-        <v>4.4715496408838575</v>
+        <v>4.6008510516415893</v>
       </c>
       <c r="E21" s="15">
         <f ca="1">E20/(RAND()/3+1.2)</f>
-        <v>5.0276276565982396</v>
+        <v>5.13035972278412</v>
       </c>
       <c r="F21" s="15">
         <f t="shared" ref="F21" ca="1" si="30">F20/(RAND()/5+1.2)</f>
-        <v>4.4623247868641762</v>
+        <v>4.5451837552149099</v>
       </c>
       <c r="G21" s="15">
         <f t="shared" ref="G21" ca="1" si="31">G20/(RAND()/5+1.2)</f>
-        <v>3.8803826030769657</v>
+        <v>3.8938250008524</v>
       </c>
       <c r="H21" s="15">
         <f t="shared" ref="H21" ca="1" si="32">H20/(RAND()/5+1.2)</f>
-        <v>4.2343009233804318</v>
+        <v>4.6837459010507816</v>
       </c>
       <c r="I21" s="15">
         <f ca="1">I20/(RAND()/5+1)</f>
-        <v>7.884781517993412</v>
+        <v>8.4587324549755074</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -10081,31 +9918,31 @@
       </c>
       <c r="C22" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>169.22037028144453</v>
+        <v>170.51452903120997</v>
       </c>
       <c r="D22" s="110">
         <f t="shared" ref="D22:H22" ca="1" si="33">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>159.10175127561044</v>
+        <v>187.89557866958478</v>
       </c>
       <c r="E22" s="110">
         <f t="shared" ca="1" si="33"/>
-        <v>146.58350300378868</v>
+        <v>112.81121295165099</v>
       </c>
       <c r="F22" s="110">
         <f t="shared" ca="1" si="33"/>
-        <v>174.71264388246078</v>
+        <v>167.59850447740891</v>
       </c>
       <c r="G22" s="110">
         <f t="shared" ca="1" si="33"/>
-        <v>162.85210315493094</v>
+        <v>159.66426995254463</v>
       </c>
       <c r="H22" s="110">
         <f t="shared" ca="1" si="33"/>
-        <v>165.13417205254558</v>
+        <v>174.24723858996478</v>
       </c>
       <c r="I22" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>7.8359215728736915</v>
+        <v>7.741979681353274</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -10144,31 +9981,31 @@
       </c>
       <c r="C24" s="15">
         <f ca="1">C23/(RAND()/5+1.2)</f>
-        <v>1.690836130448325</v>
+        <v>1.8560223702386462</v>
       </c>
       <c r="D24" s="15">
         <f t="shared" ref="D24" ca="1" si="34">D23/(RAND()/5+1.2)</f>
-        <v>2.8926024493903113</v>
+        <v>2.6003965904548902</v>
       </c>
       <c r="E24" s="15">
         <f ca="1">E23/(RAND()/3+1.2)</f>
-        <v>2.4342316484451154</v>
+        <v>2.9293559459929543</v>
       </c>
       <c r="F24" s="15">
         <f t="shared" ref="F24" ca="1" si="35">F23/(RAND()/5+1.2)</f>
-        <v>2.1996878748126698</v>
+        <v>2.2772941223262011</v>
       </c>
       <c r="G24" s="15">
         <f t="shared" ref="G24" ca="1" si="36">G23/(RAND()/5+1.2)</f>
-        <v>2.3249076177981558</v>
+        <v>2.457731546477643</v>
       </c>
       <c r="H24" s="15">
         <f t="shared" ref="H24" ca="1" si="37">H23/(RAND()/5+1.2)</f>
-        <v>3.0174421614751346</v>
+        <v>3.0252976655182735</v>
       </c>
       <c r="I24" s="15">
         <f ca="1">I23/(RAND()/5+1)</f>
-        <v>6.1221767205123108</v>
+        <v>6.1538063249419954</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -10178,31 +10015,31 @@
       </c>
       <c r="C25" s="111">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>147.37893220507996</v>
+        <v>148.06001680617121</v>
       </c>
       <c r="D25" s="111">
         <f t="shared" ref="D25:H25" ca="1" si="38">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>208.31587422104329</v>
+        <v>132.79977251226737</v>
       </c>
       <c r="E25" s="111">
         <f t="shared" ca="1" si="38"/>
-        <v>135.25519857872411</v>
+        <v>130.61047330911467</v>
       </c>
       <c r="F25" s="111">
         <f t="shared" ca="1" si="38"/>
-        <v>202.19613154141138</v>
+        <v>186.79468542409978</v>
       </c>
       <c r="G25" s="111">
         <f t="shared" ca="1" si="38"/>
-        <v>177.67707450285411</v>
+        <v>186.38005190320274</v>
       </c>
       <c r="H25" s="111">
         <f t="shared" ca="1" si="38"/>
-        <v>200.75611870669087</v>
+        <v>117.56683058307355</v>
       </c>
       <c r="I25" s="111">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>5.6785353083595851</v>
+        <v>14.062516985466077</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -10214,31 +10051,31 @@
       </c>
       <c r="C26" s="15">
         <f ca="1">C14-RAND()/3</f>
-        <v>9.9248031568902242</v>
+        <v>10.042983222041729</v>
       </c>
       <c r="D26" s="15">
         <f t="shared" ref="D26:I26" ca="1" si="39">D14-RAND()/3</f>
-        <v>10.802451770130329</v>
+        <v>10.76071421147932</v>
       </c>
       <c r="E26" s="15">
         <f t="shared" ca="1" si="39"/>
-        <v>11.358900827410759</v>
+        <v>11.107240864039827</v>
       </c>
       <c r="F26" s="15">
         <f t="shared" ca="1" si="39"/>
-        <v>12.08983821960781</v>
+        <v>11.980260568199247</v>
       </c>
       <c r="G26" s="15">
         <f t="shared" ca="1" si="39"/>
-        <v>10.752998503563299</v>
+        <v>10.774497677171452</v>
       </c>
       <c r="H26" s="15">
         <f t="shared" ca="1" si="39"/>
-        <v>13.238282696932419</v>
+        <v>13.014400782380518</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" ca="1" si="39"/>
-        <v>15.69821085495164</v>
+        <v>15.470207997186309</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -10248,31 +10085,31 @@
       </c>
       <c r="C27" s="15">
         <f ca="1">C26/(RAND()/5+1.2)</f>
-        <v>7.7712469656291328</v>
+        <v>7.6395109304409763</v>
       </c>
       <c r="D27" s="15">
         <f t="shared" ref="D27" ca="1" si="40">D26/(RAND()/5+1.2)</f>
-        <v>7.7455288922833079</v>
+        <v>8.4770506205930101</v>
       </c>
       <c r="E27" s="15">
         <f ca="1">E26/(RAND()/3+1.2)</f>
-        <v>8.4438360578103513</v>
+        <v>8.5430013338418949</v>
       </c>
       <c r="F27" s="15">
         <f t="shared" ref="F27" ca="1" si="41">F26/(RAND()/5+1.2)</f>
-        <v>8.7614424654800587</v>
+        <v>9.749942618483832</v>
       </c>
       <c r="G27" s="15">
         <f t="shared" ref="G27" ca="1" si="42">G26/(RAND()/5+1.2)</f>
-        <v>8.1003229269879746</v>
+        <v>8.5799648830543873</v>
       </c>
       <c r="H27" s="15">
         <f t="shared" ref="H27" ca="1" si="43">H26/(RAND()/5+1.2)</f>
-        <v>9.8006692346551159</v>
+        <v>10.046688012133588</v>
       </c>
       <c r="I27" s="15">
         <f ca="1">I26/(RAND()/5+1)</f>
-        <v>14.218072663387776</v>
+        <v>13.006332817084742</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -10282,31 +10119,31 @@
       </c>
       <c r="C28" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>201.39153203653547</v>
+        <v>131.98318523315044</v>
       </c>
       <c r="D28" s="110">
         <f t="shared" ref="D28:H28" ca="1" si="44">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>159.95047601396405</v>
+        <v>104.90137659392877</v>
       </c>
       <c r="E28" s="110">
         <f t="shared" ca="1" si="44"/>
-        <v>109.23263885469984</v>
+        <v>126.1117548557106</v>
       </c>
       <c r="F28" s="110">
         <f t="shared" ca="1" si="44"/>
-        <v>134.50110543521561</v>
+        <v>125.29539593903716</v>
       </c>
       <c r="G28" s="110">
         <f t="shared" ca="1" si="44"/>
-        <v>169.62583390656897</v>
+        <v>134.51884501577706</v>
       </c>
       <c r="H28" s="110">
         <f t="shared" ca="1" si="44"/>
-        <v>110.21827790778657</v>
+        <v>127.25962478337844</v>
       </c>
       <c r="I28" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>4.9204086291812779</v>
+        <v>13.784605098780686</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -10318,31 +10155,31 @@
       </c>
       <c r="C29" s="15">
         <f ca="1">C17-RAND()/3</f>
-        <v>8.3464359605506537</v>
+        <v>8.4712197256494033</v>
       </c>
       <c r="D29" s="15">
         <f t="shared" ref="D29:I29" ca="1" si="45">D17-RAND()/3</f>
-        <v>9.2781185348516129</v>
+        <v>9.1557105914065691</v>
       </c>
       <c r="E29" s="15">
         <f t="shared" ca="1" si="45"/>
-        <v>9.5515665233494023</v>
+        <v>9.7502740548093723</v>
       </c>
       <c r="F29" s="15">
         <f t="shared" ca="1" si="45"/>
-        <v>10.005358754086302</v>
+        <v>9.9072299615662285</v>
       </c>
       <c r="G29" s="15">
         <f t="shared" ca="1" si="45"/>
-        <v>9.3989438946106745</v>
+        <v>9.2666388790517153</v>
       </c>
       <c r="H29" s="15">
         <f t="shared" ca="1" si="45"/>
-        <v>10.764345172539734</v>
+        <v>10.685101224294739</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" ca="1" si="45"/>
-        <v>13.28100855696901</v>
+        <v>13.293010385900491</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -10352,31 +10189,31 @@
       </c>
       <c r="C30" s="15">
         <f ca="1">C29/(RAND()/5+1.2)</f>
-        <v>6.3821910686330376</v>
+        <v>6.3318501099465712</v>
       </c>
       <c r="D30" s="15">
         <f t="shared" ref="D30" ca="1" si="46">D29/(RAND()/5+1.2)</f>
-        <v>6.7132904036468597</v>
+        <v>6.7380998050756435</v>
       </c>
       <c r="E30" s="15">
         <f ca="1">E29/(RAND()/3+1.2)</f>
-        <v>6.7999516311275015</v>
+        <v>7.6995877166082689</v>
       </c>
       <c r="F30" s="15">
         <f t="shared" ref="F30" ca="1" si="47">F29/(RAND()/5+1.2)</f>
-        <v>7.3547878420785926</v>
+        <v>7.6301844960362688</v>
       </c>
       <c r="G30" s="15">
         <f t="shared" ref="G30" ca="1" si="48">G29/(RAND()/5+1.2)</f>
-        <v>7.7062731156404629</v>
+        <v>6.6234441565365696</v>
       </c>
       <c r="H30" s="15">
         <f t="shared" ref="H30" ca="1" si="49">H29/(RAND()/5+1.2)</f>
-        <v>7.9845221603885594</v>
+        <v>8.0947075668925272</v>
       </c>
       <c r="I30" s="15">
         <f ca="1">I29/(RAND()/5+1)</f>
-        <v>11.73280737253644</v>
+        <v>12.128612764041085</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -10386,31 +10223,31 @@
       </c>
       <c r="C31" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>152.4232643807442</v>
+        <v>131.56449088989217</v>
       </c>
       <c r="D31" s="110">
         <f t="shared" ref="D31:H31" ca="1" si="50">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>185.64486079220165</v>
+        <v>196.25373695854202</v>
       </c>
       <c r="E31" s="110">
         <f t="shared" ca="1" si="50"/>
-        <v>132.86906476065008</v>
+        <v>151.73473330895496</v>
       </c>
       <c r="F31" s="110">
         <f t="shared" ca="1" si="50"/>
-        <v>195.93789118653604</v>
+        <v>174.23998295211791</v>
       </c>
       <c r="G31" s="110">
         <f t="shared" ca="1" si="50"/>
-        <v>207.33378988086844</v>
+        <v>159.64302061505342</v>
       </c>
       <c r="H31" s="110">
         <f t="shared" ca="1" si="50"/>
-        <v>167.50691768962233</v>
+        <v>121.65701899279325</v>
       </c>
       <c r="I31" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>12.421777920120341</v>
+        <v>10.271005907447615</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -10422,31 +10259,31 @@
       </c>
       <c r="C32" s="15">
         <f ca="1">C20-RAND()/3</f>
-        <v>4.6312161254366719</v>
+        <v>4.5997040586185847</v>
       </c>
       <c r="D32" s="15">
         <f t="shared" ref="D32:I32" ca="1" si="51">D20-RAND()/3</f>
-        <v>6.184428615414272</v>
+        <v>6.0374348175345265</v>
       </c>
       <c r="E32" s="15">
         <f t="shared" ca="1" si="51"/>
-        <v>7.0270069470477861</v>
+        <v>7.1884294374822924</v>
       </c>
       <c r="F32" s="15">
         <f t="shared" ca="1" si="51"/>
-        <v>5.5116821095747728</v>
+        <v>5.4797495719742946</v>
       </c>
       <c r="G32" s="15">
         <f t="shared" ca="1" si="51"/>
-        <v>4.9362188999670051</v>
+        <v>4.7857823149021357</v>
       </c>
       <c r="H32" s="15">
         <f t="shared" ca="1" si="51"/>
-        <v>5.6539915423253584</v>
+        <v>5.5088892857413674</v>
       </c>
       <c r="I32" s="15">
         <f t="shared" ca="1" si="51"/>
-        <v>9.0430819003725578</v>
+        <v>9.1888073352437143</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -10456,31 +10293,31 @@
       </c>
       <c r="C33" s="15">
         <f ca="1">C32/(RAND()/5+1.2)</f>
-        <v>3.6060241075033983</v>
+        <v>3.6254909075975039</v>
       </c>
       <c r="D33" s="15">
         <f t="shared" ref="D33" ca="1" si="52">D32/(RAND()/5+1.2)</f>
-        <v>4.5416088329518942</v>
+        <v>4.8587769105881833</v>
       </c>
       <c r="E33" s="15">
         <f ca="1">E32/(RAND()/3+1.2)</f>
-        <v>4.7822626103583055</v>
+        <v>5.9058287235563798</v>
       </c>
       <c r="F33" s="15">
         <f t="shared" ref="F33" ca="1" si="53">F32/(RAND()/5+1.2)</f>
-        <v>3.9393645960786796</v>
+        <v>4.4047075002331706</v>
       </c>
       <c r="G33" s="15">
         <f t="shared" ref="G33" ca="1" si="54">G32/(RAND()/5+1.2)</f>
-        <v>3.8101761077283562</v>
+        <v>3.7255585618604239</v>
       </c>
       <c r="H33" s="15">
         <f t="shared" ref="H33" ca="1" si="55">H32/(RAND()/5+1.2)</f>
-        <v>4.6774208822610275</v>
+        <v>4.2465229535212536</v>
       </c>
       <c r="I33" s="15">
         <f ca="1">I32/(RAND()/5+1)</f>
-        <v>7.6434947376134295</v>
+        <v>8.7892672841821646</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -10490,31 +10327,31 @@
       </c>
       <c r="C34" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>159.30565478908551</v>
+        <v>152.57855019444295</v>
       </c>
       <c r="D34" s="110">
         <f t="shared" ref="D34:H34" ca="1" si="56">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>125.98888110476493</v>
+        <v>107.46911085218544</v>
       </c>
       <c r="E34" s="110">
         <f t="shared" ca="1" si="56"/>
-        <v>147.5129639698315</v>
+        <v>171.69006197361304</v>
       </c>
       <c r="F34" s="110">
         <f t="shared" ca="1" si="56"/>
-        <v>128.6484449968336</v>
+        <v>180.38918103118442</v>
       </c>
       <c r="G34" s="110">
         <f t="shared" ca="1" si="56"/>
-        <v>157.39200734427948</v>
+        <v>169.89645596842911</v>
       </c>
       <c r="H34" s="110">
         <f t="shared" ca="1" si="56"/>
-        <v>107.86362289806429</v>
+        <v>188.86312826895514</v>
       </c>
       <c r="I34" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>10.890578385362989</v>
+        <v>3.628650049758825</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -10526,31 +10363,31 @@
       </c>
       <c r="C35" s="15">
         <f ca="1">C23-RAND()/3</f>
-        <v>2.0984595781855955</v>
+        <v>2.1354483754909683</v>
       </c>
       <c r="D35" s="15">
         <f t="shared" ref="D35:I35" ca="1" si="57">D23-RAND()/3</f>
-        <v>3.3127309015250113</v>
+        <v>3.3055308803854833</v>
       </c>
       <c r="E35" s="15">
         <f t="shared" ca="1" si="57"/>
-        <v>3.4924734260516521</v>
+        <v>3.4569930647452995</v>
       </c>
       <c r="F35" s="15">
         <f t="shared" ca="1" si="57"/>
-        <v>2.746502981446111</v>
+        <v>2.7821234382976274</v>
       </c>
       <c r="G35" s="15">
         <f t="shared" ca="1" si="57"/>
-        <v>2.9456493061623936</v>
+        <v>3.0625582214142346</v>
       </c>
       <c r="H35" s="15">
         <f t="shared" ca="1" si="57"/>
-        <v>3.5233420344346382</v>
+        <v>3.5479923961261322</v>
       </c>
       <c r="I35" s="15">
         <f t="shared" ca="1" si="57"/>
-        <v>6.090874782543529</v>
+        <v>6.1005799742037548</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -10560,31 +10397,31 @@
       </c>
       <c r="C36" s="15">
         <f ca="1">C35/(RAND()/5+1.2)</f>
-        <v>1.7238656347856531</v>
+        <v>1.7056863433334732</v>
       </c>
       <c r="D36" s="15">
         <f t="shared" ref="D36" ca="1" si="58">D35/(RAND()/5+1.2)</f>
-        <v>2.755929171360735</v>
+        <v>2.6832111490081703</v>
       </c>
       <c r="E36" s="15">
         <f ca="1">E35/(RAND()/3+1.2)</f>
-        <v>2.6196456900858376</v>
+        <v>2.53083251014134</v>
       </c>
       <c r="F36" s="15">
         <f t="shared" ref="F36" ca="1" si="59">F35/(RAND()/5+1.2)</f>
-        <v>2.0611770562179164</v>
+        <v>2.0068699704966169</v>
       </c>
       <c r="G36" s="15">
         <f t="shared" ref="G36" ca="1" si="60">G35/(RAND()/5+1.2)</f>
-        <v>2.3019659015882739</v>
+        <v>2.5168031635571761</v>
       </c>
       <c r="H36" s="15">
         <f t="shared" ref="H36" ca="1" si="61">H35/(RAND()/5+1.2)</f>
-        <v>2.8020993407003467</v>
+        <v>2.8575378641037341</v>
       </c>
       <c r="I36" s="15">
         <f ca="1">I35/(RAND()/5+1)</f>
-        <v>5.870036059194379</v>
+        <v>5.2466734888197317</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -10594,31 +10431,31 @@
       </c>
       <c r="C37" s="110">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>148.81205717430873</v>
+        <v>147.23351311864963</v>
       </c>
       <c r="D37" s="110">
         <f t="shared" ref="D37:H37" ca="1" si="62">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>113.46879993767088</v>
+        <v>167.64893846196856</v>
       </c>
       <c r="E37" s="110">
         <f t="shared" ca="1" si="62"/>
-        <v>138.47310309509353</v>
+        <v>199.22954067853789</v>
       </c>
       <c r="F37" s="110">
         <f t="shared" ca="1" si="62"/>
-        <v>196.45041863511901</v>
+        <v>183.99979489954231</v>
       </c>
       <c r="G37" s="110">
         <f t="shared" ca="1" si="62"/>
-        <v>186.22969188882345</v>
+        <v>198.76176061641019</v>
       </c>
       <c r="H37" s="110">
         <f t="shared" ca="1" si="62"/>
-        <v>178.31497992538473</v>
+        <v>198.76226824502874</v>
       </c>
       <c r="I37" s="110">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>6.1354045071664407</v>
+        <v>9.0463896456342212</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -10630,31 +10467,31 @@
       </c>
       <c r="C38" s="15">
         <f ca="1">C35/(RAND()/3+1)</f>
-        <v>1.907334377601885</v>
+        <v>1.6784271386844263</v>
       </c>
       <c r="D38" s="15">
         <f t="shared" ref="D38:I38" ca="1" si="63">D35/(RAND()/3+1)</f>
-        <v>2.785811875100666</v>
+        <v>3.140126194272352</v>
       </c>
       <c r="E38" s="15">
         <f t="shared" ca="1" si="63"/>
-        <v>3.078420423453176</v>
+        <v>3.0583307566597684</v>
       </c>
       <c r="F38" s="15">
         <f t="shared" ca="1" si="63"/>
-        <v>2.5349653581497762</v>
+        <v>2.6332645581916347</v>
       </c>
       <c r="G38" s="15">
         <f t="shared" ca="1" si="63"/>
-        <v>2.2904145594673575</v>
+        <v>2.7866966772587332</v>
       </c>
       <c r="H38" s="15">
         <f t="shared" ca="1" si="63"/>
-        <v>2.7076001851758913</v>
+        <v>3.286574354970119</v>
       </c>
       <c r="I38" s="15">
         <f t="shared" ca="1" si="63"/>
-        <v>5.5703425578580248</v>
+        <v>5.210925918663011</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -10664,31 +10501,31 @@
       </c>
       <c r="C39" s="15">
         <f ca="1">C38/(RAND()/5+1.2)</f>
-        <v>1.382849544425544</v>
+        <v>1.2919898061260868</v>
       </c>
       <c r="D39" s="15">
         <f t="shared" ref="D39" ca="1" si="64">D38/(RAND()/5+1.2)</f>
-        <v>2.0941958491146746</v>
+        <v>2.3549962489267124</v>
       </c>
       <c r="E39" s="15">
         <f ca="1">E38/(RAND()/3+1.2)</f>
-        <v>2.4758183109722172</v>
+        <v>2.5378757692342457</v>
       </c>
       <c r="F39" s="15">
         <f t="shared" ref="F39" ca="1" si="65">F38/(RAND()/5+1.2)</f>
-        <v>1.8437138865761813</v>
+        <v>1.9983972319610228</v>
       </c>
       <c r="G39" s="15">
         <f t="shared" ref="G39" ca="1" si="66">G38/(RAND()/5+1.2)</f>
-        <v>1.684453576860381</v>
+        <v>2.2621995143777558</v>
       </c>
       <c r="H39" s="15">
         <f t="shared" ref="H39" ca="1" si="67">H38/(RAND()/5+1.2)</f>
-        <v>2.2061328749399287</v>
+        <v>2.6543720443665326</v>
       </c>
       <c r="I39" s="15">
         <f ca="1">I38/(RAND()/5+1)</f>
-        <v>5.1256428930126718</v>
+        <v>4.7680923322150077</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -10698,31 +10535,31 @@
       </c>
       <c r="C40" s="111">
         <f ca="1">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>119.61709935985364</v>
+        <v>192.35096688888825</v>
       </c>
       <c r="D40" s="111">
         <f t="shared" ref="D40:H40" ca="1" si="68">100+RAND()*100+RAND()*10+RAND()</f>
-        <v>134.60858747188081</v>
+        <v>165.37987684379098</v>
       </c>
       <c r="E40" s="111">
         <f t="shared" ca="1" si="68"/>
-        <v>198.75491263347945</v>
+        <v>153.41795688844277</v>
       </c>
       <c r="F40" s="111">
         <f t="shared" ca="1" si="68"/>
-        <v>164.00808403969859</v>
+        <v>162.2288612524832</v>
       </c>
       <c r="G40" s="111">
         <f t="shared" ca="1" si="68"/>
-        <v>159.30460680291404</v>
+        <v>156.07915949066953</v>
       </c>
       <c r="H40" s="111">
         <f t="shared" ca="1" si="68"/>
-        <v>165.48138555478423</v>
+        <v>138.10522046608864</v>
       </c>
       <c r="I40" s="111">
         <f ca="1">RAND()*10+RAND()*5+RAND()</f>
-        <v>10.651221218424247</v>
+        <v>14.885513884590392</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -10934,7 +10771,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:D7"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11099,7 +10936,7 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="146" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="30" t="s">
@@ -11123,7 +10960,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="113"/>
+      <c r="A3" s="144"/>
       <c r="B3" s="31" t="s">
         <v>55</v>
       </c>
@@ -11151,7 +10988,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="113"/>
+      <c r="A4" s="144"/>
       <c r="B4" s="31" t="s">
         <v>56</v>
       </c>
@@ -11179,7 +11016,7 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="113"/>
+      <c r="A5" s="144"/>
       <c r="B5" s="31" t="s">
         <v>57</v>
       </c>
@@ -11207,7 +11044,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="114"/>
+      <c r="A6" s="145"/>
       <c r="B6" s="32" t="s">
         <v>73</v>
       </c>
@@ -11235,7 +11072,7 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="146" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="30" t="s">
@@ -11265,7 +11102,7 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="113"/>
+      <c r="A8" s="144"/>
       <c r="B8" s="31" t="s">
         <v>59</v>
       </c>
@@ -11293,7 +11130,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="113"/>
+      <c r="A9" s="144"/>
       <c r="B9" s="31" t="s">
         <v>78</v>
       </c>
@@ -11321,7 +11158,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="114"/>
+      <c r="A10" s="145"/>
       <c r="B10" s="32" t="s">
         <v>73</v>
       </c>
@@ -11349,7 +11186,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="113" t="s">
+      <c r="A11" s="144" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="31" t="s">
@@ -11379,7 +11216,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="113"/>
+      <c r="A12" s="144"/>
       <c r="B12" s="31" t="s">
         <v>59</v>
       </c>
@@ -11407,7 +11244,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="113"/>
+      <c r="A13" s="144"/>
       <c r="B13" s="31" t="s">
         <v>78</v>
       </c>
@@ -11429,7 +11266,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="113"/>
+      <c r="A14" s="144"/>
       <c r="B14" s="31" t="s">
         <v>77</v>
       </c>
@@ -11451,7 +11288,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="113"/>
+      <c r="A15" s="144"/>
       <c r="B15" s="31" t="s">
         <v>60</v>
       </c>
@@ -11473,7 +11310,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="113"/>
+      <c r="A16" s="144"/>
       <c r="B16" s="31" t="s">
         <v>61</v>
       </c>
@@ -11495,7 +11332,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="114"/>
+      <c r="A17" s="145"/>
       <c r="B17" s="3" t="s">
         <v>73</v>
       </c>
@@ -11559,17 +11396,17 @@
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.875" style="124" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.625" style="117" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" style="124" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.875" style="125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.25" style="123" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.875" style="125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.25" style="123" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.875" style="121" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.625" style="114" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" style="121" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.875" style="122" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.25" style="120" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.875" style="122" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.25" style="120" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="127"/>
+      <c r="A1" s="124"/>
       <c r="B1" s="108" t="s">
         <v>18</v>
       </c>
@@ -11592,28 +11429,28 @@
         <v>24</v>
       </c>
       <c r="J1" s="2"/>
-      <c r="K1" s="141" t="s">
+      <c r="K1" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="135" t="s">
+      <c r="L1" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="136" t="s">
+      <c r="M1" s="133" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="137" t="s">
+      <c r="N1" s="134" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="137" t="s">
+      <c r="O1" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="139" t="s">
+      <c r="U1" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="V1" s="140" t="s">
+      <c r="V1" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="W1" s="140" t="s">
+      <c r="W1" s="137" t="s">
         <v>82</v>
       </c>
     </row>
@@ -11621,59 +11458,59 @@
       <c r="A2" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="119">
+      <c r="B2" s="116">
         <f t="shared" ref="B2:B4" ca="1" si="0">B3/(RAND()/10+1)</f>
-        <v>7.9501774397740324</v>
-      </c>
-      <c r="C2" s="119">
+        <v>6.5136196035848783</v>
+      </c>
+      <c r="C2" s="116">
         <f t="shared" ref="C2:C4" ca="1" si="1">C3/(RAND()/10+1)</f>
-        <v>8.6379073356487499</v>
-      </c>
-      <c r="D2" s="119">
+        <v>9.1926540314760015</v>
+      </c>
+      <c r="D2" s="116">
         <f t="shared" ref="D2:D4" ca="1" si="2">D3/(RAND()/10+1)</f>
-        <v>8.8339592269184628</v>
-      </c>
-      <c r="E2" s="119">
+        <v>9.7111643234126923</v>
+      </c>
+      <c r="E2" s="116">
         <f t="shared" ref="E2:E4" ca="1" si="3">E3/(RAND()/10+1)</f>
-        <v>9.9815294021779373</v>
-      </c>
-      <c r="F2" s="119">
+        <v>11.084827301340278</v>
+      </c>
+      <c r="F2" s="116">
         <f t="shared" ref="F2:F4" ca="1" si="4">F3/(RAND()/10+1)</f>
-        <v>8.6943872008819465</v>
-      </c>
-      <c r="G2" s="119">
+        <v>9.5505808371075425</v>
+      </c>
+      <c r="G2" s="116">
         <f t="shared" ref="G2:G4" ca="1" si="5">G3/(RAND()/10+1)</f>
-        <v>10.730289231171311</v>
-      </c>
-      <c r="H2" s="119">
+        <v>10.114564102607281</v>
+      </c>
+      <c r="H2" s="116">
         <f t="shared" ref="H2:H4" ca="1" si="6">H3/(RAND()/10+1)</f>
-        <v>12.502801067824569</v>
-      </c>
-      <c r="J2" s="113" t="s">
+        <v>11.976043493689634</v>
+      </c>
+      <c r="J2" s="144" t="s">
         <v>104</v>
       </c>
       <c r="K2" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="L2" s="128">
+      <c r="L2" s="125">
         <v>153795</v>
       </c>
-      <c r="M2" s="118">
+      <c r="M2" s="115">
         <v>12.5016938131928</v>
       </c>
-      <c r="N2" s="129">
+      <c r="N2" s="126">
         <v>7.0743717285997496</v>
       </c>
-      <c r="O2" s="129">
+      <c r="O2" s="126">
         <v>0.54568093891218805</v>
       </c>
-      <c r="U2" s="128">
+      <c r="U2" s="125">
         <v>1702</v>
       </c>
-      <c r="V2" s="130">
+      <c r="V2" s="127">
         <v>10</v>
       </c>
-      <c r="W2" s="130">
+      <c r="W2" s="127">
         <v>168</v>
       </c>
     </row>
@@ -11681,57 +11518,57 @@
       <c r="A3" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="119">
+      <c r="B3" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0918410765175288</v>
-      </c>
-      <c r="C3" s="119">
+        <v>7.0861659713640091</v>
+      </c>
+      <c r="C3" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2982546065009686</v>
-      </c>
-      <c r="D3" s="119">
+        <v>9.5202066551705133</v>
+      </c>
+      <c r="D3" s="116">
         <f t="shared" ca="1" si="2"/>
-        <v>9.366583962684123</v>
-      </c>
-      <c r="E3" s="119">
+        <v>10.262608476238217</v>
+      </c>
+      <c r="E3" s="116">
         <f t="shared" ca="1" si="3"/>
-        <v>10.019407989693196</v>
-      </c>
-      <c r="F3" s="119">
+        <v>11.455074868675398</v>
+      </c>
+      <c r="F3" s="116">
         <f t="shared" ca="1" si="4"/>
-        <v>9.1553021983343399</v>
-      </c>
-      <c r="G3" s="119">
+        <v>9.5512091700320099</v>
+      </c>
+      <c r="G3" s="116">
         <f t="shared" ca="1" si="5"/>
-        <v>11.46126688520606</v>
-      </c>
-      <c r="H3" s="119">
+        <v>11.084136963932398</v>
+      </c>
+      <c r="H3" s="116">
         <f t="shared" ca="1" si="6"/>
-        <v>13.316186347545875</v>
-      </c>
-      <c r="J3" s="113"/>
+        <v>13.098354855087809</v>
+      </c>
+      <c r="J3" s="144"/>
       <c r="K3" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="L3" s="128">
+      <c r="L3" s="125">
         <v>83764</v>
       </c>
-      <c r="M3" s="118">
+      <c r="M3" s="115">
         <v>13.8257007783773</v>
       </c>
-      <c r="N3" s="129">
+      <c r="N3" s="126">
         <v>14.774354137815701</v>
       </c>
-      <c r="O3" s="129">
+      <c r="O3" s="126">
         <v>1.6881357146267999</v>
       </c>
-      <c r="U3" s="128">
+      <c r="U3" s="125">
         <v>1378</v>
       </c>
-      <c r="V3" s="130">
+      <c r="V3" s="127">
         <v>20</v>
       </c>
-      <c r="W3" s="130">
+      <c r="W3" s="127">
         <v>75</v>
       </c>
     </row>
@@ -11739,57 +11576,57 @@
       <c r="A4" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="119">
+      <c r="B4" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2998433870124373</v>
-      </c>
-      <c r="C4" s="119">
+        <v>7.6487898390637072</v>
+      </c>
+      <c r="C4" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5470767563317516</v>
-      </c>
-      <c r="D4" s="119">
+        <v>9.7730670657405572</v>
+      </c>
+      <c r="D4" s="116">
         <f t="shared" ca="1" si="2"/>
-        <v>9.8252881196322353</v>
-      </c>
-      <c r="E4" s="119">
+        <v>10.449939977536658</v>
+      </c>
+      <c r="E4" s="116">
         <f t="shared" ca="1" si="3"/>
-        <v>10.39117136927363</v>
-      </c>
-      <c r="F4" s="119">
+        <v>11.579148888984415</v>
+      </c>
+      <c r="F4" s="116">
         <f t="shared" ca="1" si="4"/>
-        <v>9.8571519012374029</v>
-      </c>
-      <c r="G4" s="119">
+        <v>9.8859492516935799</v>
+      </c>
+      <c r="G4" s="116">
         <f t="shared" ca="1" si="5"/>
-        <v>11.472301118105557</v>
-      </c>
-      <c r="H4" s="119">
+        <v>11.966741643662786</v>
+      </c>
+      <c r="H4" s="116">
         <f t="shared" ca="1" si="6"/>
-        <v>13.897032880502479</v>
-      </c>
-      <c r="J4" s="113"/>
+        <v>13.568869938471385</v>
+      </c>
+      <c r="J4" s="144"/>
       <c r="K4" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="L4" s="128">
+      <c r="L4" s="125">
         <v>50983</v>
       </c>
-      <c r="M4" s="118">
+      <c r="M4" s="115">
         <v>14.1693701822176</v>
       </c>
-      <c r="N4" s="129">
+      <c r="N4" s="126">
         <v>25.215169762469799</v>
       </c>
-      <c r="O4" s="129">
+      <c r="O4" s="126">
         <v>2.8187238883549401</v>
       </c>
-      <c r="U4" s="128">
+      <c r="U4" s="125">
         <v>419</v>
       </c>
-      <c r="V4" s="130">
+      <c r="V4" s="127">
         <v>30</v>
       </c>
-      <c r="W4" s="130">
+      <c r="W4" s="127">
         <v>255</v>
       </c>
     </row>
@@ -11797,57 +11634,57 @@
       <c r="A5" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="119">
+      <c r="B5" s="116">
         <f>8.4</f>
         <v>8.4</v>
       </c>
-      <c r="C5" s="119">
+      <c r="C5" s="116">
         <f t="shared" ref="C5:H5" ca="1" si="7">C6/(RAND()/10+1)</f>
-        <v>10.105094469507909</v>
-      </c>
-      <c r="D5" s="119">
+        <v>10.632460420483568</v>
+      </c>
+      <c r="D5" s="116">
         <f t="shared" ca="1" si="7"/>
-        <v>10.755409604674506</v>
-      </c>
-      <c r="E5" s="119">
+        <v>11.186469092614802</v>
+      </c>
+      <c r="E5" s="116">
         <f t="shared" ca="1" si="7"/>
-        <v>11.057212332075661</v>
-      </c>
-      <c r="F5" s="119">
+        <v>11.628833712250991</v>
+      </c>
+      <c r="F5" s="116">
         <f t="shared" ca="1" si="7"/>
-        <v>10.332204073440669</v>
-      </c>
-      <c r="G5" s="119">
+        <v>10.014283251582302</v>
+      </c>
+      <c r="G5" s="116">
         <f t="shared" ca="1" si="7"/>
-        <v>12.246325917141636</v>
-      </c>
-      <c r="H5" s="119">
+        <v>12.275600923102129</v>
+      </c>
+      <c r="H5" s="116">
         <f t="shared" ca="1" si="7"/>
-        <v>14.309793327774528</v>
-      </c>
-      <c r="J5" s="113"/>
+        <v>14.309923103855583</v>
+      </c>
+      <c r="J5" s="144"/>
       <c r="K5" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="L5" s="128">
+      <c r="L5" s="125">
         <v>34358</v>
       </c>
-      <c r="M5" s="118">
+      <c r="M5" s="115">
         <v>14.6343209732813</v>
       </c>
-      <c r="N5" s="129">
+      <c r="N5" s="126">
         <v>35.2272542057162</v>
       </c>
-      <c r="O5" s="129">
+      <c r="O5" s="126">
         <v>3.8732173001920902</v>
       </c>
-      <c r="U5" s="128">
+      <c r="U5" s="125">
         <v>1692</v>
       </c>
-      <c r="V5" s="130">
+      <c r="V5" s="127">
         <v>40</v>
       </c>
-      <c r="W5" s="130">
+      <c r="W5" s="127">
         <v>55</v>
       </c>
     </row>
@@ -11855,50 +11692,50 @@
       <c r="A6" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="119">
+      <c r="B6" s="116">
         <v>8.3899794353564499</v>
       </c>
-      <c r="C6" s="119">
+      <c r="C6" s="116">
         <v>10.765797061188968</v>
       </c>
-      <c r="D6" s="120">
+      <c r="D6" s="117">
         <v>11.277711699749855</v>
       </c>
-      <c r="E6" s="119">
+      <c r="E6" s="116">
         <v>11.888021433519205</v>
       </c>
-      <c r="F6" s="121">
+      <c r="F6" s="118">
         <v>10.864259865819172</v>
       </c>
-      <c r="G6" s="121">
+      <c r="G6" s="118">
         <v>13.026542813860329</v>
       </c>
-      <c r="H6" s="121">
+      <c r="H6" s="118">
         <v>15.376403442797715</v>
       </c>
-      <c r="J6" s="113"/>
+      <c r="J6" s="144"/>
       <c r="K6" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="L6" s="128">
+      <c r="L6" s="125">
         <v>24873</v>
       </c>
-      <c r="M6" s="118">
+      <c r="M6" s="115">
         <v>15.2089816266634</v>
       </c>
-      <c r="N6" s="129">
+      <c r="N6" s="126">
         <v>45.282917219474903</v>
       </c>
-      <c r="O6" s="129">
+      <c r="O6" s="126">
         <v>4.9563784022836002</v>
       </c>
-      <c r="U6" s="128">
+      <c r="U6" s="125">
         <v>1389</v>
       </c>
-      <c r="V6" s="130">
+      <c r="V6" s="127">
         <v>50</v>
       </c>
-      <c r="W6" s="130">
+      <c r="W6" s="127">
         <v>169</v>
       </c>
     </row>
@@ -11906,57 +11743,57 @@
       <c r="A7" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="119">
+      <c r="B7" s="116">
         <f ca="1">B6/(RAND()/10+1)</f>
-        <v>8.3267979297093486</v>
-      </c>
-      <c r="C7" s="119">
+        <v>8.3561733902989648</v>
+      </c>
+      <c r="C7" s="116">
         <f t="shared" ref="C7:H7" ca="1" si="8">C6/(RAND()/10+1)</f>
-        <v>10.716947065992114</v>
-      </c>
-      <c r="D7" s="119">
+        <v>10.57690677095095</v>
+      </c>
+      <c r="D7" s="116">
         <f t="shared" ca="1" si="8"/>
-        <v>11.211436387818942</v>
-      </c>
-      <c r="E7" s="119">
+        <v>10.942138962596815</v>
+      </c>
+      <c r="E7" s="116">
         <f t="shared" ca="1" si="8"/>
-        <v>10.987770795611715</v>
-      </c>
-      <c r="F7" s="119">
+        <v>11.362432800429914</v>
+      </c>
+      <c r="F7" s="116">
         <f t="shared" ca="1" si="8"/>
-        <v>10.01636853229969</v>
-      </c>
-      <c r="G7" s="119">
+        <v>10.551771622892675</v>
+      </c>
+      <c r="G7" s="116">
         <f t="shared" ca="1" si="8"/>
-        <v>12.783794622106829</v>
-      </c>
-      <c r="H7" s="119">
+        <v>12.001530956234109</v>
+      </c>
+      <c r="H7" s="116">
         <f t="shared" ca="1" si="8"/>
-        <v>14.029050140989712</v>
-      </c>
-      <c r="J7" s="113"/>
+        <v>14.684491830681919</v>
+      </c>
+      <c r="J7" s="144"/>
       <c r="K7" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="L7" s="128">
+      <c r="L7" s="125">
         <v>18390</v>
       </c>
-      <c r="M7" s="118">
+      <c r="M7" s="115">
         <v>15.606090266449099</v>
       </c>
-      <c r="N7" s="129">
+      <c r="N7" s="126">
         <v>55.295106035888999</v>
       </c>
-      <c r="O7" s="129">
+      <c r="O7" s="126">
         <v>5.9240891789015704</v>
       </c>
-      <c r="U7" s="128">
+      <c r="U7" s="125">
         <v>965</v>
       </c>
-      <c r="V7" s="130">
+      <c r="V7" s="127">
         <v>60</v>
       </c>
-      <c r="W7" s="130">
+      <c r="W7" s="127">
         <v>69</v>
       </c>
     </row>
@@ -11964,224 +11801,224 @@
       <c r="A8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="119">
+      <c r="B8" s="116">
         <f t="shared" ref="B8:B10" ca="1" si="9">B7/(RAND()/10+1)</f>
-        <v>8.2942924320732665</v>
-      </c>
-      <c r="C8" s="119">
+        <v>8.2276783255311088</v>
+      </c>
+      <c r="C8" s="116">
         <f t="shared" ref="C8:C10" ca="1" si="10">C7/(RAND()/10+1)</f>
-        <v>10.701165942312835</v>
-      </c>
-      <c r="D8" s="119">
+        <v>10.254773027649669</v>
+      </c>
+      <c r="D8" s="116">
         <f t="shared" ref="D8:D10" ca="1" si="11">D7/(RAND()/10+1)</f>
-        <v>11.068023758837164</v>
-      </c>
-      <c r="E8" s="119">
+        <v>10.451560995154356</v>
+      </c>
+      <c r="E8" s="116">
         <f t="shared" ref="E8:E10" ca="1" si="12">E7/(RAND()/10+1)</f>
-        <v>10.720938160504389</v>
-      </c>
-      <c r="F8" s="119">
+        <v>11.160227077977282</v>
+      </c>
+      <c r="F8" s="116">
         <f t="shared" ref="F8:F10" ca="1" si="13">F7/(RAND()/10+1)</f>
-        <v>9.1791334281983481</v>
-      </c>
-      <c r="G8" s="119">
+        <v>9.6752573650949465</v>
+      </c>
+      <c r="G8" s="116">
         <f t="shared" ref="G8:G10" ca="1" si="14">G7/(RAND()/10+1)</f>
-        <v>12.161759949977448</v>
-      </c>
-      <c r="H8" s="119">
+        <v>11.652700896049412</v>
+      </c>
+      <c r="H8" s="116">
         <f t="shared" ref="H8:H9" ca="1" si="15">H7/(RAND()/10+1)</f>
-        <v>13.819602289966314</v>
-      </c>
-      <c r="J8" s="113"/>
+        <v>13.716369503745041</v>
+      </c>
+      <c r="J8" s="144"/>
       <c r="K8" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="L8" s="128">
+      <c r="L8" s="125">
         <v>14531</v>
       </c>
-      <c r="M8" s="118">
+      <c r="M8" s="115">
         <v>16.666506090427301</v>
       </c>
-      <c r="N8" s="129">
+      <c r="N8" s="126">
         <v>65.308375197852797</v>
       </c>
-      <c r="O8" s="129">
+      <c r="O8" s="126">
         <v>7.0708829399215398</v>
       </c>
-      <c r="U8" s="128">
+      <c r="U8" s="125">
         <v>630</v>
       </c>
-      <c r="V8" s="130">
+      <c r="V8" s="127">
         <v>70</v>
       </c>
-      <c r="W8" s="130">
+      <c r="W8" s="127">
         <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="119">
+      <c r="B9" s="116">
         <f t="shared" ca="1" si="9"/>
-        <v>7.8875725693612102</v>
-      </c>
-      <c r="C9" s="119">
+        <v>7.9263230199608934</v>
+      </c>
+      <c r="C9" s="116">
         <f t="shared" ca="1" si="10"/>
-        <v>10.357279675431045</v>
-      </c>
-      <c r="D9" s="119">
+        <v>9.4989576738182002</v>
+      </c>
+      <c r="D9" s="116">
         <f t="shared" ca="1" si="11"/>
-        <v>10.258424138326594</v>
-      </c>
-      <c r="E9" s="119">
+        <v>9.5183816769043048</v>
+      </c>
+      <c r="E9" s="116">
         <f t="shared" ca="1" si="12"/>
-        <v>10.129806107443098</v>
-      </c>
-      <c r="F9" s="119">
+        <v>10.380822069992975</v>
+      </c>
+      <c r="F9" s="116">
         <f t="shared" ca="1" si="13"/>
-        <v>8.7737643403379604</v>
-      </c>
-      <c r="G9" s="119">
+        <v>9.235014807202889</v>
+      </c>
+      <c r="G9" s="116">
         <f t="shared" ca="1" si="14"/>
-        <v>11.243685712076372</v>
-      </c>
-      <c r="H9" s="119">
+        <v>11.633358613684939</v>
+      </c>
+      <c r="H9" s="116">
         <f t="shared" ca="1" si="15"/>
-        <v>13.307384273675961</v>
-      </c>
-      <c r="J9" s="113"/>
+        <v>12.905510275362104</v>
+      </c>
+      <c r="J9" s="144"/>
       <c r="K9" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="L9" s="128">
+      <c r="L9" s="125">
         <v>11737</v>
       </c>
-      <c r="M9" s="118">
+      <c r="M9" s="115">
         <v>16.597000937207099</v>
       </c>
-      <c r="N9" s="129">
+      <c r="N9" s="126">
         <v>75.342506603050097</v>
       </c>
-      <c r="O9" s="129">
+      <c r="O9" s="126">
         <v>8.0263270000851996</v>
       </c>
-      <c r="U9" s="128">
+      <c r="U9" s="125">
         <v>490</v>
       </c>
-      <c r="V9" s="130">
+      <c r="V9" s="127">
         <v>80</v>
       </c>
-      <c r="W9" s="130">
+      <c r="W9" s="127">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="116" t="s">
+      <c r="A10" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="119">
+      <c r="B10" s="116">
         <f t="shared" ca="1" si="9"/>
-        <v>7.8343109907837585</v>
-      </c>
-      <c r="C10" s="119">
+        <v>7.3532222580359141</v>
+      </c>
+      <c r="C10" s="116">
         <f t="shared" ca="1" si="10"/>
-        <v>10.352641593572697</v>
-      </c>
-      <c r="D10" s="119">
+        <v>9.0559779651121612</v>
+      </c>
+      <c r="D10" s="116">
         <f t="shared" ca="1" si="11"/>
-        <v>9.7960257445207084</v>
-      </c>
-      <c r="E10" s="119">
+        <v>9.2749055916620211</v>
+      </c>
+      <c r="E10" s="116">
         <f t="shared" ca="1" si="12"/>
-        <v>10.067767651456732</v>
-      </c>
-      <c r="F10" s="119">
+        <v>9.713670580593968</v>
+      </c>
+      <c r="F10" s="116">
         <f t="shared" ca="1" si="13"/>
-        <v>8.5102717821687843</v>
-      </c>
-      <c r="G10" s="119">
+        <v>8.6845005887688274</v>
+      </c>
+      <c r="G10" s="116">
         <f t="shared" ca="1" si="14"/>
-        <v>10.272073976047643</v>
-      </c>
-      <c r="H10" s="119">
+        <v>11.003896921492963</v>
+      </c>
+      <c r="H10" s="116">
         <f ca="1">H9/(RAND()/10+1)</f>
-        <v>12.206273447087582</v>
-      </c>
-      <c r="J10" s="113"/>
+        <v>12.16543513275878</v>
+      </c>
+      <c r="J10" s="144"/>
       <c r="K10" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="L10" s="128">
+      <c r="L10" s="125">
         <v>9061</v>
       </c>
-      <c r="M10" s="118">
+      <c r="M10" s="115">
         <v>18.102085862487499</v>
       </c>
-      <c r="N10" s="129">
+      <c r="N10" s="126">
         <v>85.343339587241999</v>
       </c>
-      <c r="O10" s="129">
+      <c r="O10" s="126">
         <v>8.9154618695508194</v>
       </c>
-      <c r="U10" s="128">
+      <c r="U10" s="125">
         <v>806</v>
       </c>
-      <c r="V10" s="130">
+      <c r="V10" s="127">
         <v>90</v>
       </c>
-      <c r="W10" s="130">
+      <c r="W10" s="127">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="138">
+      <c r="B11" s="135">
         <v>6.2780291529866199</v>
       </c>
-      <c r="C11" s="138">
+      <c r="C11" s="135">
         <v>8.0527744414473794</v>
       </c>
-      <c r="D11" s="138">
+      <c r="D11" s="135">
         <v>8.6155584215252308</v>
       </c>
-      <c r="E11" s="138">
+      <c r="E11" s="135">
         <v>9.1335606618184002</v>
       </c>
-      <c r="F11" s="138">
+      <c r="F11" s="135">
         <v>8.3990092536410899</v>
       </c>
-      <c r="G11" s="138">
+      <c r="G11" s="135">
         <v>10.653735585124236</v>
       </c>
-      <c r="H11" s="138">
+      <c r="H11" s="135">
         <v>12.4082436236507</v>
       </c>
-      <c r="J11" s="114"/>
+      <c r="J11" s="145"/>
       <c r="K11" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="L11" s="131">
+      <c r="L11" s="128">
         <v>7726</v>
       </c>
-      <c r="M11" s="132">
+      <c r="M11" s="129">
         <v>16.842738804038301</v>
       </c>
-      <c r="N11" s="133">
+      <c r="N11" s="130">
         <v>95.325912503235799</v>
       </c>
-      <c r="O11" s="133">
+      <c r="O11" s="130">
         <v>9.9996117007507106</v>
       </c>
-      <c r="U11" s="131">
+      <c r="U11" s="128">
         <v>258</v>
       </c>
-      <c r="V11" s="134">
+      <c r="V11" s="131">
         <v>100</v>
       </c>
-      <c r="W11" s="134">
+      <c r="W11" s="131">
         <v>165</v>
       </c>
     </row>
